--- a/public/conference_list.xlsx
+++ b/public/conference_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,64 +473,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025 FIRS Conference</t>
+          <t>Johns Hopkins Carey Finance Conference</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Seoul, South Korea</t>
+          <t>Johns Hopkins Carey Campus, 100 International Drive, Baltimore, MD</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Theoretical, quantitative, and empirical papers in all areas of finance</t>
+          <t>All areas of finance</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>65th World Continuous Audit and Reporting Symposium(WCARS)</t>
+          <t>Future Finance Fest (3f)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>American University of Sharjah, Sharjah, United Arab Emirates</t>
+          <t>Vilnius, Lithuania</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -540,34 +540,34 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Predictive and prescriptive analytics in auditing, AI-driven continuous auditing, Generative AI in financial reporting, AI for enhanced risk assessment, Advanced AI techniques for fraud detection, AI and ethical standards in accounting, Integration of AI with blockchain for auditing</t>
+          <t>Practical implications for the future of finance, academic and fintech perspectives, finance innovations</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26th Annual Texas Finance Festival</t>
+          <t>TSE Industrial Organisation &amp; Finance Conference</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Austin, Texas</t>
+          <t>Toulouse School of Economics</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -577,34 +577,34 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Any topic in financial economics</t>
+          <t>Competition between financial service providers, Entry of new players in the financial intermediation chain (Fintechs, NBFIs), Integration between different financial services (e.g., payment and credit) or between financial services and other activities (e.g., social networks and payment), The role of data in the provision of financial services, Open Banking, The use of structural estimation techniques to analyze the demand for financial products and/or strategic interactions between financial firms, The impact of the organization of financial firms for product market competition</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Financial Intermediation in Third Millennium: Perils and Pearls of Technology</t>
+          <t>2nd Exeter Sustainable Finance Conference</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Essex Business School, University of Essex, Wivenhoe Park, Colchester, U.K.</t>
+          <t>Exeter, UK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -614,34 +614,34 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>New technology-based financial products, New paradigms of competition in financial intermediation, Connections between banks and shadow banks, Interaction between monetary policy, financial conditions, and build-up of fragilities in financial markets in the new digital economy, Crypto assets, crypto currencies, and digital currencies, Blockchain technologies and smart contracts, Fintech and democratization of investments, Geopolitical risks and implications for market stability, New challenges for regulation and supervision, Big data, nowcasting, and text analysis in finance, Digital finance, banks, and non-banks in the interface between banking and financing innovations in medicine/healthcare, societal management of an aging population, and other non-traditional areas.</t>
+          <t>Sustainable and responsible finance, interdisciplinary research on sustainable finance.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2nd Lapland Household Finance Summit</t>
+          <t>Hybrid Conference on Islamic Law and Finance</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Levi Summit, Levi (Kittilä), Lapland, Finland</t>
+          <t>Durham University Business School (Waterside Building Campus), UK</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,219 +651,219 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Stock market participation, Portfolio and security choice, Personality, health, cognition, biology, and household finance, Debt behavior, financial distress, default, bankruptcy, and debt resettlement, Saving for retirement and financial decision-making of the elderly, Financial literacy, financial education, and interventions for better financial decision-making, Expectations, beliefs, and preferences, Financial advice and advisors, Climate change, sustainability, and household financial decision-making, Machine-learning, algorithms, and data-driven household finance</t>
+          <t>Financial Innovation (including FinTech); Shaping Monetary Policy from a Maqasid perspective; Designing Fiscal Policy from a Maqasid perspective; Artificial Intelligence (AI) in Islamic Finance; Legal and Regulatory Frameworks; Access to Finance and Social Welfare; Corporate Governance and Shari’ah Compliance; Purpose-Based vs. Problem-Based Approaches; Cultural Dimensions in Islamic Finance; Islamic Finance for Global Challenges; Governance Mechanisms and Stakeholder Accountability.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2nd Lapland Investment Fund Summit</t>
+          <t>21st Annual Conference of the Asia-Pacific Association of Derivatives (APAD)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Levi Summit, Levi (Kittilä), Lapland, Finland</t>
+          <t>Busan, Korea</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>US$ 200 (waived for presenters of accepted papers)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>All areas related to investment funds, including fund performance measurement and manager selection, capital raising, ESG, DEI, and sustainability in private equity funds and hedge funds, machine learning and artificial intelligence in predicting fund risk and performance, broad macroeconomic issues such as systemic risk, liquidity, and contagion, innovations in fund design such as theme-based ETFs</t>
+          <t>Derivatives; Volatility; Risk Management; Asset Pricing; Investments; Corporate Finance; Corporate Governance; Market Microstructure; Banking; Personal and Household Finance; ESG and Climate Finance; AI and Big Data; Blockchain and Crypto Assets; Fintech; Regulation; Behavioral Finance</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Adam Smith Workshop Spring 2025</t>
+          <t>EBA's 14th Policy Research Workshop: Bridging capital and growth - the role of financial structures and intermediaries</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>HEC Paris</t>
+          <t>EBA premises (Paris, France) and remotely</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>90 EUR</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Asset Pricing, Behavioral Finance, Corporate Finance, Financial Intermediation, Household Finance, and International Finance</t>
+          <t>The impact of global capital flows on market efficiency and the role of financial intermediation, Access to finance by entrepreneurs ensuring that capital is used in the most productive ways, Provision of mechanisms for managing risk and contribution from regulatory frameworks on the functioning and stability of financial intermediaries, Incorporation of environmental, social, and governance (ESG) supporting sustainable development and growth, Advances in digital finance initiatives and better alignment with regulation and policies</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>The 33rd Annual Conference on Pacific Basin Finance, Economics, Accounting, and Management</t>
+          <t>5th CEPR-Stigler Center Conference on Political Economy of Finance: Governance in a Polarized World</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-15</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-06-14</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Chung Yuan Christian University, Taiwan</t>
+          <t>London</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>USD $250 for On-line Presenter &amp; USD $300 for On-site Presenter. Additional $250 for publication in RQFA and $150 for publication in RPBFMP.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pacific Basin Finance, Economics, Accounting, Management</t>
+          <t>Corporate governance adjustments in a conflictual world, response of divided society and politicized corporations to major societal challenges such as climate change or economic decline, impact of inequality and politicization on governance choices and the trade-offs faced by voters, businesses and governments, fostering trust and cohesion in an era of polarization.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UBC Winter Finance Conference 2025</t>
+          <t>Inaugural Finance Conference Vitznau 2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Fairmont Chateau Whistler Resort Whistler, British Columbia, Canada</t>
+          <t>Vitznau, Switzerland</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CAD $75</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>General interest to the finance profession</t>
+          <t>Machine learning for the cross-section of returns, Big data analysis, Large language models and unstructured data, Non-standard datasets for return predictions, Systematic expectations mistakes, and predictable returns, Feasible and implementable portfolios, Predictable turning points</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025 Loyola Wealth Management Conference</t>
+          <t>Canadian Derivatives Institute (CDI) Conference</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Loyola University Maryland, Baltimore, MD 21210</t>
+          <t>Montréal (Qc), Canada</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>No submission or registration fee.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Empirical papers on mutual funds, ETFs, REITs, private equity, or financial planning.</t>
+          <t>Derivatives</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025 Plato Market Innovator (MI3) Conference</t>
+          <t>The Institute for Quantitative Investment Research, Residential Seminar, Autumn 2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>One Moorgate Place, London</t>
+          <t>Eastwell Manor, Kent, United Kingdom</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -873,71 +873,71 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Microstructure including theoretical, empirical and experimental work, particularly research relating to European markets.</t>
+          <t>Factors and Macro Risks in a Changing World, Diversification in an inflationary environment, AI applications in investment management, Quantitative investing in private assets, Causality and models of expected returns</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ninth Annual Mergers &amp; Acquisitions Research Centre Conference</t>
+          <t>8th CEIBS Finance/Accounting Symposium</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>London, UK</t>
+          <t>Shanghai, China</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>No submission fee.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Mergers and acquisitions, Deal structure - from financing to integration, Activism, Regulatory changes, Domestic and cross border transactions, Corporate social responsibility.</t>
+          <t>Corporate Finance and Governance, Private Equity and Venture Capital, Fintech, and Political Economy of Finance</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Finance and Accounting 2025 Annual Research Symposium</t>
+          <t>12th Asset Pricing Workshop</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>University of Westminster, 35 Marylebone Road, London, NW1 5LS UK</t>
+          <t>Theodor W. Adorno Platz 3, House of Finance, 60323 Frankfurt</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -947,34 +947,34 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>AI in Accounting and Finance, digital assets, asset pricing, corporate finance, financial econometrics, forecasting, fund management, market sentiment, sustainable development, thematic investing, financial reporting, accounting standards, taxation, big data and data analytics.</t>
+          <t>asset pricing, theoretical, empirical, intermediary, macrofinance</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FMARC 2025 - Financial Management &amp; Accounting Research Conference</t>
+          <t>9th SAFE Market Microstructure Conference</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Theodor W. Adorno Platz 3, House of Finance, 60323 Frankfurt</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -984,108 +984,108 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Finance, Accounting, and related fields.</t>
+          <t>Market microstructure</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8th Annual World Symposium on Investment Research</t>
+          <t>14th Fixed Income and Financial Institutions (FIFI) Conference</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Washington, D.C.</t>
+          <t>University of South Carolina in Columbia, SC</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$75</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Arbitrage in Asset Markets, Corporate Decisions and Asset Returns, Firm Governance and Valuation, Global Investment Issues, Hedge Funds and Other Alternative Investments, High-Frequency Trading, Investor Behavior and Performance, Liquidity and Security Returns, Mutual Funds and Pension Funds, Portfolio Rebalancing Strategies, Real Economy and Asset Prices, Return Predictability.</t>
+          <t>Fixed income, commercial and investment banks, asset management and mutual fund companies, short sellers, hedge funds, broker-dealers, insurance companies, PE &amp; VCs, FinTech companies.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Asset Pricing and Machine Learning</t>
+          <t>The 8th Cryptocurrency Research Conference</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Gothenburg, Sweden</t>
+          <t>National and Kapodistrian University of Athens, Athens, Greece</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>£400</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Asset pricing, machine learning, finance, econometrics</t>
+          <t>AI and Machine Learning in Crypto and Blockchain, Big Data in Fintech, Blockchain in Global Finance, Crypto Asset Efficiency and Market Behaviour, Central Bank Digital Currencies (CBDCs), Crowdfunding and P2P Lending, Cybercrime and Cybersecurity in Fintech, Digital Banking and the Digital Economy, Decentralized Autonomous Organizations (DAOs), Decentralized Finance (DeFi), DEXs vs. CEXs: Market Dynamics, Environmental Sustainability of Cryptocurrency, Fintech Regulation and Compliance, Cryptocurrency and Financial Stability, Media and Investor Attention on Fintech and DeFi, Non-Fungible Tokens (NFTs) and Digital Assets, Natural Language Processing (NLP) in Fintech, Blockchain Opportunities for Entrepreneurs, Russian Sanctions and the Fintech Industry, Stablecoins: Design and Risks, AI-Driven Innovation in Crypto Markets, Preparing for post-Quantum Blockchain, Other relevant topics.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OCC Economics Bank Research Symposium: The Use of Artificial Intelligence (AI) in Banking and Finance</t>
+          <t>6th CEAR-RSI Household Finance Workshop</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OCC Washington DC</t>
+          <t>Montréal (Québec), Canada</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1095,34 +1095,34 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Addressing potential bias and the disparate impacts from the use of AI and machine learning (ML) in lending, the regulatory landscape of AI/ML, the impacts of algorithmic underwriting and appraising, use of AI to understand consumer financial behavior and decision‐making, addressing the potential risks that AI poses to financial stability, use of AI/ML for fraud detection, prevention, and operational enhancement processes, the risks of AI/ML in perpetrating fraud, algorithmic bias, and misinformation, developing trustworthy AI and alignment frameworks.</t>
+          <t>Consumption-saving decisions and investment choices, Financial literacy and education, Pensions and retirement, Financial planning and advice, Financial delinquency and bankruptcy, Household insurance and risk management</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IPC Alternative Investments Conference &amp; Spring Research Symposium 2025</t>
+          <t>Compensation of Top Executives: Determinants and Consequences</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Chapel Hill, North Carolina, USA</t>
+          <t>Cambridge, MA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1132,19 +1132,19 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Private capital and alternative investments, including research on buyouts, distressed securities, mezzanine financing, special situations, private credit, venture capital, hedge funds, real estate, and real assets.</t>
+          <t>Effects of CEO pay on firm performance and behavior, relationship between CEO pay and the market for executive talent, role of institutional investors and other shareholders in setting CEO pay, drivers of variation in CEO pay across time, firms, and countries, optimal design of CEO pay contracts, effects of regulation on CEO pay.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>14th International Conference of the Financial Engineering and Banking Society</t>
+          <t>Research Symposium on Finance and Economics (RSFE) 2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1159,81 +1159,81 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MBS School of Business, Montpellier, France</t>
+          <t>IFMR GSB, Krea University, Andhra Pradesh, India (Virtual)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No submission fee</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Various areas of banking and finance, both theoretical and empirical papers</t>
+          <t>Corporate Finance, Capital Structure and Dividend Policy, Emerging trends in Corporate Finance and Corporate Governance, Mergers and Acquisitions, Financial Reporting and Regulations, Behavioural Finance, Computational Finance and Financial Econometrics, Asset Pricing, Financial Markets, Derivatives Trading and Pricing, Market Microstructure and Algorithmic Trading, Banking and Risk Management, Digital Finance, Financial Tech, AI, and Machine Learning, Microeconomics, Applied Microeconomics, Macroeconomics, International Economics, International Trade, Development Economics, Energy Economics, Econometrics, Applied Econometrics, Public Finance, Political Economy, Game Theory, Economic Growth, Environmental Economics, Labour Economics</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Geopolitics and the Ethics of Finance and Trade</t>
+          <t>Behavioral/Cognitive Finance, Decision/Risk Sciences in the Age of Artificial Intelligence; Entrepreneurship &amp; Economics-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Klosterneuburg, Austria</t>
+          <t>Silicon Valley/Santa Clara, CA, USA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>No conference or submission fee!</t>
+          <t>$99.00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Responsible management of geopolitical risks, Ethics, supply chains, and free trade, Financial system and the economics of sanctions, How should monetary policy react to geopolitical shocks?</t>
+          <t>Behavioral/Cognitive Finance &amp; Economics, Neuroscience/Neuromorphic Computing, Quantum Entanglement Political Economy, Biological Anthropology, Brain-Computer Interfaces, Decision Making and Risk Taking, Venture Startups and Exits, Trust, Financial and Capital Markets, Social Capital, Moral Sentiments and Working of the Markets Economy, Capitalism, Investment, Financial Management of Companies, Role of Virtual Assistants, Entrepreneurship, Innovation, and Economic Development, Sustainable Finance: Efficient Financial Markets, Market for Human/Social Capital &amp; Economic Development, Role of Behavioral Finance &amp; Economics in Personal Finance, Retirement Saving &amp; Planning, Teaching, Learning, and Training- ranging from case development to other pedagogical issues, using AI or AGI, Behavioral Finance in Practice</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Conference on “Information, Contracts, and Firms” and corresponding Journal of Corporate Finance Special Issue</t>
+          <t>The 16th Annual Financial Markets and Liquidity (AFML) Conference</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bocconi University Campus, Milan, Italy</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1243,108 +1243,108 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Information and contracts in firms, fraud and corruption, the structure of financing, contracts and firm value, contracting and incentives, the role of information and contracts for other key stakeholders (such as employees, customers or suppliers), the role of information intermediaries, how firms determine their disclosure policies, particularly in regard to forming contracts with other parties, and the impact of big data on corporate contracts.</t>
+          <t>Corporate finance; Investments; Banking; Asset Pricing; Mathematical Finance; Systemic Risk; Regulations; ESG Investments and Sustainability; Climate Finance; Household Finance; AI and Machine Learning; Game Theoretic Aspects of Financial Markets; Market and Funding Liquidity; Global Liquidity (both Public and Private); Leverage and Macroeconomic Determinants; Market Microstructure; Illiquid Alternative Investments; and Asset Innovations.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OFR &amp; RCFS Rising Scholars Conference on the Future of Financial Stability</t>
+          <t>2025 Conference on Accounting and Finance Research and Education in the Era of Rapid Technological Advances</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Washington, DC</t>
+          <t>Xi’an Jiaotong-Liverpool University, Suzhou, China</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Onsite participants RMB ¥2,000 (or USD $280) and Online participants RMB ¥1,200 (or USD $180)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Interactions between monetary policy, financial conditions, and fragilities in financial markets; Connections between banks and non-banks (i.e., shadow banks, insurance companies, funds); Propagation of contagion from non-banks to the banking system; Risk-taking in the non-banking and fintech sectors; Climate and geopolitical risks and implications for market stability; BigTech finance, increased market concentration and financial stability implications; Fintech, financial inclusion and financial stability; Role of supervision, regulation, and transparency; Financial stability and implications for financial inclusion.</t>
+          <t>Artificial intelligence, big data, machine learning, Blockchain, cryptocurrencies, digital finance, Fintech and financial inclusion, Cybersecurity in financial data management, Accounting for technology and innovation, Business ethics and corporate governance, Corporate social responsibility (CSR), Environmental, Social and Governance (ESG), Entrepreneurship, innovation and sustainability, Regulation and the roles of government, Risk management in the digital age, Green finance, green innovation and technology, Green supply chain analysis and social responsibility in global supply chains, Curriculum design and educational research, Pedagogy and case studies.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>The 2024 International Conference on Sustainability, Environment, and Social Transition in Economics and Finance (SESTEF 2024)</t>
+          <t>4th Holden Conference in Finance and Real Estate</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>University of Paris I: Panthéon-Sorbonne, Paris, France</t>
+          <t>Bloomington, Indiana</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Before November 1, 2024: 300 Euros for Ph.D. students, 400 Euros for academics and professionals. After November 1, 2024: 350 Euros for Ph.D. students, 450 Euros for academics and professionals.</t>
+          <t>$95</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Climate Risks and Corporate Finance, Energy Markets and Sustainability, Resource Policy and Environmental Economics, Transition to Carbon-Neutral Energy Systems, Economic and Financial Aspects of Biodiversity and Nature-Based Solutions, Sustainable Finance.</t>
+          <t>empirical and theoretical papers in all finance and real estate areas</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ASU Sonoran Winter Finance Conference 2025</t>
+          <t>The 2025 5th Global PhD Student Colloquium</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Scottsdale, Arizona</t>
+          <t>University of Sydney Business School, Australia</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1354,182 +1354,182 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>All areas of Finance (Both theoretical and empirical contributions)</t>
+          <t>All business disciplines, especially Finance and Accounting</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bretton Woods Accounting and Finance Ski Conference</t>
+          <t>2025 Fudan International Symposium on AI in Finance</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bretton Woods, New Hampshire</t>
+          <t>Shanghai, China</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Accounting and finance</t>
+          <t>Theoretical and empirical advancements in AI for asset pricing, financial modeling, and risk management, AI-driven econometrics and causal inference in financial markets, Deep learning, reinforcement learning, and generative models for financial forecasting, NLP and LLMs in financial forecasting, financial text analysis, and sentiment modelling, AI in behavioral finance and market microstructure analysis, AI applications in climate finance, ESG analytics, and sustainable investing.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>International Conference on Contemporary Issues in Economics</t>
+          <t>2025 UGA Fall Finance Conference</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>XIM University, New Campus, Harirajpur, Bhubaneswar, Odisha, India</t>
+          <t>Terry College of Business, University of Georgia, Athens, GA</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$65</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Contemporary issues in economics, theoretical and empirical economics</t>
+          <t>All areas of finance</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7th Future of Financial Information Conference</t>
+          <t>2025 FMA Annual Meeting</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>INSEAD, France</t>
+          <t>Vancouver, BC, Canada</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>45 USD</t>
+          <t>$75 (current FMA members); $85 (non-members)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>New and unexpected sources of information, use of big data, machine learning algorithms, hardening of information, economics of data, innovation in financial markets</t>
+          <t>Financial decision-making, financial management, and related topics</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3rd Annual Conference on Market-Based Solutions for Reducing Wealth Inequality</t>
+          <t>The Fifth Israel Behavioral Finance Conference</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Chapel Hill, NC</t>
+          <t>Academic College of Tel Aviv Yaffo- Israel</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No submission fee.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Market-based solutions for reducing wealth inequality, Inclusive economic growth, Innovation in the business sector, Opportunities for economic advancement within lower wealth communities.</t>
+          <t>Behavioral finance, applications to the theory of the firm, individual and professional investors, experimental finance, financial markets, international finance, ESG investing, intersection of behavioral finance and women, women’s participation in finance and investment, financial nudges via social networks or new AI products, inclusive financial landscape.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>The 2024 TSFS International Conference in Finance</t>
+          <t>NTU Summer School &amp; Conference on AI for Finance</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-12-14</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Kuriat Palace Hotel, Monastir, Tunisia</t>
+          <t>Nanyang Business School, Nanyang Technological University, Singapore</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1539,145 +1539,145 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Accounting, auditing, and taxation, Asset allocation and valuation, Banking regulation and financial services, Behavioral and experimental finance/economics, Big data in finance, artificial intelligence, and cyber security, Climate finance and sustainability, Corporate finance, IPOs, SEOs, M&amp;A, and crowdfunding, Corporate governance, Country funds, sovereign funds, and hedge funds, Debt issues, Digital finance, cryptocurrency finance, and blockchain, Emerging markets finance, Energy finance and environment Issues, Entrepreneurial finance, venture capital, and private equity, Ethical finance, green finance, ESG and CSR, Financial accounting and regulation, Financial crises, contagion, integration, and global risks interconnection, Financial engineering and derivatives, Foreign currency issue, Global imbalances &amp; sustainability, Household finance, real estate finance, and microfinance, Market behavior efficiency, Multinational financial management, Portfolio management and optimization, Risk management and compliance, Small business finance.</t>
+          <t>Financial implications and applications of artificial intelligence, Asset pricing, Portfolio management, Corporate finance, and Financial accounting. AI in Risk management and credit scoring, Natural language processing in financial applications, Fraud detection, Financial forecasting, and Market sentiment analysis, among others.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>9th Annual Young Scholars Finance Consortium</t>
+          <t>The 32nd Annual Global Finance Conference</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>College Station, Texas</t>
+          <t>Boston, MA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>$80</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Corporate Finance/Financial Intermediation</t>
+          <t>Accounting, Auditing, and Taxation; Banking, Financial Services, and Investment Banking; Behavioral and Experimental Finance/Economics; Big Data, AI, Machine Learning, and Fintech in Global Finance &amp; Banking; Emerging Markets (BRICS, MIST, MINT, Next 11, PIIGS, SANE); Corporate Finance, Investments &amp; Global Perspectives; Corporate Governance and Executive Compensation; Green Finance &amp; ESG Investments; Climate Risks and Financial Stability; Global Health Issues and Pandemic Impacts; Derivatives, Financial Engineering, and Real Options; Entrepreneurship and Venture Capital; Financial Market Integration, Linkages &amp; Segmentation; Foreign Exchange &amp; Monetary Economics; Global Energy and Environmental Finance; Financial Crises, Global Inequality &amp; Economic Imbalances; Household &amp; Micro Finance; IPOs, SEOs, Stock Buybacks &amp; Privatization; Mergers &amp; Acquisitions, Corporate &amp; State Sovereign Wealth Funds; Blockchain, Cryptocurrencies, and Digital Finance; Portfolio Management, Asset Allocation &amp; Foreign Direct Investments; Real Estate Finance, REITs, and Crowdfunding; Risk Management, Debt, Insurance &amp; Reinsurance; Sovereign Wealth Funds, Hedge Funds, ETFs &amp; Mutual Funds; Sustainability, Corporate Social Responsibility &amp; Ethics.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Boca Finance and Real-Estate Conference</t>
+          <t>2025 International Symposium on Climate, Finance, and Sustainability (ISCFS-2025)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Schmidt Family Complex, Florida Atlantic University, Boca Raton, Florida, USA</t>
+          <t>House of Management Science, Paris Pantheon-Assas University</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>$50</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Interest-Rate Risk and it’s Impact on Banking and Real Estate, banking, financial institutions, commercial real estate, residential real estate, corporate finance</t>
+          <t>Carbon Finance and Taxes, Climate Finance, Climate Negotiations and Scenarios, Climate Risk and Disclosures, Climate-resilient Economies, Energy Derivatives: Pricing and Hedging, Energy Markets: Modeling, and Forecasting, Energy, Environment, and Climate Models, Financial and Economic Analysis of Energy Markets, Financial Regulation of Energy and Environmental Markets, Green Finance and Sustainable Investment, Just Energy Transition, Macroeconomic Implications of Net-Zero Carbon Emissions, Natural Resources, Risk, Welfare and Social Preferences, Renewable Energy Regulation and Energy Governance, Role of Financial Institutions in Sustainability.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tenth UNC Duke Corporate Finance Conference</t>
+          <t>Conference on Sustainable Financial Intermediation</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Chapel Hill, North Carolina</t>
+          <t>Novotel Reims Tinqueux, France</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>All areas of corporate finance</t>
+          <t>Financial intermediation, household finance, corporate finance, financing of “green” assets</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>World Finance Conference 2025</t>
+          <t>9th Shanghai-Edinburgh-London Conference Sustainable Finance in the Digital Era</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Shanghai and Online</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1687,71 +1687,71 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Various fields of finance, including Fintech, economics, and banking</t>
+          <t>sustainable finance, AI, blockchain and ESG integration, AI and machine learning in ESG investment strategies and climate risk modelling, blockchain applications in carbon markets and green bonds, digital finance and emerging technologies in supporting a low-carbon transition, policy frameworks shaping the adoption of sustainable finance.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>11th International Conference on Sovereign Bond Markets</t>
+          <t>2025 Vietnam Symposium in Entrepreneurship, Finance, and Innovation</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Venice, Italy</t>
+          <t>Hanoi, Vietnam</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No submission fee is required.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Sovereign Bond Markets in smooth or bumpy landing times, theoretical and empirical papers on the interactions between sovereign bond markets and conventional and unconventional monetary policy, the impact of inflation-motivated monetary and fiscal policies on the sovereign bond markets, and financial stability in an unstable world.</t>
+          <t>AI, Big Data, and Machine Learning Applications in Finance, Asset Pricing, Bankruptcy and Liquidation, Biodiversity Finance, Climate Finance, Corporate Finance and Governance, Corporate Responsibility and Sustainability, Crypto Assets and Decentralized Finance, Digital Finance, ESG and Sustainable Finance, Financial Markets, Green Cryptocurrencies, Household Finance, Information Disclosure, Market Efficiency, and Transparency, Portfolio and Investment Decisions, Business Model Innovation, Corporate Digital Transformation, Crowdfunding and P2P Lending, Entrepreneurship, Intrapreneurship, and Innovation, Entrepreneurship in Emerging and Transition Markets, Family-Owned Businesses and Governance, Governance and Financing of High-Tech Firms, New Venture Creation and Performance, Social and Sustainable Entrepreneurship, Startups, SMEs, and Resource Allocation, Venture Financing and Entrepreneurial Growth, Digital Human Resources, Digital Innovation, Knowledge Management, and Entrepreneurship, Electronic Markets and Trading Platforms, FinTech and Alternative Finance, Innovation Management and Growth Strategies, Sustainability in the Digital Economy</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>The Friends of Women in Finance 3rd Symposium in Greater New York (FWFS-GNY)</t>
+          <t>20th Central Bank Conference on the Microstructure of Financial Markets</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pace University, 1 Pace Plaza, New York City</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1761,145 +1761,145 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Corporate finance, governance, markets, investments, financial markets and institutions, climate and sustainable finance, social and behavioral finance.</t>
+          <t>AI-driven trading algorithms and market quality, AI predictive analytics and their impact on market efficiency, Applications of AI in market making and liquidity provision, Implications of AI for market microstructure design, The role of technology and financial innovation in shaping settlement cycles in security markets, Alternative settlement cycles and financial stability, The Impact of alternative settlement cycles on market liquidity, volatility, price efficiency and informativeness, Asset tokenisation: Liquidity and price discovery implications, Impact of market fragmentation on price discovery and information asymmetry in digital-asset markets, Decentralised finance: market making, trading mechanisms, market efficiency, and related regulatory developments, Price dynamics and liquidity in stablecoin markets, Stablecoin design and peg stability.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>12th Annual Conference on Financial Market Regulation (CFMR 2025)</t>
+          <t>Financial Regulation and RegTech Forum</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sec Headquarters, 100 F St NE, Washington, DC 20002</t>
+          <t>Beijing, China</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>$50</t>
+          <t>RMB 2000 for non-students, RMB 1000 for students.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Asset management, corporate finance, enforcement, financial intermediation, market microstructure and trading. This could include but is not limited to topics such as investment advisers, ETPs and liquidity, investment companies, hedge funds, and other institutional investors, custody, corporate disclosures, initial public offerings, seasoned equity offerings, corporate mergers and acquisitions, fintech, corporate governance and voting, corporate and municipal debt offerings, disclosures related to asset-backed securities, and more.</t>
+          <t>Methods and technologies for intelligent monitoring and discovery of abnormal trading behaviors in the securities market, Financial fraud detection methods, Methods for identifying and monitoring illicit financial activities and regulatory technologies, New approaches to financial risk assessment, New measurement methods and early warning techniques for financial systemic risk, New methods and technologies for credit risk assessment and credit scoring, Liquidity risk measurement methodology, Supply chain finance in the era of big data, The development of fintech and its impact, Fintech product and institutional risk monitoring, Application and innovation of large language models and generative AI in the financial sector, Interpretable AI, Model risk and model risk assessment methodology, AI approaches in the financial sector and their impact on financial stability, Blockchain technology and its application in financial regulation, Risk identification and monitoring methods for virtual currencies, Key technical facilities in the banking industry, Finance of science and technology, Digital finance</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>First Winter Finance Summit in Asia</t>
+          <t>Northern Finance Association 2025 Annual Meeting</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Appi Resort, Japan</t>
+          <t>Hyatt Regency, Calgary, Alberta</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Canadian $50 per paper</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>All areas related to finance and real estate finance</t>
+          <t>Papers on any topic related to finance</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>The 1st Workshop on LLMs and Generative AI in Finance</t>
+          <t>Fourth Oxford Sustainable Private Markets Conference</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NYU Engineering Building, New York, USA</t>
+          <t>Saïd Business School, University of Oxford, Park End Street, Oxford, OX1 1HP, UK</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No submission fee</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Processing unstructured data, Addressing hallucinations and improving interpretability, Optimizing LLM prompts, Integrating external data with LLMs through RAG, Fine-tuning LLMs for financial applications, Text-to-SQL applications, Verification and evaluation techniques, Financial modeling and risk analysis, ESG scoring and financial fraud detection</t>
+          <t>Environmental, social and governance(ESG) in private markets (private equity, private debt, real assets), reimagining private markets to achieve fair return on invested capital, the impact of private markets on public interest considerations.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025 Georgia Tech-Atlanta Fed Household Finance Conference</t>
+          <t>New Perspectives on Consumer Behavior in Credit and Payments Markets Conference</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Atlanta, GA</t>
+          <t>Federal Reserve Bank of Philadelphia</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1909,34 +1909,34 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Household financial decision-making, Inflation and consumer spending, Impact of AI and ML model adoption on consumers, Savings and investment behavior, Retirement decisions and choices, Housing and mortgage markets, Credit access and debt management, Impact of Fintech innovation and adoption, Behavioral economics and household finance, Disparities in credit access, Household wealth and inequality, Entrepreneurship, Small business lending.</t>
+          <t>Household debt and default, fintech, financial literacy, regulation, linkages between consumer credit and the real economy, and innovations in household payments</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Inquire Europe Spring Seminar</t>
+          <t>12th Annual Conference on Financial Market Regulation (CFMR 2025)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>SEC Headquarters, Washington, DC</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1946,34 +1946,34 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Machines and Data in Future Quant Investing, including potential topics as alternative data, big data, model algorithms, return prediction, portfolio construction, trading &amp; trading costs, large scale computing, and man versus machine.</t>
+          <t>Financial Market Regulation, views between academia, government, industry, and the SEC on topics relevant to the Commission.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>University of Kentucky Finance Conference</t>
+          <t>6th LTI@UniTO/Bank of Italy Workshop on Long-term investors’ trends: theory and practice</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Lexington, KY</t>
+          <t>Collegio Carlo Alberto, Turin, Italy</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1983,71 +1983,71 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>All areas of finance</t>
+          <t>Long-term investors’ strategies and behavior in times of geopolitical fragmentation, rising protectionism and technological breakthroughs, Shifting equilibria in government bond markets, The evolution of sustainable investment strategies and greenlash risks, Challenges for long-term investors stemming from increasing equity market concentration, The rising importance of non-bank investors in credit intermediation, The rise of cryptocurrencies and their impact on investment strategies, Emerging trends in asset allocation and risk management, Shock transmission mechanisms from the real economy to financial institutions, The use of big data and artificial intelligence to assess and manage risk, Innovations in financial markets, The effects of the demographic transitions on financial markets and the role of long-term investors in tackling them.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BIS – CEPR – Gerzensee – SFI Conference on Financial Intermediation 2025</t>
+          <t>Politics in Finance 2025 Conference</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Study Center Gerzensee</t>
+          <t>Georgetown University, Washington DC</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$75</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Financial Intermediation, Non-bank financial institutions, Macro-finance, Climate/green finance, Household finance, Fintech</t>
+          <t>The role of political connections and political ideologies in shaping capital market forces, how political ideologies affect the decision making by firms and workers, political connections and corruption in developing economies, the political economy of financial development, the interaction between government and financial institutions, implications of political uncertainty and political connections for asset prices and corporate policies, political economy of financial regulation and financial crises.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Workshop on recent developments in banking and innovation, University of Sydney</t>
+          <t>10th RiskLab Finland, Bank of Finland and European Systemic Risk Board Joint Conference on AI and Systemic Risk Analytics</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>The University of Sydney Business School, Sydney</t>
+          <t>Bank of Finland, Helsinki</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2057,34 +2057,34 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Recent developments in banking and innovation, modern roles of the credit market, how traditional and Fintech lenders contribute to financing innovation and growth, roles of AI, corporate innovation, Fintech, machine learning, textual analysis, big data.</t>
+          <t>Systemic risk analytics, use of AI including LLM and trustworthy AI, changing interdependencies in the financial markets due to AI, cybersecurity and operational risks as systemic risk, AI and Quantum Computing as potential sources of new systemic risks, use of AI with big data for systemic risk analytics, FinTech risks and opportunities, macroprudential policy and regulation, interconnectedness of the financial system, market-based finance risks, macroprudential policy measures, economic policies in uncertain times.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Columbia/BPI 2025 Bank Regulation Research Conference</t>
+          <t>2025 USTC Alumni Finance Conference</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Columbia University, New York, NY</t>
+          <t>Hefei, China</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2094,34 +2094,34 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Design of liquidity regulation including contingent liquidity provision; Drivers of structural change in the banking industry, particularly the ongoing evolution of credit formation across banks and nonbanks; Impact of liquidity regulation on liquidity risk management and the structure of bank balance sheets; Interaction of liquidity regulation with contingent liquidity provision, including central bank liquidity; Regulation, technological change and other factors driving credit formation by banks and nonbanks; Effectiveness of stress testing methodologies in assessing bank resilience; Implications for competition and merger policy.</t>
+          <t>Finance related topics</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>The Sustainable Finance research Forum Paris 2024</t>
+          <t>11th IWH-FIN-FIRE Workshop on “Challenges to Financial Stability”</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Halle Institute for Economic Research (IWH), Halle/Saale, Germany</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2131,108 +2131,108 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Corporate responsibility, Corporate governance, Corporate culture and values, Social matters and education in firms, Green banking, Green and Social Bonds, Impact banking and financial products, Climate finance, Greenwashing, Ratings, Responsible investments, Long term performance and risks, Financial education and literacy, Impact finance</t>
+          <t>Regulation, firms, and financial intermediation; Law, politics, and finance; Monetary policy, inflation, and financial resilience; Macroprudential policy and real estate; Financial networks and systemic risk; Pricing of climate risk in financial markets; Ecological hazards and the behaviour of firms and households; Governance of financial firms and markets.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>61st Annual Eastern Finance Association Meeting</t>
+          <t>Summer Research Conference in Finance 2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Philadelphia, PA</t>
+          <t>Indian School of Business, Hyderabad Campus, India</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>All areas of finance</t>
+          <t>Recent Advances in Finance, Corporate Finance, Asset Pricing, Behavioral Finance, Financial Intermediation, Household Finance, Microstructure</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Villanova Mid-Atlantic Research Conference in Finance (MARC)</t>
+          <t>Accounting and Economics Society Congress</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Villanova, PA</t>
+          <t>Columbia Business School, New York City</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>$60 USD</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>All topics in finance</t>
+          <t>Economic analysis in accounting and related areas, theoretical, archival and experimental research, accounting theory.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2024 International Symposium on Climate, Finance, and Sustainability (ISCFS-2024)</t>
+          <t>Annual Meeting of the Central Bank Research Association CEBRA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Paris Dauphine University</t>
+          <t>Boston, MA, USA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2242,108 +2242,108 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Carbon Finance and Taxes, Climate Finance, Climate Negotiations and Scenarios, Climate Risk and Disclosures, Climate-resilient Economies, Energy Derivatives: Pricing and Hedging, Energy Markets: Modeling, and Forecasting, Energy, Environment, and Climate Models, Financial and Economic Analysis of Energy Markets, Financial Regulation of Energy and Environmental Markets, Green Finance and Sustainable Investment, Just Energy Transition, Macroeconomic Implications of Net-Zero Carbon Emissions, Natural Resources, Risk, Welfare and Social Preferences, Renewable Energy, Regulation and Energy Governance, Role of Financial Institutions in Sustainability</t>
+          <t>Monetary-Fiscal Interactions and Policy Making, Geopolitics, Firms, and Financial Markets, Communication, Monetary Policy Transmission and Effectiveness, Inflation, Inflation Expectations, and Price Dynamics, Aging, Climate Risks, and Financial Stability, Technological Innovations and Financial Markets</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4th Conference "Owners as Strategists"</t>
+          <t>ECB Money Market Conference</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>European Central Bank, Sonnemannstrasse 20, 60314 Frankfurt/Main, Germany</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Free of charge</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Ownership, Governance, Strategy, Stakeholders, Corporate Governance, Institutional Investors, Family Firms, Foundations, Governmental Ownership, Venture Capital and Private Equity</t>
+          <t>The ongoing adjustments in money markets as they adapt to smaller central bank balance sheets, evolving operational frameworks for monetary policy implementation, the increasing role of non-bank financial intermediaries. Specifically, topics include monetary policy implementation, the functioning of money markets including the role of non-bank financial institutions and dealer intermediation, implications of volatile interest rate environments and geopolitics, financial institutions’ funding strategies, technological innovation involving market infrastructures, payment systems, digital currencies, AI, and the interaction of monetary policy implementation with initiatives to address climate and nature-related risks.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4th Edition Spring Finance Workshop</t>
+          <t>The 10th International Conference on Accounting and Finance (ICOAF-2025, Danang Vietnam)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Ischgl, Austria</t>
+          <t>Danang, Vietnam</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>65 EUR</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Interdisciplinary explorations in law and finance, sustainability, emerging financial technologies</t>
+          <t>Accounting, Finance, and Banking, encompassing both theoretical and empirical studies.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>European Winter Finance Conference 2025</t>
+          <t>India Finance Conference (IFC) 2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Megéve, France</t>
+          <t>Indian Institute of Management Visakhapatnam, Vishakhapatnam, India</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2353,71 +2353,71 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Theoretical and empirical asset pricing, Corporate finance, Capital structure and dividend policy, Asset allocation and investment management, Financial crises, Systemic risk and macro-finance, Corporate governance, Executive compensation and ownership structure, Accounting and Auditing, Computational finance and financial econometrics, Financial risk analytics and management, Market microstructure and algorithmic trading, Financial policy choice, institutions and regulation, Financial literacy and financial education, Financial Analytics, Insurance / Reinsurance / Pension Funds, Enhancing liquidity in Commodity Derivatives Markets, Sustainable / Climate Finance, FinTech</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20th European Winter Finance Summit</t>
+          <t>5th Conference in Corporate Policies and Asset Prices (COAP)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Hotel Arlberghaus, Zürs, Austria</t>
+          <t>Canach, Luxembourg</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>EUR 50</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>All areas of finance</t>
+          <t>Asset pricing anomalies and explanations, explaining asset pricing anomalies with corporate finance models, dynamic corporate finance and contracting models and their asset pricing implications, Asset pricing implications of sustainable financing, the feedback from asset prices to corporate decisions, structural estimation of dynamic models utilizing asset prices data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Colorado Finance Summit</t>
+          <t>Conference on Fintech Advances in Emerging Markets</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Vail, Colorado</t>
+          <t>Shenzhen City, Guangdong Province, People's Republic of China</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2427,108 +2427,108 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>all areas of finance, both theoretical and empirical contributions</t>
+          <t>Fintech innovations, Fintech and financing for households and SMEs, Cryptocurrencies and financial stability, Central bank and digital currencies, Big data, AI (including machine learning) and financial services, Internet lending, Regtech and financial stability, Fintech challenges for financial regulation, Effects of new technologies and digitalization on systemic risk, The role of currency unions, customs unions and single markets.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025 ITAM Finance Conference</t>
+          <t>IMFS Workshop on Financial Stability and Financial Literacy: Links to Household Finances</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mexico City, Mexico</t>
+          <t>House of Finance, Goethe University Frankfurt</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>$1,250 MXN (approximately $65 USD)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>empirical or theoretical papers from all areas of finance and financial economics</t>
+          <t>Effects of unstable household finances on banks and the financial sector, Consumer indebtedness, financial distress and default decisions, Patterns of household debt behavior over the life cycle, Financing retirement and longevity risks, Health expenditure risks and household finances, Climate risks, natural disasters, and household finances, Financial literacy and financial distress, Gender gaps in the stability of household finances, Financial advice and legal protection of investors and borrowers, Financial fraud, financial misconduct and stability of household finances, Gambling, addiction, and household finances, Peer effects on debt behavior, Behavioral approaches to stability of household finances, Stress tests of the stability of household finances using micro-data, Insurance as a means of avoiding unstable household finances, Product design for sustainable household finances, The impact of technology on household financial behavior</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>The 20th Annual Meeting of the Financial Research Association</t>
+          <t>13th Helsinki Finance Summit on Investor Behavior Conference</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Vdara Hotel &amp; Spa in Las Vegas, Nevada</t>
+          <t>Helsinki, Finland</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Not explicitly stated</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>New finance papers of general interest to the profession, early work.</t>
+          <t>Behavior of different investor types and their impact on asset prices, Market microstructure and investor trading behavior, Behavioral biases and performance of investment strategies, Household consumption, borrowing, saving, and portfolio choice, Investor education, financial literacy, and sophistication, Behavior of finance professionals and the impact of professional advice, Biological, psychological, and cultural foundations of investor behavior, The influence of analysts, media, and news coverage on investment decisions, Social influence and networks in finance, Impact of investor behavior on corporate policies and decision-making.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>New Ideas Sessions at the 2024 FMA Annual Meeting</t>
+          <t>31st Annual Meeting of the German Finance Association (DGF)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024-08-23</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Gaylord Texan Resort, Grapevine, TX</t>
+          <t>Hagen, Germany</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2538,34 +2538,34 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Corporate Finance, Asset Pricing/Investments, Fintech, Behavioral Finance and Household Finance</t>
+          <t>Latest theoretical and empirical research from all areas of finance, banking, and insurance</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>19th Annual Conference on Asia-Pacific Financial Markets (CAFM)</t>
+          <t>5th Annual Bristol Financial Markets Conference</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>CONRAD Seoul, Korea</t>
+          <t>Bristol, United Kingdom</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2575,34 +2575,34 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>All areas of finance</t>
+          <t>Monetary Policy and Asset Pricing, Currency Risk Premia, Inflation and Asset Prices, Demand Shocks and Asset Prices, Macroeconomic Uncertainty and Asset Prices, International Finance, Risk Premia in Global Financial Markets, Macroeconomic News and Price Discovery, Asset Pricing in Emerging Economies, Financial Stability and Asset Pricing Dynamics, Macroeconomic factors in Asset Pricing Models</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6th UWA Blockchain and Cryptocurrency Conference</t>
+          <t>4th Conference in Sustainable Finance at the University of Luxembourg</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>UWA Campus, Perth, WA, Australia</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2612,34 +2612,34 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Blockchain technology, cryptocurrencies, FinTech, financial aspects of blockchain and cryptocurrencies, economic aspects, accounting, regulatory, societal, social and environmental aspects, tokenisation, nature of the firm in the age of blockchain and smart contracts, democratization of finance, blockchain and trust, NFTs, fiat currencies versus cryptocurrencies, monetary policy implications, CBDCs, Stablecoins, DeFi, Money Laundering, Crypto Scams, ESG of cryptocurrencies.</t>
+          <t>Any topic in sustainable finance</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IIM Calcutta-NYU Stern India Research Conference on Zoom</t>
+          <t>Conference on Biodiversity in Finance and Accounting</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>NYU Stern (VIRTUAL)</t>
+          <t>Frankfurt am Main, Germany</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2649,34 +2649,34 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>finance, economics, and accounting covering issues that concern India in particular and emerging economies in general</t>
+          <t>Biodiversity loss, financial systems, investment and financing decisions, accounting standards, protection and restoration of ecosystems, various perspectives of finance and accounting</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>10th P2P Financial Systems International Workshop</t>
+          <t>ECB Conference on Financial Stability and Macroprudential Policy, Day 1, ECB-New York Fed Conference on Nonbank Financial Institutions</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>Frankfurt am Main</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2686,330 +2686,330 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Stablecoins &amp; Security Tokens, Central Bank Digital Currencies, Real World Asset Tokenization in the Financial Landscape, Sustainable Finance and ESG Integration, Consumer Protection in the face of Generative AI, Financial Inclusion</t>
+          <t>The role of different NBFIs (e.g., mutual funds, pension funds, insurances or hedge funds) on financial markets; Vulnerabilities in the NBFIs, their impact on financial stability and credit provision to the real economy; Potential effects of (macro-)prudential regulation of NBFIs; Interlinkages and interactions between NBFIs and banks, including the role of regulation; The role of NBFIs in the transmission of monetary policy</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>The 6th China International Forum on Finance and Policy</t>
+          <t>2025 MRS International Risk Conference</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Guangzhou, China</t>
+          <t>Boston, Massachusetts</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No submission fee.</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Leading financial market research, regulatory policies, real-world applications, development of academic research, policies and regulations, Chinese financial system.</t>
+          <t>AI risk, Ambiguity and ambiguity aversion, Artificial intelligence and machine learning, Asset pricing: capital market efficiency and anomalies, Audit risk, litigation risk, and regulation risk, Banking and bank risk management, Behavioral finance and risk management, Climate risk, catastrophic risk, and rare disasters, Corporate disclosure, financial and non-financial reporting, and sustainability reporting, Corporate finance and governance, Credit risk and liquidity risk, Cryptocurrency risk and reward, Cyber risk and information system risk, Derivatives, risk management, and speculations, ESG and green finance, Financial literacy and household finance, Geopolitical risk, Health and retirement risk, Housing market and housing risk, Inflation and monetary policy, Insurance and risk finance, Leverage and systemic risk, Mutual funds, hedge funds, and institutional investors, Supply chain risk and corporate risk management, Venture capital, innovations, and entrepreneurship</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025 RCFS Winter Conference</t>
+          <t>2025 Research Summer Workshop on Regulated Funds and Retail-oriented Investment Products at the Investment Company Institute</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024-11-18 for regular papers and 2024-11-25 for Registered Reports on “Understanding Firms, Households and Financing in the Age of AI”</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Royal Sonesta, San Juan, Puerto Rico</t>
+          <t>Washington, DC, USA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>US $85</t>
+          <t>$50</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>All areas of corporate finance, financial intermediation, and household finance. Special session on "Understanding Firms, Households and Financing in the Age of AI."</t>
+          <t>Regulated funds, Retail-oriented investment products, Mutual fund industry, Securities law, Operational aspects of the fund industry</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025 Utah Winter Finance Conference</t>
+          <t>7th Sydney Market Microstructure and Digital Finance Meeting</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-02-08</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Snowbird, Utah</t>
+          <t>Sydney, Australia</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>$95</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Any topic in financial economics</t>
+          <t>Design of traditional and digital financial markets, liquidity, price efficiency, and integrity of traditional and digital markets, algorithmic and high-frequency trading, fragmentation of trading across venues, market surveillance and regulatory challenges in digital markets, DeFi infrastructure (blockchain, smart contracts, oracles, and tokenization), DeFi/FinTech applications (DEXs, AMMs, NFTs, and tokenized securities)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Jackson Hole Finance Group Conference 2025</t>
+          <t>2025 China International Conference in Finance</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Jackson Hole, WY</t>
+          <t>Shenzhen, China</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>$50</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>All areas of finance</t>
+          <t>All areas of finance, special sessions with China focus</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>23rd Annual Bank Research Conference</t>
+          <t>INTERNATIONAL CORPORATE GOVERNANCE CONFERENCE: CSR, THE ECONOMY AND FINANCIAL MARKETS</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Federal Deposit Insurance Corporation in Arlington, Virginia</t>
+          <t>Sasin Graduate Institute, Bangkok, Thailand</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5,000 Baht</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Corporate Social Responsibility (CSR), CSR and Sustainable Finance, Climate risk and pricing, Carbon pricing, Role of financial markets, banks, institutional investors in CSR, Effects of CSR on valuation, performance, funding and capital structure, Corporate governance and CSR, Risk management and CSR, CSR reporting and disclosure, CSR activities and the economy.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>IIM Calcutta-NYU Stern India Research Conference on Zoom</t>
+          <t>9th Entrepreneurial Finance (ENTFIN) Conference</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Virtual (Organized by NYU Stern and IIM Calcutta)</t>
+          <t>Rotterdam School of Management, Erasmus University</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No submission fee</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Finance, Economics, and Accounting covering issues that concern India in particular and emerging economies in general. Preference will be given to papers that address challenges and implications of major policy initiatives in India and Indian financial markets.</t>
+          <t>Evaluation of venture opportunities, deal valuation, contract and structure, corporate governance, sources of financing (bootstrapping, personal wealth, 3Fs, bank lending, crowdfunding, token offerings, angel investors, corporate investors, venture capital, venture debt, private equity, government funding, etc.), exit strategies, entrepreneur-investor relationships, capital market and regulatory environment facing entrepreneurial ventures, policy evaluation of publicly supported financial instruments (e.g., PE/VC, credit guarantee schemes, securitization), and their societal outcomes/real effects (entrepreneurship, innovation, growth dynamics, sustainability).</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Generative AI Conference &amp; Special Issue by the Journal of Banking and Finance</t>
+          <t>2025 Accountability in a Sustainable World Conference</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Montréal, Canada</t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$200</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Generative AI within the finance sector including, but not limited to, corporate finance, fintech, digital finance, asset pricing, financial stability, banking, risk management, portfolio management, behavioral finance, personal finance, and real estate.</t>
+          <t>Sustainability, Non-academic-friendly summaries of academic research, Accountability, Sustainable Investment, UNEP-FI related matters.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Risk Theory Society Annual Seminar 2025</t>
+          <t>International Review of Finance 2025 Conference and Special Issue on Real Estate, Household, and ESG Finance</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>HEC Montréal</t>
+          <t>Yokohama, Japan</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No submission or registration fee mentioned.</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Insurance economics, financial economics related to insurance markets, actuarial science, economic analysis of risk and uncertainty</t>
+          <t>Real Estate Investment Trusts (REITs), Mortgage-Backed Securities, Private Equity Real Estate, Real Estate and the Macroeconomy, Corporate Real Estate, Housing Finance (Homeownership, Housing Price Fluctuations, etc.), Household Saving and Consumption Behavior, Debt Management (credit card debt, mortgages, auto loans, student loans, etc.), Financial Literacy, Climate Change and Financial Markets, Green Bonds and Sustainable Finance, Carbon Pricing Mechanisms, Impact of Environmental Regulations on Economic Growth</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3rd Credit Scoring and Credit Rating Conference</t>
+          <t>4th Hong Kong Conference for Fintech, AI, and Big Data in Business</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Northwest A&amp;F University (Yangling, Shaanxi, China) and Online</t>
+          <t>City University of Hong Kong</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3019,108 +3019,108 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Application of generative AI/large language model in risk management, Multimodal learning in risk management, Big/alternative data in credit risk management, Applications of ML/DL for credit risk prediction, Explainable artificial intelligence for credit risk management, Potential risks to lending institutions posed by AI use: model instability and model risks, biases, data privacy, security concerns, discrimination, and disparities, Open banking and transactional data, AI-powered anti-money laundering and regulatory compliance, Affordability and financial vulnerability, transparency, and fairness, The role of AI in personalized credit products, AI used for understanding borrower financial behaviour and decision-making, AI's real-time risk monitoring, Early warning systems and stress testing, Frictions and market failures in AI adoption/use in the financial service sector and regulatory solutions, Attrition, churn, and collections scoring, Optimisation and credit scoring.</t>
+          <t>Machine Learning, Generative AI, and Big Data applications in finance, new empirical method development in machine learning and financial econometrics, development of alternative data (unstructured, textual, or graphical data), blockchain technology, smart contracts, and digital currencies.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>The 7th Cryptocurrency Research Conference (CRC2024)</t>
+          <t>The 13th AIEA-NBER Conference on Innovation and Entrepreneurship</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Zayed University, Dubai, UAE</t>
+          <t>The Chinese University of Hong Kong, HONG KONG</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>£400</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alternative and decentralized corporate finance, Artificial Intelligence in cryptocurrency research, Big Data in Fintech and DeFi, Blockchain in global finance, Efficiency/Inefficiency of crypto assets, Central Banks Digital Currencies (CBDCs), Crowdfunding and P2P lending, Cybercrime and cybersecurity, Digital banking and digital economy, Decentralized Autonomous Organizations (DAOs), Decentralized Finance (DeFi), Decentralized exchanges (DEXs) vs. Centralized exchanges (CEXs), Environmental sustainability of cryptocurrency markets, Fintech regulation, Financial stability and Cryptocurrency Uncertainty, Machine Learning, Media attention to Fintech and DeFi, Non-Fungible Tokens (NFTs) and other innovative assets, Natural Language Processing in Fintech research, Opportunities for small businesses and entrepreneurs, Russian sanctions, geopolitical uncertainty and Fintech industry, Stablecoins, other relevant topics.</t>
+          <t>The changing nature of innovation, including the rise of Digital Transformation, such as AI, autonomous machines, cryptocurrency, and the changing nature of the process of innovation and entrepreneurship; Innovation; entrepreneurship; economic growth; new insight into the drivers and structure of the knowledge production function; The evolution of intellectual property management, innovation policy, &amp; entrepreneurship policy. Regional and global trends in the development of innovation and entrepreneurship ecosystems; Industrial convergence, including increasing integration between manufacturing and services. Technological development for the challenges in supply chains</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3rd Contemporary Issues in Financial Markets and Banking Online Conference</t>
+          <t>International Risk Management Conference 2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Bari, Italy</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>£50 for doctoral students, £75 for regular submissions. Some papers may receive financial support to cover a submission fee of USD 175 for possible publication in The Financial Review.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Financial resilience; Green and sustainable ﬁnance; Decentralised ﬁnance and disruptive ﬁnancial technologies; Theoretical asset pricing; Empirical asset pricing, liquidity and behavioural economics and ﬁnance; Risk management; Financial inclusion; Alternative investments; Crowd-funding; Islamic banking; Banking and financial sector stability and regulation; Financial (dis)integration and Brexit; Artificial intelligence, machine and deep learning applications in ﬁnance; Corporate ﬁnance and sustainable energy ﬁnancing; Crisis investment and portfolio management; Corporate governance; International ﬁnancial management and investment; Market microstructure; Household ﬁnance; Real estate and property markets; Metaverse and Blockchain technologies in ﬁnance. Intersection between finance and economic theory, especially financial applications of game theory, decision theory, and computational financial economics including multi-agent models and econophysics; experimental economics with implications for financial theory and practice.</t>
+          <t>Risk Management, Banking and Finance</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>The 2024 CCPF-Special Multi-Thematic Conference</t>
+          <t>CU Denver International Commodities Symposium - J.P. Morgan Center for Commodities &amp; Energy Management</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2025-03-15</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>online and in-person sessions in Taiyuan, China</t>
+          <t>Denver, CO, USA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3130,34 +3130,34 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Sustainable Finance, Financial Innovation, Digital and Crypto Assets, Fintech, Family Firms and SMEs, The Effectiveness of Financial Regulation</t>
+          <t>Developments in commodity business and new research focusing on broad global commodity sectors (energy, metals and minerals, and agriculture), commodity futures, derivatives, and related research topics</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>The 2024 Massey Sustainable Finance Conference</t>
+          <t>The 18th International Behavioural Finance Conference</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Auckland - New Zealand</t>
+          <t>Kensington, London, UK</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3167,108 +3167,108 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Artificial intelligence and machine learning applications in Sustainable Finance, Alternative data on firms' digital transformation, Behavioral Finance/Economics and its implications to climate transition, Blue economy, Carbon market and carbon credit, Carbon price forecasting techniques, Circular economy, Corporate Social Responsibility, Climate Finance, Climate risks: assessment and management, Climate transition and portfolio management, Cryptocurrency and digital finance interactions with Sustainable Finance, Diversity, equity and inclusion in Finance, Digital finance, Fintech, and sustainability, Environmental, Social and Governance, Financial markets and climate transition, Green Finance, Green Finance and energy security, (Renewable) Energy Finance, Renewable Energy and Sustainability, Sustainable Finance and Accounting.</t>
+          <t>Financial decision making, investments, financial markets, corporate finance, fund management, banking, asset pricing, forecasting, experimental finance, sociology of finance, financial behaviour in commodity and energy markets</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1st Asian Finance Theory Group (FTG) Meeting</t>
+          <t>Behavioural Finance Working Group Conference</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2020-06-11</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2020-06-12</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>The Chinese University of Hong Kong, Hong Kong</t>
+          <t>Arts Two, Queen Mary University of London, Mile End Road, London, E1 4NS</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Early bird fee £200 until Friday 3 April. Standard registration fee £300 after.</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Seminar-style presentations, shorter presentations for early-stage ideas, keynote speech on finance theory</t>
+          <t>Behavioural finance topics, ranging between financial decision making and biases, herding, corporate finance, fund management, asset pricing, financial forecasting, volatility, and market sentiment, ethics in financial contexts affecting individual investors’ and practitioners’ expectations, decisions and behaviour, financial markets, financial regulation and governance.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>16th Annual Hedge Fund Research Conference</t>
+          <t>2025 UNSW Corporate Finance Workshop</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Paris, France</t>
+          <t>Coogee Beach (Sydney, Australia)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No submission fee</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Institutional investors’ risks and performance; transparency (reporting) and due diligence; financial intermediation activity; hedge fund and broad macroeconomic issues such as systemic risk and contagion; institutional investors’ incentives and activism; portfolio liquidation and liquidity; financial regulation; private equity funds; ETFs.</t>
+          <t>All areas of Finance, special focus on Corporate Finance, including banking, household and entrepreneurial finance. Theoretical and empirical papers are welcome.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1st CEPR Frankfurt Hub International Conference "EURO at 25 and BEYOND"</t>
+          <t>2025 Conference on Auditing and Capital Markets</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>House of Finance, Campus Westend, Goethe University, Frankfurt</t>
+          <t>Washington, DC</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3278,108 +3278,108 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Digital euro and Central Bank Digital Currencies, Economic and Monetary Union, Banking Union, and Capital Market Union, Green Euro: European Sustainability Regulation and Green Monetary Policy, The geopolitical perspective of the Euro, Monetary and financial stability: The Euro’s track record.</t>
+          <t>All aspects of auditing issuers and brokers and dealers as well as the impact of audit regulation and audit oversight.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Insolvency and bankruptcy reforms in India: 10 years after IBC</t>
+          <t>University of Oregon Summer Finance Conference</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MCA Club, Bombay, Mumbai, India</t>
+          <t>Eugene, Oregon</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$75</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Legal developments and changes in the IBC since 2016, Changes in the legal framework relative to design principles, Political economy of insolvency reforms, The consistency, certainty and predictability of judgements and credit contract enforcement, Economic impact of the law in evolution of the Indian credit markets., Economic impact on lender and borrow incentives, Performance of insolvency institutions, Relationship between firm exit and the institutional features of the financialsector, particularly banking regulation and legal frameworks on capital flows, Missing markets – for personal insolvency and collateral markets, The industries of insolvency professionals for insolvency resolution, Liquidation professionals, valuation, The remaining public policy on insolvency and bankruptcy reforms.</t>
+          <t>Empirical and theoretical papers in all areas of Finance.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2024 FMA Conference on Derivatives and Volatility</t>
+          <t>Vienna Festival of Finance Theory 2025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Cboe Global Markets, 433 W. Van Buren Street, Chicago, IL 60607</t>
+          <t>Vienna, Austria - Central European University</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>$50 USD for members and $60 USD for non-members</t>
+          <t>60 EUR</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Derivatives, Volatility, Financial management, Research presentations, Product innovations, Industry trends</t>
+          <t>Corporate finance theory, Financial intermediation theory</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>The CUHK-RAPS-RCFS Conference on Asset Pricing and Corporate Finance</t>
+          <t>16th Emerging Markets Conference</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Mumbai, India</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3389,34 +3389,34 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Asset Pricing, Corporate Finance</t>
+          <t>The sources of economic success or failure in EMs, Finance in EMs (households, financial markets, financial intermediaries, firms and finance, finance and growth), Political economy, law, public administration, regulation in EMs, The impact of populism upon the possibility of sustained growth, Insights into large EMs that matter in and of themselves, Insights from narrow research projects that illuminate EMs in general, The new phase of globalisation and its consequences for international trade, international finance and the nature of the EM firm, Features of a society that enable or disable convergence into the “normal” package of high levels of freedom and prosperity, The puzzles faced by all kinds of decision makers: individuals, civil society actors, firms, all levels of government, Grand challenges such as climate change: implications for EMs and ramifications of choices made in EMs.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Southwestern Finance Association (SWFA) 64th Annual Conference</t>
+          <t>Monetary Policy Beyond Nominal Rigidities</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2025-03-15</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>San Antonio, Texas</t>
+          <t>Study Center Gerzensee in Switzerland</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3426,108 +3426,108 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>All aspects of finance and financial education, including special tracks on Preregistered Research and Alternative Investments, as well as a special issue on Political Uncertainty and Corporate Finance.</t>
+          <t>Monetary Policy Beyond Nominal Rigidities, including asset price channels, financial frictions, informational frictions, central bank liquidity provision, banking and finance, policy credibility, macroeconomic uncertainty, bubbles.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025 Midwest Finance Association Annual Meeting</t>
+          <t>IBEFA Annual Meeting at the 2026 ASSA Conference</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Radisson Blu Aqua Hotel, Chicago, IL</t>
+          <t>Philadelphia, PA, USA</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>US$75 per paper, for papers solely authored by students only US$50.</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>corporate finance, financial institutions, asset pricing</t>
+          <t>Financial intermediation; securitization and shadow banking; financial risk measurement and management; financial stability and macroprudential policies; sustainable finance; payments systems; household finance; financial market structure and regulation; monetary policy; financial intermediation and global fragmentation; FinTech.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CAFR Special Issue Conference 2024</t>
+          <t>FDIC 24th Annual Banking Research Conference</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Chongqing University, Chongqing, China</t>
+          <t>FDIC - Arlington, VA</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>No submission fee</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Latest trends and changes in accounting standards, Corporate social responsibility and sustainability, Contemporary challenges and risks in auditing practices, New technology solutions in accounting and finance, Artificial intelligence and future of accountancy, Any other contemporary issues in accounting and finance.</t>
+          <t>Financial regulation, competition and performance in the banking and financial sectors, financial stability, bank and nonbank financial intermediation, bank capital, risk management, regulatory reform options and considerations, banking amid fluctuating interest rates, crypto-assets, deposit insurance and stability, emerging financial risks, AI and technology in finance</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>WFEClear, the WFE Clearing and Derivatives Conference 2025</t>
+          <t>FDIC 24th Annual Banking Research Conference</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Seoul, Korea</t>
+          <t>FDIC - Arlington, VA</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3537,34 +3537,34 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Clearing and derivatives, specifically: CCP resolution, Clearing structures and incentives (e.g., auction design, corporate governance, client clearing, non-default losses (NDLs), impact of clearing regulations), Market resilience (e.g., clearing networks, liquidity contagion, cyber threats, collateral flows), Vertical integration, New clearing models, Risk models, Operational risk (e.g., third party risk management, transitioning to the cloud), Impact of innovation and new technologies (e.g., clearing of crypto assets, crypto derivatives, DLT applications, smart contracts, and the use of AI), Liquidity risk transmission (e.g., network models, procyclicality), The impacts and suitability of the clearing mandate, Porting, Cross-border issues, Climate-related issues (green derivatives, clearing carbon emissions, water futures, carbon markets derivatives, etc.)</t>
+          <t>Financial regulation, competition and performance in the banking and financial sectors, financial stability, bank and nonbank financial intermediation, bank capital, risk management, Regulatory reform options and considerations, Banking amid fluctuating interest rates, Crypto-Assets, Deposit insurance and stability, Emerging financial risks, AI and technology in finance</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>The 2024 Sydney Banking and Financial Stability Conference</t>
+          <t>Conference on Sustainable Finance, Third Edition</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2025-03-15</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sydney, Australia</t>
+          <t>Deakin Business School, Burwood Campus</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3574,34 +3574,34 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Banking, Financial system stability, and other topics within the traditional and emerging fields of Finance such as Financial Intermediation, Financial Institutions and Markets, Corporate Finance, Asset Pricing, and Investment.</t>
+          <t>Socially Responsible Investing (SRI), ESG investing, and impact investing, Green finance and climate finance, Responsible banking and lending, Corporate social responsibility and corporate philanthropy, Big data, FinTech, and financial innovation for sustainability, Regulation, disclosure, standardization, and measurement issues related to sustainable finance</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2024 FMA Annual Meeting - Doctoral Student Consortium, Diversity Emerging Scholars Initiative &amp; Innovation in Teaching Award</t>
+          <t>CORPORATE VIRTUES IN A DIVIDED WORLD: NAVIGATING POLITICAL POLARIZATION AND AI FOR SUSTAINABLE-VALUE CREATION</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Gaylord Texan Resort, Grapevine, TX</t>
+          <t>University of Valencia, Valencia, Spain</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3611,330 +3611,330 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Advances in research, career advice, financial management, Diversity Emerging Scholars Initiative (DESI), Innovation in Teaching Award</t>
+          <t>Artificial intelligence (AI), big data, political polarization, geopolitical risk, lobbying, ESG, DEI, and corporate disclosure materiality</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3rd Bonn/Mannheim Workshop on Digital Finance</t>
+          <t>International Society for the Advancement of Financial Economics 2025 Conference (ISAFE – China)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Bonn, Germany</t>
+          <t>Beijing - China</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No submission fee is required.</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Digital finance, Digital currencies, Decentralized finance (DeFi), FinTech</t>
+          <t>AI and finance, Asset allocation and valuation, Central banking and monetary policy, Corporate finance and governance, Country funds and hedge funds, Emerging markets finance, Empirical assets pricing, Financial accounting, law, and regulation, Financial crises and contagion, Financial econometrics, Financial engineering and derivatives, Financial intermediation, institutions &amp; services, Financial markets and market microstructure, FinTech, Foreign currency issues, International finance and capital markets, IPOs, SEOs, M&amp;As &amp; Divestitures, Market behavior efficiency, Multinational financial management, Personal finance and household finance, Portfolio management and optimization, Quantitative finance and financial econometrics, Real estate finance, Risk management, Small business and entrepreneurial finance, Sustainable finance, ethics, and CSR.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NYSE Microstructure Meets AI Conference</t>
+          <t>Behavioral/Cognitive Finance, Decision/Risk Sciences in the Age of Artificial Intelligence; Entrepreneurship &amp; Economics-2025</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>New York, New York</t>
+          <t>Silicon Valley/Santa Clara, CA, USA</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$99.00</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>U.S. Equity Market microstructure, intersection of microstructure with Artificial Intelligence and Machine Learning</t>
+          <t>Behavioral/Cognitive Finance &amp; Economics, Neuroscience/Neuromorphic Computing, Political Economy, Biological Anthropology, Brain-Computer Interfaces, Decision Making Under Conditions of Risk and Uncertainty, Venture Startups and Exits, Trust, Financial and Capital Markets, Social Capital, Moral Sentiments and Working of the Markets Economy, Capitalism, Investment in and Working of Financial Markets, Financial Management of Companies, Entrepreneurship, Innovation, and Economic Development, Sustainable Finance, Role of Behavioral Finance &amp; Economics in Personal Finance, Retirement Saving &amp; Planning, Teaching, Learning, and Training, Applications- Behavioral Finance in Practice</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>The 13th International Conference on Futures and Other Derivatives</t>
+          <t>The 9th Vietnam International Conference in Finance (VICIF 2025)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2024-11-23</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Shandong University, Jinan, China</t>
+          <t>Danang City, Vietnam</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>200 USD</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Digital Finance and Financial Derivatives, Financial Derivatives Development and Capital Markets, Financial Derivatives Development and the Real Economy, Derivatives Pricing, Commodity Market, Capital Market Innovation, Asset Pricing and Portfolios, Corporate Finance and Derivatives Markets, The Impact of Artificial Intelligence (AI) on Financial Derivatives Pricing Models, Machine Learning Algorithms for Risk Management in Derivatives Trading, AI Application in Derivatives Risk Management, AI Techniques and Their Impact on Derivatives Markets, Financial Innovation and Financial Technology, Derivatives Innovation under the Background of Big Data, Market Mechanism Design and Liquidity of Financial Derivatives, Investor Structure and Operating Quality of Financial Derivatives Market, Linkage of Domestic and Foreign Financial Derivatives Markets, Predictive Role of Financial Derivatives in Macroeconomics, Risk Management, Market Regulation, and Laws &amp; Regulations of Derivatives.</t>
+          <t>Corporate finance and governance, Asset pricing, investment, and portfolio management, Finance and sustainability, Financial markets and institutions, Financial technology, artificial intelligence, and big data, Banking and financial regulations, Behavioral finance, Risk management and quantitative finance, Household finance and financial consumer protection</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2024 UNSW Asset Pricing Workshop</t>
+          <t>London Business School (LBS) Summer Symposium 2025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-11-23</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Coogee Beach, Sydney, Australia</t>
+          <t>London</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>No submission fee</t>
+          <t>£50 per paper</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>All areas of Finance, with a special focus on Asset Pricing, both Theoretical and Empirical papers</t>
+          <t>Papers from all areas of finance</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>INTERNATIONAL WORKSHOP ON FINANCIAL SYSTEM ARCHITECTURE &amp; STABILITY</t>
+          <t>The Third Annual Conference on Capital Market Research in the Era of AI</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>UBC Robson Square Theatre, Downtown Vancouver and UBC Sauder School of Business, Point Grey Campus, Vancouver, BC.</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>, banking &amp; pension funds exposure to transition risks, impact investing and other sustainable finance trends, corporate strategies towards transition risks, financial inclusion, Indigenous finance, Indigenous worldviews on the energy transition, carbon markets and carbon as an asset class, shareholder engagement on ESG issues related to energy transition, community-based financing for renewable energy projects.</t>
+          <t>Beijing, China</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>07-15</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Innovative financing models for renewable energy projects, role of public and private partnerships in financing the energy transition, impact investing and green bonds in energy projects, financial risks and returns of renewable energy investments, policy instruments and their effectiveness in leveraging private finance, the role of international financial institutions in the global energy transition, technological innovations and their implications for energy finance, economic and social impacts of the energy transition, climate finance and the energy transition in developing countries, geopolitical risks related to the global energy transition, climate transition stress testing of the financial system, stranded assets and carbon bubble risks, climate-related financial disclosures, reporting and other regulatory issues, central banks and the greening of the financial sector, ESG risks and sovereign and corporate credit spreads</t>
+          <t>AI applications in finance and related industries, The applications of AI, machine learning, natural language processing, and other novel analytic methods in research for all areas of financial economics, The use of unstructured data in investment and related areas such as auditing and assurance, The use of machine learning/AI/high-performance computing in the finance industry and academic research, The social and economic impact of AI adoption, The ethical considerations of AI in finance, including issues related to bias and transparency, Quantitative investment strategies and portfolio optimization with machine learning technologies or other AI models.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>8th Commodity Markets Winter Workshop</t>
+          <t>10th SDU Finance Workshop on Corporate Finance – Dynamics, Uncertainty, and Strategic Decisions</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Zell am See, Austria</t>
+          <t>University of Southern Denmark (SDU), Odense, Denmark</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>€ 300 for participation, € 250 for full-time PhD students.</t>
+          <t>300 DKK (approx. 40 EUR)</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Micro &amp; macroeconomic analysis of commodity markets, Portfolio allocation/optimization including commodities, Pricing, hedging, and risk analysis of commodity derivatives and derivatives portfolios, Financialization of commodity markets, The microstructure of commodity markets, Corporate finance and risk management related to commodity markets, Econometric/statistical analysis of commodity markets, Decision models (OR/MS models) applied to the commodity sector, Real option analysis investigating commodity project investment and production decisions, Financial market analysis (risk factor models etc.) for commodity markets, Managerial accounting &amp; economics for commodity related corporations, Global and regional trade of commodities, The role of commodity production and consumption for developing countries, Commodity markets including the entire range of commodities (energy, metals, agricultural products and fish), related markets such as markets for shipping, transportation services, emission quotas and weather derivatives.</t>
+          <t>Corporate Finance -- Dynamics, Uncertainty, and Strategic Decisions</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2024 Financial Stability Conference: Emerging Risks in a Time of Interconnectedness and Innovation</t>
+          <t>2nd Alpine Finance Summit 2025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Cleveland, OH</t>
+          <t>Grenoble, France</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>EUR 370</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Potential financial stability risks faced by financial markets and institutions, sources of financial system resilience, and related public policy. Specific topics: emerging risks, financial concerns related to faster payments and equity transactions, financial stability implications of generative AI and deep learning, cryptocurrencies, smart contracts, and blockchain, cyber-attacks, climate risk, interaction of monetary policy with macroprudential supervision, sources of resilience in the financial sector, risk management in financial institutions, impact of regulatory changes, risks in financial markets such as high levels of public debt, short-term funding, implications of deficits, real estate markets.</t>
+          <t>Asset Pricing, Investments, Sustainable Finance, Innovative Finance (e.g., Blockchain, Machine Learning), FinTech</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Office of Financial Research PhD Symposium</t>
+          <t>32nd Finance Forum</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>U.S. Department of the Treasury, 1500 Pennsylvania Ave, NW, Washington, DC 20220</t>
+          <t>Pamplona, Spain</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>50 € per paper</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Banking, Macroprudential policies, Financial regulation, Asset pricing bubbles and tail risk, Financial markets, Interconnectedness of financial institutions and contagion risk, Investment managers and risk management, Financial Risks of Climate Change, Digital Currencies, Cybersecurity</t>
+          <t>Asset Pricing, Corporate Finance, Banking, Portfolio Choice and Asset Management, Microstructure, Regulation, Financial Stability, Macrofinance</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>International Corporate Governance Conference: CSR, The Economy and Financial Markets</t>
+          <t>2nd Knut Wicksell Conference on Crypto and Fintech</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Cardiff Business School, United Kingdom</t>
+          <t>Lund, Sweden</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3944,108 +3944,108 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Climate risk and pricing, Carbon pricing, Role of financial markets, banks, institutional investors in CSR, Effects of CSR on valuation, performance, funding and capital structure, Corporate governance and CSR, Risk management and CSR, CSR reporting and disclosure, CSR activities and the economy, both at the macro and micro levels.</t>
+          <t>Crypto and blockchain technology (asset pricing, systemic risk, market microstructure), Crypto markets, households, and the real economy, Environmental and social impact of crypto markets, Central Bank Digital Currencies (CBDCs), Financial technology (Fintech), Payment systems (payment firms, consumer experiences, bank competition), Interaction between traditional finance and decentralized finance</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SFS Cavalcade Asia-Pacific 2024</t>
+          <t>International Conference on Payments and Settlement Systems</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Department of FinTech, SKK Business School at Sungkyunkwan University (SKKU), Seoul, Korea</t>
+          <t>Bank of Canada, Ottawa</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>$75 (waived for papers where all co-authors are doctoral students)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>All areas of finance</t>
+          <t>Issues and trends in cross-border payments, Tools for detecting and mitigating fraud and cyber risks in payment systems, Risk analysis and participant behaviour in financial market infrastructures, Opportunities and challenges due to alternative payment instruments and systems, Innovations in settlement systems and the evolving role of financial intermediaries, Payments data insights, privacy preservation and fostering competition, Insights from using new empirical methods on payments and settlement data, Safety and efficiency of real-time gross settlement systems</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>15th Emerging Markets Conference</t>
+          <t>21st Annual Conference of the Asia-Pacific Association of Derivatives (APAD)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Mumbai, India</t>
+          <t>Busan, Korea</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>200 US dollars, waived for accepted paper presenters.</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>The sources of economic success or failure in Emerging Markets (EMs), Finance in EMs (households, financial markets, financial intermediaries, firms and finance, finance and growth), Political economy, law, public administration, regulation in EMs, The impact of populism upon the possibility of sustained growth, Insights into large EMs, Features of a society that enable or disable convergence into the “normal” package of high levels of freedom and prosperity, Grand challenges such as climate change: implications for EMs and ramifications of choices made in EMs.</t>
+          <t>Derivatives; Volatility; Risk Management; Asset Pricing; Investments; Corporate Finance; Corporate Governance; Market Microstructure; Banking; Personal and Household Finance; ESG and Climate Finance; AI and Big Data; Blockchain and Crypto Assets; Fintech; Regulation; Behavioral Finance</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>The 2024 International Conference in Banking and Financial Studies</t>
+          <t>6th Canadian Sustainable Finance Network Conference</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2025-03-15</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>University of Catania, Catania, Sicily, Italy</t>
+          <t>Schulich School of Business, York University Toronto, Canada</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4055,71 +4055,71 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Accounting, auditing, and taxation, Asset allocation and valuation, Banking regulation and financial services, Behavioral and experimental finance/economics, Big data in finance, artificial intelligence, and cyber security, Climate finance and sustainability, Corporate finance, IPOs, SEOs, M&amp;A, and crowdfunding, Corporate governance, Country funds, sovereign funds, and hedge funds, Debt issues, Digital finance, cryptocurrency finance, and blockchain, Emerging markets finance, Energy finance and environment Issues, Entrepreneurial finance, venture capital, and private equity, Ethical finance, green finance, ESG and CSR, Financial accounting and regulation, Financial crises, contagion, integration, and global risks interconnection, Financial engineering and derivatives, Foreign currency issue, Global imbalances &amp; sustainability, Household finance, real estate finance, and microfinance, Market behavior efficiency, Multinational financial management, Portfolio management and optimization, Risk management and compliance, Small business finance.</t>
+          <t>Sustainable Finance</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>5th Annual Boca-ECGI Corporate Finance and Governance Conference</t>
+          <t>Southern Finance Association 2025 Annual Meeting</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2025-03-15</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-12-14</t>
+          <t>2025-11-22</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Hybrid: in person at Universidad CEU San Pablo, Madrid, Spain, and virtually</t>
+          <t>Orlando, FL</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>€300 in person, €50 online option</t>
+          <t>$50</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>capital structure, corporate and securities law, corporate culture, corporate failure, corporate finance and public policy, corporate governance, corporate restructuring, corporate social responsibility, crowdfunding, dividends, payout policy, and repurchases, entrepreneurial finance, family business, financial contracting, financial intermediation, financial literacy, fintech, fraud, innovation, IPOs and SEOs, mergers and acquisitions, misconduct, private debt, private equity, trade credit, socially responsible investments, sustainable finance, real options, venture capital</t>
+          <t>Any area of finance along with proposals for panel discussions, special sessions, or tutorials</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>India Management Research Conference 2024 (IMRC 2024)</t>
+          <t>2025 PCAOB/Management Science Registered Reports Conference</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>IIM Ahmedabad</t>
+          <t>Washington, DC</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4129,219 +4129,219 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1) Finance, Accounting, and Economics; 2) Real Estate; 3) Behavioral Science in Management</t>
+          <t>Labor trends in accounting markets, Impact of audit regulation on capital flows and public companies’ cost of capital, Changes in the funding sources and ownership of audit firms, Role of information efficiency and disclosures, Consequences of mergers and acquisitions on the industrial organization of the audit profession, Accounting scandals and the influence of auditor independence, economic dependence, professional skepticism, and conflicts of interest on audit outcomes</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2024 Annual Meeting of Academies of Behavioral Finance &amp; Economics and Entrepreneurial Finance</t>
+          <t>The 38th Mitsui Symposium at Michigan Ross: New Frontiers in Financial Intermediation</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2025-03-15</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, USA</t>
+          <t>University of Michigan, Ann Arbor, MI</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>$79.00</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Behavioral Finance &amp; Economics, Political Economy, Psychology, Neuroscience, Anthropology, financial decision-making and practice, Artificial Intelligence, Development of New Financial &amp; Economic Models, theories for Decision Making and Risk Taking, contributions to advance understanding and knowledge of Decision Making Under Conditions of Risk and Uncertainty, Trust, Financial and Capital Markets, Social Capital, Venture Startup, Venture Capital, Investment in and Working of Financial Markets, Financial Management of Companies, Entrepreneurship, Innovation, and Economic Development, Sustainable Finance, Financial Fraud, Corporatism, Role of Behavioral Finance &amp; Economics in Personal Finance, Financial Planning, and Family Life, Teaching, Learning, and Training, Empirical Works, Evidence-Based Financial and Retirement Planning, Nudging Clients and Markets, The Trading and Investing Brain/Neurofinance/Neuroeconomics, Retirement Saving and Planning, Behavioral Value Investing, Employee Benefits and Retirement Planning for Companies, Behavioral Finance: Training and Teaching.</t>
+          <t>Role of data and AI in financial services, bank liquidity and risk management, financial implications of climate considerations.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Exeter Sustainable Finance Conference</t>
+          <t>Thirteenth Oxford Financial Intermediation Theory Conference (OxFIT)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Exeter, UK</t>
+          <t>Saïd Business School, University of Oxford</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>£65</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Sustainable finance, environmental issues, social and governance issues, impact investing, interdisciplinary research on sustainable finance.</t>
+          <t>Financial crises, Governance of Financial Institutions, The role of central banks and regulators, Financial innovation, International regulatory coordination, Certification in financial markets</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>University of Oklahoma and Review of Financial Studies Climate and Energy Finance Research Conference</t>
+          <t>Stern/Salomon Microstructure Conference</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Oklahoma City, Oklahoma, USA</t>
+          <t>Stern School, New York University</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>No submission fee</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Climate Change and the Energy Transition, Valuing Environmental Investments and the Corporate Cost of Capital, Sustainability Factors in Asset Pricing, Financial Economics of Carbon Taxation and Emissions Trading Mechanisms, Resolving ESG Ratings Conflicts, Institutional Investors’ Role in Promoting the Green Transition, Banking and Climate Finance, Issues in Climate Disclosure: ESG vs Emissions, the Financial Economics of Carbon Capture and Fossil Fuel Investments, the Financial Economics of Hydrogen, Energy Storage and Sustainability, the Financing and Governance Roles of Sovereign Wealth Funds, Privatization and Nationalization of National Oil, Gas, and Mineral Resources, Project Finance and the Funding of Climate and Energy Infrastructure Projects, Measuring and Managing Stranded Asset Risks, Transition Risks for Energy Companies, Financing Rare Earth and Specialty Mineral Investments, Derisking the energy transition.</t>
+          <t>The economics of securities markets including theoretical, empirical, and experimental analyses of: the role of information in the price-discovery process; the definition, measurement, and determinants of liquidity; the costs and benefits of alternate trading mechanisms and market structures; the measurement and control of transactions costs; the role of regulation and the evolution of market design; domestic and international comparisons of trading costs; cross-border listing and trading securities; trading technology and information systems; practical implications of market design for risk management; and financial engineering.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CEPR European Conference on Household Finance 2024</t>
+          <t>2025 FMA European Conference</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2024-05-30</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Cyprus University of Technology, Limassol, Cyprus</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>50 Euro</t>
+          <t>$75 US FMA member; $85 US non-member</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Asset allocation and debt behaviour over the life cycle, Financing retirement and the demographic transition, Consumer indebtedness, financial distress, and default decisions, Behavioural approaches to household finance, Financial literacy and financial education programs, Trust, subjective expectations, pessimism, and financial decisions, International comparisons of household finances using micro-data, Financial advice and legal protection of investors and borrowers, Financial innovation and household finances, Households liquidity and risk management, Climate change, sustainability, and household finances</t>
+          <t>All areas of finance</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>The 18th NYCU International Finance Conference</t>
+          <t>XIV World Finance &amp; Banking Symposium</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>National Yang Ming Chiao Tung University, Hsinchu, Taiwan</t>
+          <t>Brno, Czech Republic</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>USD $250</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>All areas of finance, economics, and banking</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>The Economics of Risk</t>
+          <t>Asian Finance Association Annual Conference 2025</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>European Stability Mechanism, Luxembourg</t>
+          <t>Taipei, Taiwan</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4351,71 +4351,71 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>The measurement of (tail) risks and their effects on macroeconomic outcomes; Policies aimed at mitigating risks and dealing with the consequences of extreme events; The microeconomic implications of risks, including how financial institutions are affected by adverse events; Whether and how financial markets price (tail) risks, and which instruments/financial architecture can increase the resilience of financial markets; How (tail) risk affects international trade and finance, and whether the current global monetary and financial system is equipped to deal with large-scale disasters and geopolitical conflicts.</t>
+          <t>Corporate finance, asset pricing, market microstructure, behavioral finance, financial institutions, financial crises, international finance, emerging capital markets</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>7th Annual UTD Finance Conference</t>
+          <t>The 37th Asian Finance Association Annual Conference</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>University of Texas at Dallas</t>
+          <t>Taipei, Taiwan</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>$75 per paper</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Empirical or theoretical papers on any topic related to finance</t>
+          <t>Corporate finance, asset pricing, market microstructure, behavioral finance, financial institutions, financial crises, international finance, and emerging capital markets</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>23nd INTERNATIONAL CONFERENCECREDIT 2024 - The frontiers of new risks: AI, digital and sustainability transitions</t>
+          <t>Private Capital Symposium 2025</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Venice, Italy</t>
+          <t>London Business School, London</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4425,34 +4425,34 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Various aspects of credit risk, the use of AI to assess the sustainability impact of finance (i.e. exploiting AI techniques or Big Data to bridge primary information gaps and proxy the sustainability impact), and how climate and digital risks may interact (i.e. climate denial, social media and social media strategies including deepfakes).</t>
+          <t>Private equity, venture capital, and broader private market themes</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CAFRAL Annual Conference: Financial System and Macroeconomy in Emerging Economies</t>
+          <t>European Summer Symposium in Financial Markets (ESSFM) 2025</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Mumbai, India</t>
+          <t>Gerzensee, Switzerland</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4462,34 +4462,34 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Macroeconomics and finance, with a focus on emerging economies. Papers addressing the theme of the conference in the context of specific countries, especially India. Also accepting papers on other topics.</t>
+          <t>Asset Pricing, any area of financial economics and related fields</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>The Inaugural PHBS-IER Conference on “Financial Frictions for Firms and Households: Implications for Economic Development and Government Policies”</t>
+          <t>2025 Asset Management Meeting</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Shenzhen, China</t>
+          <t>Brisbane, Queensland, Australia</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4499,44 +4499,3041 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Financial markets and their interactions with the real economy, Consumer credit and household finance and consumption, Banking development and credit market developments: new technologies, and government regulation, Monetary and fiscal policies and their interactions, Exchange rate policy and Capital flows, Macroprudential policy and other unconventional policy tools, Optimal Policy in the presence of financial frictions, Small and micro-enterprise finance and its real consequences, Housing Market and financial stability, Innovations and economic development, Entrepreneurship and the aggregate economy, Financial frictions and structural change</t>
+          <t>Mutual funds, hedge funds, pension funds, private equity funds, ETFs, sustainable investing, performance measurement, retail/institutional investors’ incentives and behaviour, factor investing, asset pricing with big data, digital assets, and robo-advisors.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2024 PCAOB Conference on Auditing and Capital Markets</t>
+          <t>Cambridge Corporate Finance Theory Symposium 2025</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
+          <t>Cambridge, UK</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>£50 per paper</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Theoretical corporate finance, including theory papers that combine corporate finance theory with a related area such as banking, market micro-structure, asset pricing, and financial accounting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025 Tilburg Finance Summit on Housing and Mortgages Choices</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Tilburg University</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Housing and mortgages choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025 RCEA International Conference in Economics, Econometrics, and Finance</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>New Jersey City University, Jersey City, NJ</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Standard fee: 350 € for Senior researchers and 250 € for PhD students; Late fee: 500 € for Senior researchers and 350 € for PhD students.</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Economics, Econometrics, Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>UCLA Anderson Fink Conference on Financial Markets</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>UCLA Anderson School of Management</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>High-quality academic research relating to financial markets</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>The 10th (2025) Cross Country Perspectives in Finance (CCPF) Conference</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Taiyuan, China, both online and on-site</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Credit, banking, asset pricing, market liquidity, corporate finance, corporate governance, behavioral finance, sustainable finance, fintech, entrepreneurial finance, international framework</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025 China International Conference in Finance</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Shenzhen, China</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>All areas of finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Conference on Barriers to Homeownership, Land Use, and Urban Dynamics</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Chicago, IL</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Demographics of homeownership, Mortgage markets, appraisal, and brokerage, Zoning and regulation, Discrimination, disparities and diversity, Gentrification and displacement, Office to residential conversions, Office/Residential Landlord distress, Spatial implications of telecommuting, Preferences for remote work and hybrid arrangements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2nd Modern Finance Conference (MFC 2025)</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Warsaw, Poland</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>No submission fee is required.</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Asset pricing and valuation, Banking and financial services, Behavioral finance and decision making, Capital structure, Corporate finance, Corporate governance, Cryptocurrencies, Derivatives, Economic development, Exchange rates and currency markets, Finance and accounting standards, Financial econometrics and quantitative methods, Financial markets and instruments, Financial, management, and tax accounting, Financial regulation and supervisions, Financial stability, Fintech and financial innovation, Green finance, Investment and portfolio management, Insurance, Market microstructure, Mergers and acquisitions, Microfinance, Monetary policy and central banking, Risk management, Sustainable finance and responsible investment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>AI in Finance Conference</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
           <t>Washington, DC</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Economic research on audit-related topics, including the economic impact of auditing, audit regulation, and audit oversight on capital markets. Papers may be theoretical, archival, or experimental in nature.</t>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>AI by firms in corporate finance, AI use in trading and asset management, AI use by banks and credit providers, AI use in financial forecasting, AI for understanding consumer financial behavior and decision-making, AI and labor replacement vs. augmentation, Financial market and macroeconomic implications of AI use, AI, financial stability, and disparities, Frictions and market failures in AI adoption/use and regulatory solutions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>CCA-ESCP Workshop on Financial Institutions and Corporate Finance</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Turin, Italy</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>No submission fees.</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>The evolution of financial institutions and its implications for corporate finance, Technological disruptions (fintech, blockchain, AI) and their implications for financial intermediation and corporate financial strategies, The impact of regulatory changes on financial institutions, capital markets, and corporate finance, Corporate governance and its effects on financing and investments decisions, Corporate responses to climate risk, Diversity, equity, and inclusion policies in financial and non-financial corporations, Climate finance and the role of financial institutions in sustainable investment, The resilience, and funding of complex structures like business groups, private equity, securitization, bank holding companies, and multinationals, Risk management, capital structure, and bank and corporate resilience during periods of economic distress, The interplay between monetary policy, financial institutions, and corporate financial structures, Policy interventions and their impact on financial market stability and corporate access to finance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>International Accounting &amp; Finance Doctoral Symposium (IAFDS) 2025</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Madrid, Spain</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>£300</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>original empirical and theoretical papers in accounting and finance (including banking), with a particular emphasis on research that addresses significant and impactful problems within these disciplines.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Esade Spring Workshop 2025</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Barcelona, Spain</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Asset Pricing and Financial Markets, Corporate Finance and Banking</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025 MRS International Risk Conference</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2025-07-26</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Boston, Massachusetts</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>No submission fee.</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>AI risk, Ambiguity and ambiguity aversion, Artificial intelligence and machine learning, Asset pricing: capital market efficiency and anomalies, Banking and bank risk management, Behavioral finance and risk management, Climate risk, catastrophic risk, rare disasters, Corporate finance and governance, Credit risk and liquidity risk, Cryptocurrency risk and reward, Cyber risk, Derivatives, risk management, speculations, ESG and green finance, Financial literacy and household finance, Geopolitical risk, Health and retirement risk, Housing market and housing risk, Inflation and monetary policy, Insurance and risk finance, Leverage and systemic risk, Mutual funds, hedge funds, institutional investors, Supply chain risk and corporate risk management, Venture capital, innovations, entrepreneurship.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>The Zurich-Bern Real Estate Finance and Economics Workshop 2025</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Zurich, Switzerland</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Real estate finance and urban/real estate economics</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025 Global Entrepreneurship and Innovation Research Conference (GEIRC)</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Taipei, Taiwan</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Green innovation and sustainable economy, the determinants, development, and consequences of artificial intelligence (AI), new venture formation processes, financing, and strategies, R&amp;D and project management, performance metrics, and portfolio evaluation, institutions and policies to enhance entrepreneurship and innovation, markets for ideas, innovation, and other intangibles, regional and global dynamics of entrepreneurship and innovation, university and science-based innovation and technology transfer, continuous improvement and new process development; new product development, development processes, and service design, patents, licensing, and intellectual property, business model innovation (e.g., operations, marketing, or network innovation), open innovation and distributed innovation, market and financial impacts of innovation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Conference on the Economics and Finance of Healthcare and Medicine</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2025-01-25</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>WashU Olin Business School, St. Louis, MO</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>$50</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Healthcare and Medicine, Economics and Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Northeastern University Finance Conference 2025</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Boston, Massachusetts</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>$100</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>All areas of finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025 Conference on AI and FinTech</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Beijing, China</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>AI applications in finance and related industries, Intersection of AI and investment, The use of unstructured data (e.g., text, images, voice and facial recognition, mobile footprint, satellite data, geolocation, and social media) in investment and related areas, The social and economic impact of AI adoption, Quantitative investment strategies and portfolio optimization with machine learning technologies or other AI models.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>The 2025 International Conference on Sustainable Development, Social Responsibility &amp; Business Ethics</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Gulf University for Science and Technology, Kuwait</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Sustainable Development, Social Responsibility &amp; Business Ethics, Renewable Energy, Climate Change, Fintech, Corporate social responsibility, Corporate governance, ESG practices, Financial inclusion, Impact investing, Green supply chain analysis, Biodiversity, Blockchain etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Lake District Workshop in Corporate Finance</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Bowness-on-Windermere, Lake District, England</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>£50</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Corporate Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>PERC Oxford Research Symposium</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Oxford, UK</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Theoretical and empirical papers in the broad field of private equity, including, but not limited to research on buyouts, distressed securities, mezzanine financing, special situations, private credit, venture capital, real estate, and real assets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Conference on "Ageing and Sustainable Finance"</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>ZEW - Leibniz Centre of European Economic Research, Mannheim, Germany</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Household financial behaviour such as saving and dis-saving, investment, and insurance behaviour, "Green preferences", sustainable financial literacy and financial decisions, risk-management and investment strategies of pension funds and insurance companies, bank business models, bank funding and lending, financial market barriers to a sustainable economy, effects on monetary policy and its pass-through to the real economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Spring 2025 Labor and Finance Group Conference</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Campus of Georgetown University, Washington DC</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>The role of firms in determining wages, employment, and other labor market outcomes, Regulation and its effect on firms and workers, Household financial decision‐making, Effects of finance on employee outcomes, Financial frictions and labor market participation, Financing of human capital investment, Dynamics of labor and financial markets, Adoption of AI and Technology and their effects on labor markets</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Forensic Finance Conference</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Austin, Texas</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Forensic finance which includes asset pricing, corporate finance, financial intermediation, and household finance, and can also relate to research in other economic fields, accounting, and the law.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Commodity and Energy Markets Association (CEMA) Annual Meeting 2025</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Jones Graduate school of Business, Rice University, Houston, TX, USA</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Economics, finance, mathematics, operations, and risk management as they apply to commodity and energy markets; the clean energy transition, including issues of climate change and sustainability related to the commodity and energy markets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Third Aarhus Workshop on Strategic Interaction in Corporate Finance</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Aarhus, Denmark</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>DKK 250</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Interaction between firms’ investment and financing decisions, real implications of financial contracts, conflicts of interest between the firm’s stakeholders, real options signaling games, bargaining along the supply chain, interdependence between disclosure and corporate finance, feedback between the firm and financial markets, feedback effects of ratings, corporate governance and shareholder voting, strategic decisions in corporate takeovers</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Innovations in Sustainable Finance</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Northwestern University, Evanston IL</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Climate risk, measurement and regulation, social issues, financial instruments that promote sustainability, greenwashing, the carbon credit markets, AI and sustainable investment, topics relating to emerging economies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>8th Short-Term Funding Markets Conference</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Federal Reserve Board, Washington, D.C.</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>maturity and liquidity transformation by banks, broker-dealers, money market mutual funds, and other financial intermediaries; repo markets and their clearing institutions; theories of frictions and fragility in short-term funding markets; effects of regulation and central bank intervention on funding markets, including the current regulatory environment; how short-term funding markets affect capital structure and other corporate finance decisions; money creation and the demand for safe assets; fintech and encrypted currency.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>41th International Conference of the French Finance Association (AFFI)</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Université de Bourgogne Europe, Dijon, France</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>All areas of Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>The Eighteenth New York Fed / NYU Stern Conference on Financial Intermediation</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Financial Intermediation</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>3rd Annual Conference on Market-Based Solutions for Reducing Wealth Inequality</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Chapel Hill, NC</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Market-Based Solutions for Reducing Wealth Inequality, fintech, telehealth, inclusive economic growth, wealth disparities reduction, market-driven initiatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Second UIC Finance Conference</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Chicago, IL</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>All areas of finance for presentation, recent research, and emerging trends in finance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>4th International Symposium for Mathematical Finance, Banking and Insurance, ISFBI’25</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2025-06-28</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Tunis, Tunisia</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Finance, Banking and Insurance, Digitalization, Emerging risks, Technology impacts, Climate risks, Crypto currencies, ESG risks and investments, Geopolitical risks, financial and non-financial risks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025 Quadrant Behavioral Finance Conference</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Winnipeg, Manitoba, Canada</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Behavioral and household finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>8th Indonesian Financial Management Association (IFMA) International Conference</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>All areas of finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>CityU of Hong Kong International Finance Conference</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>City University of Hong Kong</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Corporate Finance and Asset Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2nd Financial Fraud, Misconduct and Market Manipulation Conference</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Lancaster University, England</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Theoretical and empirical analysis of financial fraud, Case studies of recent instances of market misconduct, Insider trading, Implication of financial fraud/market manipulation for market efficiency, stability, and asset pricing, Market manipulation at a high-frequency (intraday) level, Fraudulent activities and crypto currency markets, Social networks, fake news, and their effect on financial markets, Money laundering and banking, Conflicts of interests and their implications for various stake holders and financial markets, Hedge funds/Mutual funds and their involvement in market misconduct, Statistical/ Machine Learning methods for fraud detection, Cyber security and cyber risk management, Regulatory response to financial misconduct, Unintended consequences of politics and regulations</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Boulder Summer Conference on Consumer Financial Decision Making</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>St. Julien Hotel, Boulder, Colorado</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Consumer financial decision making, public policy related to consumer financial decision making, consumer education related to financial decision making, innovations in business related to consumer financial decision making, interdisciplinary research on consumer financial decision making.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>3rd Bocconi-CEPR Finance Workshop</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Bocconi University, Milano</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Corporate Finance: Agency conflicts, Corporate governance, Corporate taxation, Default resolution, Capital structure, Corporate investment, ESG, Green Bonds; Financial Intermediation: Banking and monetary policy, Regulation and bank supervision, Risks from climate change, Fintech and digitalization, Financial development and growth, Non-bank financial intermediation (pension funds, insurers, PE, direct lending)</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>PARIS Ownership, Control, and Performance Conference</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Capital Allocation and Innovation, Financial Structure, International Expansion and Heterogeneity, Corporate Social Responsibility Outcomes</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Sixth Edinburgh Corporate Finance Conference</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Edinburgh, Scotland</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Corporate finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>8th Bristol Workshop on Banking and Financial Intermediation</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Bristol, United Kingdom</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Theoretical and empirical papers on topics related to banking and financial intermediation</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>IBEFA Summer Meeting at the 2025 WEAI Conference</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>San Francisco, California</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>US$75 per paper (US$50 for papers solely authored by PhD. students)</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Financial intermediation; securitization and shadow banking; financial risk measurement and management; financial stability and macroprudential policies; climate finance; payments systems; household finance; financial market structure and regulation; monetary policy; financial intermediation and global fragmentation; FinTech.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>1st Annual Isenberg School of Management Finance Conference</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Isenberg School of Management, University of Massachusetts Amherst</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>$60 USD</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Latest trends, challenges, and opportunities in finance, both empirical and theoretical work</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>17th Annual Conference on Advances in the Analysis of Hedge Fund Strategies</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>London, United Kingdom</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Hedge fund strategies in all asset classes and their impact on financial markets, statistical significance and economic value of return and volatility predictability in asset returns (e.g., equities, fixed income, credit, foreign exchange, crypto, commodities, derivatives, hedge funds), long term asset management, hedge fund performance and risk measurement, incorporating transactions costs and risk management into trading strategies, AI, NLP and machine learning applications to hedge fund strategies, effect of hedge funds on asset prices, policy implications of herding, bubbles, and systematic risk, evolution of international financial architecture.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Erasmus Corporate Governance Conference</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Rotterdam, Netherlands</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Executive compensation, agency-related corporate governance topics</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Eighth Annual Private Markets Research Conference</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Lausanne, Switzerland</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Risk and performance measurement of private market funds; the economics of private impact investment funds; private fund manager incentives; institutional investor asset allocation; entrepreneurial finance; alternative private investing structures; private equity, private debt and private real asset investing; VC contracting; ESG, TBL, and impact exposures of private market funds; private market exits and alternative routes to liquidity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>1st Lapland Financial Institutions Summit (LFIS)</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Levi Summit, Levi (Kittilä), Lapland, Finland</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Financial intermediation, regulation; Banking, financial institutions; Financial market stability; Financial market risks, financial distress; Macroprudential topics and financial institutions; Global and climate, biodiversity risks, sustainability in banking and financial market</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Workshop on Banking and Institutions</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>EM Strasbourg Business School, University of Strasbourg</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>political economy of banking, geopolitics and banking, banking and society, banking in emerging markets, institutional underpinnings of financial systems, banking and environment</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Northeastern University Finance Conference 2025</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Boston, Massachusetts</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>$100</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>All areas of finance (theoretical and empirical contributions are encouraged)</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>CEPR 10th European Workshop on Household Finance</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Copenhagen</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>50 euro</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Patterns of asset allocation and debt behaviour over the life cycle, Financing retirement and the demographic transition, Consumer indebtedness, financial distress and default decisions, Behavioural approaches to household finances, Financial literacy and financial education programmes, Trust, subjective expectations, pessimism, and financial decisions, International comparisons of household finances using micro-data, Cognitive and genetic studies on individual financial performance, Financial advice and legal protection of investors and borrowers, The impact of technology on household financial behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>FSU Truist Beach Conference</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Hilton Sandestin Beach Golf Resort and Spa in Miramar Beach, FL</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>High-quality empirical and theoretical research papers across all areas of finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Fintech and Financial Institutions Research Conference</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Federal Reserve Bank of Philadelphia, Philadelphia, PA 10 N Independence Mall W, Philadelphia, PA 19106</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Competition and collaboration dynamics between traditional financial institutions and new market entrants, Financial stability consequences of the interplay between fintech and traditional lenders, Impact on credit supply and pricing for large firms, small businesses, and households, Real economy effects of fintech and the financial system's response, Societal impact relating to fintech and its interactions with the financial system, Influence of monetary and fiscal policies on fintech firms and financial institutions, Governance strategies and structures within fintech, crypto-exchanges, and blockchain organizations, The application of AI and ML by traditional and fintech lenders, Stablecoins and the real impact of cryptocurrencies, Regulatory considerations surrounding fintech and its interactions with the broader financial system, Alternative credit assessment systems and their impact, including fairness, Impact of regulations on FinTech innovation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>SEBI-NISM-LSE Conference on “Harnessing Technology, Innovation and Regulations for Sustainable Growth”</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Navi Mumbai, India</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Fintech and Indian Securities Market, Analysing role of Finfluencers: Need for Regulating, ESG, Climate Risk, Sustainability: Perspective for Indian Securities Market, Ideas for Capital Formation for India through the Indian Securities Market, Systemic Risks in Indian Securities Market: Assessment and Monitoring, Any Other Related Theme.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>8th Annual World Symposium on Investment Research</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Washington, D.C.</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Arbitrage in Asset Markets, Corporate Decisions and Asset Returns, Firm Governance and Valuation, Global Investment Issues, Hedge Funds and Other Alternative Investments, High-Frequency Trading, Investor Behavior and Performance, Liquidity and Security Returns, Mutual Funds and Pension Funds, Portfolio Rebalancing Strategies, Real Economy and Asset Prices, Return Predictability</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025 UC Davis-FMA Napa Finance Conference</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Napa, CA</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>$125</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Papers in all areas of finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Third Durham Conference for Finance Job Market Papers</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Durham University Business School, Durham, UK</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Corporate finance, banking and financial intermediation, household and real estate finance, fintech, asset pricing and financial econometrics</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>SFS Cavalcade North America 2025</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Stevens Institute of Technology, Hoboken, New Jersey</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>All areas of finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Conference on Fixed Income Research and Implications for Monetary Policy</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Federal Reserve Bank of San Francisco</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Macroeconomic determinants of yields, Interactions of bond yields with exchange rates, Intermediation frictions, including leverage, dealer balance sheet capacity, duration-risk management in an environment of elevated interest rates, Fixed income markets and implementation of monetary policy, term structure modeling, bond market volatility, estimation of risk premia, sovereign and default risk, the pricing of climate risk, liquidity, corporate bond markets, securitization</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Oxford Saïd-VU SBE Macro-finance Conference</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>VU Amsterdam</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>45 EUR</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Inflation, debt sustainability, and monetary policy normalisation, Monetary policy, macroprudential policy, and fiscal policy, Credit, banks, money, and bankruptcy risks, International finance, sovereign debt, and exchange rates, Climate risks and the macro-financial implications</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>12th Annual Conference on Financial Market Regulation (CFMR 2025)</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Sec Headquarters, 100 F St NE, Washington, DC 20002</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>$50</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Asset Management, Corporate Finance, Enforcement, Financial Intermediation, Market Microstructure and Trading</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>The WFE’s Global Meeting on Sustainability 2025</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Role of capital markets in sustainability and ESG goals, the impact of ESG disclosure and reporting standards, integrating nature and biodiversity reporting, sustainable and climate finance, environmental economics and climate change, sustainability and ESG implications for corporate governance, carbon markets, supply chains, exchange-traded products and potential new ESG products and markets, transition finance and managing transition with shareholders, taxonomies, role of issuers and exchanges in supporting a Just Transition, impact of sustainability and ESG integration on SMEs, role of ratings, indices, and related intermediaries.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>10th Annual University of Connecticut Finance Conference</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Storrs, CT</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>$60</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Unpublished empirical or theoretical papers in all areas of finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025 Baruch-JFQA Climate Finance and Sustainability Conference</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2024-12-10</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Baruch College, New York</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Climate finance, ESG, corporate sustainability, climate risk, climate-related regulation, green innovations, renewable energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>3rd SGFIN Annual Research Conference on Sustainability</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>No fee for submissions</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Sustainability and the intersecting roles of finance, technological innovations, policies and regulations, climate and nature finance and risk management, transition pathways for decarbonization and clean energy solutions, sustainable supply chains, responsible consumerism, and carbon border adjustment mechanism, sustainable usage of resources, including pollution, waste, and water management</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>7th Annual Workshop on Financial Institutions Research</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Gateway Conference Center, Federal Reserve Bank of St. Louis; St. Louis, MO USA</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Financial intermediation, debt contracting, banking, empirical research with policymaking applications</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025 FIRS Conference</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Seoul, South Korea</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>$75</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Theoretical, quantitative, and empirical papers in all areas of finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>65th World Continuous Audit and Reporting Symposium (WCARS), "Everything is AI Now"</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>American University of Sharjah, Sharjah, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Predictive and prescriptive analytics in auditing, AI-driven continuous auditing, Generative AI in financial reporting, AI for enhanced risk assessment, Advanced AI techniques for fraud detection, AI and ethical standards in accounting, Integration of AI with blockchain for auditing</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>26th Annual Texas Finance Festival</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Austin, Texas</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Financial economics</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Financial Intermediation in the Third Millennium: Perils and Pearls of Technology</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Essex Business School, University of Essex, Wivenhoe Park, Colchester, U.K.</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>New technology-based financial products, new paradigms of competition in financial intermediation, connections between banks and shadow banks, interaction between monetary policy, financial conditions, and build-up of fragilities in financial markets in the new digital economy, crypto assets, crypto currencies, and digital currencies, blockchain technologies and smart contracts, fintech as an alternative to financing, fintech and democratization of investments, geopolitical risks and implications for market stability, new challenges for regulation and supervision, big data, nowcasting, and text analysis in finance, digital finance, banks, and non-banks in the interface between banking and financing innovations in medicine/healthcare, societal management of an aging population, and other non-traditional areas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2nd Lapland Household Finance Summit</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Levi Summit, Levi (Kittilä), Lapland, Finland</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Stock market participation, Portfolio and security choice, Personality, health, cognition, biology and household finance, Debt behavior, financial distress, default, bankruptcy, debt resettlement, Saving for retirement and financial decision-making of the elderly, Financial literacy, financial education, and interventions for better financial decision-making, Expectations, beliefs, and preferences, Financial advice and advisors, Climate change, sustainability and household financial decision-making, Machine-learning, algorithms and data-driven household finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2nd Lapland Investment Fund Summit</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Levi Summit, Levi (Kittilä), Lapland, Finland</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Fund performance measurement and manager selection, Capital raising, clientele effects, compensation contracts, and fees, ESG, DEI, and sustainability, especially in private equity funds and hedge funds, Machine learning and artificial intelligence in predicting fund risk and performance, Trading activity, transparency (reporting), conflict of interest, and due diligence, Broad macroeconomic issues such as systemic risk, liquidity, and contagion, Innovations in fund design (e.g., theme-based ETFs).</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Adam Smith Workshop Spring 2025</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>HEC Paris</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>90 EUR</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Asset Pricing, Behavioral Finance, Corporate Finance, Financial Intermediation, Household Finance, International Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>The 33rd Annual Conference on Pacific Basin Finance, Economics, Accounting, and Management</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Chung Yuan Christian University, Taiwan</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>USD $250 for an On-line Presenter, USD $300 for an On-site Presenter, USD $250 for Review of Quantitative Finance and Accounting, USD $150 for RPBFMP.</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Pacific Basin Finance, Economics, Accounting, and Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>UBC Winter Finance Conference 2025</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Fairmont Chateau Whistler Resort, Whistler, British Columbia, Canada</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>CAD $75</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Topics of general interest to the finance profession</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025 Loyola Wealth Management Conference</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Loyola University Maryland, Baltimore, MD 21210</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>No submission fee</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Empirical papers on mutual funds, ETFs, REITs, private equity, financial planning</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025 Plato Market Innovator (MI3) Conference</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>One Moorgate Place, London</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>All areas of microstructure including theoretical, empirical and experimental work, particularly research relating to European markets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Ninth Annual Mergers &amp; Acquisitions Research Centre Conference</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>London, UK</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Mergers and acquisitions (M&amp;A), deal structure from financing to integration, activism, regulatory changes, domestic and cross border transactions, corporate social responsibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Finance and Accounting 2025 Annual Research Symposium</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>University of Westminster, 35 Marylebone Road, London, NW1 5LS UK</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>AI in Accounting and Finance, digital assets, asset pricing, corporate finance, financial econometrics, forecasting, fund management, market sentiment, sustainable development, thematic investing, financial reporting, accounting standards, taxation, big data, data analytics</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>FMARC 2025 - Financial Management &amp; Accounting Research Conference</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Cyprus</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Finance, accounting, and related fields</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Asset Pricing and Machine Learning</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Gothenburg, Sweden</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Asset pricing, machine learning, finance, econometrics</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>OCC Economics Bank Research Symposium: The Use of Artificial Intelligence (AI) in Banking and Finance</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>OCC Washington DC</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Addressing potential bias and the disparate impacts from the use of AI and machine learning (ML) in lending, The regulatory landscape of AI/ML, The impacts of algorithmic underwriting and appraising, Use of AI to understand consumer financial behavior and decision‐making, and the implications of the use of AI in these settings, Addressing the potential risks that AI poses to financial stability, Use of AI/ML for fraud detection, prevention, and operational enhancement processes, The risks of AI/ML in perpetrating fraud, algorithmic bias, and misinformation, Developing trustworthy AI and alignment frameworks</t>
         </is>
       </c>
     </row>

--- a/public/conference_list.xlsx
+++ b/public/conference_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,81 +473,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2nd LSU Finance Mardi Gras Conference</t>
+          <t>7th Analyst Research Conference</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-04-16</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Baton Rouge, LA</t>
+          <t>University of Notre Dame; Notre Dame, IN, USA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$50</t>
+          <t>No submission fee</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>All topics in finance</t>
+          <t>Current topics in analyst research</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Finance Down Under: Building on the Best from the Cellars of Finance</t>
+          <t>Annual VSB Mid-Atlantic Research Conference in Finance (MARC)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Melbourne, Australia</t>
+          <t>Bartley Hall, Villanova University, Villanova, PA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>US$100</t>
+          <t>$60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Empirical and theoretical research in asset pricing, corporate finance and all other areas of finance, vintage research, gender finance, and contributions related to Professor René Stulz's work.</t>
+          <t>All areas of finance</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The 2026 NYSE Market Microstructure Conference</t>
+          <t>Joint World Bank - Financial Analysts Journal Conference on “Public Asset Management: Best Practices and Innovations for the Future”</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -557,202 +557,202 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NYSE | 11 Wall Street, New York, NY 10005</t>
+          <t>World Bank Headquarters, Washington DC, USA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Real-world application of market microstructure, state of the U.S. Equity and related markets</t>
+          <t>Public pension funds: Risk management methodologies, challenges, and best practices, Central Bank Reserve Management, Sovereign Wealth Fund Management, Stability, Guarantee, and Insurance Funds Management, Local Capital Markets and Home Bias, Blended Finance, Transition Finance for Public Investors</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Annual Boca Finance and Real-Estate Conference</t>
+          <t>Seventh Edinburgh Corporate Finance Conference</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-08-31</t>
+          <t>2025-11-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2026-05-24</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Florida Atlantic University, Schmidt Family Complex, Boca Raton, Florida, USA</t>
+          <t>Edinburgh, Scotland</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$50</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>All topics related to finance and real estate</t>
+          <t>Corporate finance, both theoretical and empirical</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19th Annual Corporate Governance Academic Conference at Drexel University</t>
+          <t>Federal Reserve Bank of Philadelphia Mortgage Market Research Conference</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-05-14</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-05-15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Philadelphia, PA</t>
+          <t>Federal Reserve Bank of Philadelphia, Ten Independence Mall, Philadelphia, PA 19106</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$100</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Corporate governance, board of directors, executive compensation, ownership structure, shareholder activism, institutional investors, mergers and acquisitions, private equity, sustainable finance, regulation, talent management.</t>
+          <t>Mortgages, the mortgage market, residential and commercial mortgages, homeownership and wealth accumulation, real estate prices, the structure and risk of the financial sector, transmission of monetary policy and macroeconomic shocks.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Financial Research Association 2025 Annual Conference</t>
+          <t>2026 ITAM Finance Conference</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-08-31</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Four Seasons Hotel, Las Vegas, Nevada</t>
+          <t>ITAM Campus, Mexico City</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$1,250 MXN (approximately $67 USD)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>New finance papers of general interest to the profession</t>
+          <t>empirical or theoretical papers from all areas of finance and financial economics</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21st European Winter Finance Summit</t>
+          <t>The 2025 Cross Country Perspectives in Finance (CCPF) Special Multi-Thematic Conference</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Saas-Fee, Switzerland</t>
+          <t>online only</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CHF 60</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>New ideas in finance, both empirical and theoretical contributions from all areas of finance</t>
+          <t>Sustainable Finance, Financial Innovation, Digital and Crypto Assets, Fintech, Family Firms and SMEs, The Effectiveness of Financial Regulation</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>The 20th Annual Conference on Asia-Pacific Financial Markets (CAFM)</t>
+          <t>2nd Workshop on LLMs and Generative AI in Finance at ICAIF '25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CONRAD Seoul, Seoul, Korea</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -762,98 +762,98 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>All areas of finance</t>
+          <t>Multi-Agentic Systems, Composable and Compound System Design for Explainable Reasoning, Trust and Accountability in AI Systems, Methodologies for Processing Unstructured Data, Technical Challenges of LLMs and NLP, Prompt Engineering, Retrieval-Augmented Generation (RAG), Fine-Tuning LLMs, Text-to-SQL Applications, Evaluation Techniques, Applications in Analyzing Financial Reports and Alternative Data, Financial Modeling, Multi-Lingual ESG Identification and Assessment, Financial Fraud Detection, Enhancing Investor Communication.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>14th International Moscow Finance Conference</t>
+          <t>5th Edition Spring Finance Workshop</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2025-11-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2026-04-21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>HSE University, Moscow and Online</t>
+          <t>Ischgl, Austria</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>70 EUR</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>theoretical and empirical research in all fields of finance</t>
+          <t>All fields of finance</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>The 35th Conference on Financial Economics and Accounting (CFEA)</t>
+          <t>Columbia/BPI Annual Bank Regulation Research Conference</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>East Lansing, MI</t>
+          <t>Columbia University, New York City</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$250</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Accounting, Economics, Financial Economics, and other related disciplines</t>
+          <t>All aspects of bank regulation including capital and liquidity regulation, stress testing, merger policy, implications of financial innovation for bank regulation and intermediation activity, evolving roles of banks and nonbanks, digitalization, real-time payments, effect of digital asset innovation and regulation on financial intermediation by banks and nonbanks, implications of financial innovations, such as stablecoins and real-time payments for managing and regulating liquidity, credit, and market risks, adequacy of regulation and the financial safety net for innovations such as stablecoins, implications of financial innovations for bank deposit-taking and provision of payments services.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Future Finance and Economics Association Dubai December 2025</t>
+          <t>2026 Loyola Wealth Management Conference</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>Loyola University Maryland</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -873,51 +873,51 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>International, Climate and Green finance, International financial integration and financial globalization</t>
+          <t>mutual funds, ETFs, REITs, private equity, cryptocurrency, and related areas of wealth management</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>The 15th Workshop on Exchange Rates</t>
+          <t>Ninth Duke-UNC Asset Pricing Conference</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Banka Slovenije, Slovenia, Ljubljana</t>
+          <t>Duke University - Durham, North Carolina</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$75</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>The drivers of exchange rates and related asset prices from a financial perspective (including the role of intermediaries); Exchange rates and the transmission of monetary policy; Exchange rate pass-through and the role of dominant currency pricing; FX interventions and the impact of tariff policies; Exchange rates and macrofinancial stability frameworks; FX risk premia and their drivers; Global linkages between capital flows, foreign exchange rates and risk appetite; The international use of currencies and its implications for exchange rates; Digital currencies and their implications for the global monetary and financial system.</t>
+          <t>All areas of asset pricing and macro-finance</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>62nd Annual Eastern Finance Association Meeting</t>
+          <t>The 2025 TSFS International Conference in Finance</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -927,239 +927,239 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2026-03-25</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Asheville, NC</t>
+          <t>Kuriat Palace Hotel, Monastir, Tunisia</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>All areas of finance</t>
+          <t>Accounting, auditing, taxation, Asset allocation and valuation, Banking regulation and financial services, Behavioral and experimental finance/economics, Big data in finance, artificial intelligence, cybersecurity, Climate finance and sustainability, Corporate finance, IPOs, SEOs, M&amp;A, crowdfunding, Corporate governance, Country funds, sovereign funds, hedge funds, Debt issues, Digital finance, cryptocurrency finance, blockchain, Emerging markets finance, Energy finance and environmental Issues, Entrepreneurial finance, venture capital, private equity, Ethical finance, green finance, ESG, CSR, Financial accounting and regulation, Financial crises, contagion, integration, global risks interconnection, Financial engineering and derivatives, Foreign currency issue, Global imbalances &amp; sustainability, Household finance, real estate finance, microfinance, Market behavior efficiency, Multinational financial management, Portfolio management and optimization, Risk management and compliance, Small business finance.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6th Annual RCF-ECGI Corporate Finance and Governance Conference</t>
+          <t>2nd LSU Finance Mardi Gras Conference</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-12-13</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hybrid: in person at School of Business, Stevens Institute of Technology, Hoboken, NJ, USA, and virtually</t>
+          <t>Baton Rouge, LA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>In person: $400, Online option: $50</t>
+          <t>$50</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Capital structure, corporate and securities law, corporate culture, corporate failure, corporate finance and public policy, corporate governance, corporate restructuring, corporate social responsibility, crowdfunding, dividends, payout policy, and repurchases, entrepreneurial finance, family business, financial contracting, financial intermediation, financial literacy, fintech, fraud, innovation, IPOs and SEOs, mergers and acquisitions, misconduct, private debt, private equity, trade credit, socially responsible investments, sustainable finance, real options, venture capital.</t>
+          <t>All topics in finance</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Santiago Finance Workshop (SFW)</t>
+          <t>Finance Down Under: Building on the Best from the Cellars of Finance</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>School of Business and Economics of the University of Chile. Santiago, Chile</t>
+          <t>Melbourne, Australia</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>US$100</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Any Finance or Financial Economics topic</t>
+          <t>Papers in asset pricing, corporate finance and all other areas of finance. Session on gender finance. Submissions related to the contributions by Professor Stulz.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Rutgers-ATP India Accounting &amp; Finance Symposium</t>
+          <t>The 2026 NYSE Market Microstructure Conference</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>IIM Bangalore, India</t>
+          <t>NYSE | 11 Wall Street, New York, NY 10005</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>No submission fee</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Accounting, Corporate Finance, Asset Pricing, Corporate Governance, Law, Contracting, Sustainability, Corporate Social Responsibility</t>
+          <t>Real-world application of market microstructure, U.S. Equity and related markets.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>The 7th China International Forum on Finance and Policy</t>
+          <t>2nd Annual Boca Finance and Real-Estate Conference</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-12-13</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Beijing, China</t>
+          <t>Florida Atlantic University, Schmidt Family Complex, Boca Raton, Florida, USA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$50</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Financial market research, regulatory policies, real world applications, policies and regulations, Chinese financial system</t>
+          <t>finance and real estate</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>The 19th International Behavioural Finance Conference</t>
+          <t>19th Annual Corporate Governance Academic Conference</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Chicago, US</t>
+          <t>Philadelphia, PA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Free.</t>
+          <t>$100</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Financial decision making, investments, financial markets, corporate finance, fund management, banking, asset pricing, forecasting, experimental finance and sociology of finance, banking and regulation, behavioural asset pricing, behavioural corporate finance, biases and heuristics, pandemics, cryptocurrencies, equality, diversity &amp; inclusion, financial analysts, financial behaviour, financial markets, investment decisions, managerial biases, mergers and acquisitions, political environment, retail investors, sentiment, climate finance, CSR and ESG.</t>
+          <t>Corporate governance, board of directors, executive compensation, ownership structure, shareholder activism, institutional investors, mergers and acquisitions, private equity, sustainable finance, regulation, talent management</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IIM Calcutta-NYU Stern India Research Conference on Zoom</t>
+          <t>Financial Research Association 2025 Annual Conference</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Stern School of Business New York University (ZOOM)</t>
+          <t>Four Seasons Hotel, Las Vegas, Nevada</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1169,219 +1169,219 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Finance, Economics, Accounting covering issues that concern India and emerging economies</t>
+          <t>New finance papers of general interest to the profession</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025 FMA Annual Meeting</t>
+          <t>21st European Winter Finance Summit</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Vancouver, BC, Canada</t>
+          <t>Saas-Fee, Switzerland</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>CHF 60</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Corporate Finance, Asset Pricing / Investments, Fintech and AI, Behavioral, Household Finance, Climate Finance</t>
+          <t>empirical and theoretical contributions from all areas of finance</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SGF 2026 Conference</t>
+          <t>The 20th Annual Conference on Asia-Pacific Financial Markets (CAFM)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Zurich, Switzerland</t>
+          <t>CONRAD Seoul, Seoul, Korea</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CHF 60</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Asset Pricing, Corporate Finance &amp; Governance, Financial Intermediation and Institutions, Behavioral Finance &amp; Household Finance, Financial Markets General</t>
+          <t>Research papers in all areas of finance</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Behavioral/Cognitive Finance, Decision/Risk Sciences in the Age of Artificial Intelligence; Entrepreneurship &amp; Economics-2025</t>
+          <t>14th International Moscow Finance Conference</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-08-17</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Silicon Valley/Santa Clara, CA, USA</t>
+          <t>HSE University, Moscow and Online</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>$99.00</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>New Financial &amp; Economic Models and theories for decision making and risk taking; Venture Startups and Exits; Trust, Financial and Capital Markets; Investment in and Working of Financial Markets; Financial Management of Companies; Entrepreneurship, Innovation, and Economic Development; Role of Behavioral Finance &amp; Economics in Personal Finance, Retirement Saving &amp; Planning; Teaching, Learning, and Training using AI or AGI; Behavioral Finance in Practice</t>
+          <t>Theoretical and empirical research in all fields of finance</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>65th Annual Meeting of the Southwestern Finance Association (SWFA)</t>
+          <t>The 35th Conference on Financial Economics and Accounting</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2026-03-25</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>East Lansing, MI</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$250</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>AI, Machine Learning, and Finance; Asset Pricing; Banking and Financial Institutions; Corporate Finance; Financial Markets and Investments; Behavioral Finance; ESG and Sustainable Finance; FinTech and Cryptocurrencies; International Finance; Risk Management and Derivatives</t>
+          <t>Accounting, Economics, Financial Economics, and other related disciplines.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9th Commodity Markets Winter Workshop</t>
+          <t>Future Finance and Economics Association Dubai December 2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Brand (Vorarlberg), Austria</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>€ 300 (Full-time PhD students € 250).</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Micro &amp; macroeconomic analysis of commodity markets, Portfolio allocation/optimization including commodities, Pricing, hedging, and risk analysis of commodity derivatives and derivatives portfolios, Financialization of commodity markets, The microstructure of commodity markets, Corporate finance, and risk management related to commodity markets, Econometric/statistical analysis of commodity markets, Decision models (OR/MS models) applied to the commodity sector, Real option analysis investigating commodity project investment and production decisions, Financial market analysis (risk factor models etc.) for commodity markets, Managerial accounting &amp; economics for commodity related corporations, Global and regional trade of commodities, The role of commodity production and consumption for developing countries</t>
+          <t>International, Climate and Green finance, their interactions with each other and how they can aid the sustainable growth of economies, corporations and organizations, international financial integration and financial globalization.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WFEClear, the WFE Clearing and Derivatives Conference 2026</t>
+          <t>The 15th Workshop on Exchange Rates</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2026-04-21</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2026-04-23</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Toronto, Canada</t>
+          <t>Banka Slovenije, Slovenia, Ljubljana</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1391,219 +1391,219 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Innovations in collateral management (especially to cater for 24/7 trading), Innovations in options trading, Derivatives in emerging markets, Clearing structures and incentives (e.g., auction design, corporate governance, client clearing, non-default losses (NDLs), impact of clearing regulations), Market resilience (e.g., clearing networks, liquidity contagion, cyber threats, collateral flows), Vertical integration and market consolidation, Supervisory structures and data reporting standards, New clearing and risk models, Operational risk (e.g., third party risk management, transitioning to the cloud), Impact of new technologies (e.g., clearing of crypto assets, crypto derivatives, DLT applications, smart contracts, the use of AI), Liquidity risk transmission (e.g., network models, procyclicality), The impacts and suitability of the clearing mandate, Barriers impeding cross-border activity, Climate-related issues (green derivatives, clearing carbon emissions, water futures, carbon markets derivatives, etc.).</t>
+          <t>FX markets, financial intermediation, macrofinancial stability, drivers of exchange rates and related asset prices from a financial perspective (including the role of intermediaries), exchange rates and the transmission of monetary policy, exchange rate pass-through and the role of dominant currency pricing, FX interventions and the impact of tariff policies, exchange rates and macrofinancial stability frameworks, FX risk premia and their drivers, global linkages between capital flows, foreign exchange rates and risk appetite, the international use of currencies and its implications for exchange rates, digital currencies and their implications for the global monetary and financial system</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>The CUHK-RAPS-RCFS Conference on Asset Pricing and Corporate Finance</t>
+          <t>62nd Annual Eastern Finance Association Meeting</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-08-31</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2026-03-25</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Asheville, NC</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$75</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Asset Pricing, Corporate Finance</t>
+          <t>All areas of finance</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AlgoDefi25 Workshop</t>
+          <t>6th Annual RCF-ECGI Corporate Finance and Governance Conference</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-12-13</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Politecnico di Milano, Milan, Italy</t>
+          <t>Hybrid: in person at School of Business, Stevens Institute of Technology, Hoboken, NJ, USA, and virtually</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$50 online option, $400 in person (For conference dinner, lunches, and coffee breaks)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Algo-trading, DeFi Algorithmic Trading, Decentralized Finance, Artificial Intelligence in Capital Markets, real-time market information, machine learning techniques, automatic trading strategies, automatic market making, distributed ledger technologies, digital assets, smart contracts, cryptocurrencies</t>
+          <t>capital structure, corporate and securities law, corporate culture, corporate failure, corporate finance and public policy, corporate governance, corporate restructuring, corporate social responsibility, crowdfunding, dividends, payout policy, and repurchases, entrepreneurial finance, family business, financial contracting, financial intermediation, financial literacy, fintech, fraud, innovation, IPOs and SEOs, mergers and acquisitions, misconduct, private debt, private equity, trade credit, socially responsible investments, sustainable finance, real options, venture capital</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5th Frontiers of Factor Investing Conference 2026</t>
+          <t>Santiago Finance Workshop (SFW)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2026-04-15</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Lancaster University, England</t>
+          <t>School of Business and Economics of the University of Chile, Santiago, Chile</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>£30</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Asset Pricing, Financial Econometrics, Investments, High-Frequency Finance, Factor Allocation, Volatility Modelling, Risk Management, News Sentiment, Sustainable Investing, Machine Learning, Climate Finance, Alternative Data, Fintech, DeFi &amp; Crypto, Extreme Event Modelling</t>
+          <t>Finance, Financial Economics</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bretton Woods Accounting and Finance Ski Conference</t>
+          <t>Rutgers-ATP India Accounting &amp; Finance Symposium</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Bretton Woods, New Hampshire</t>
+          <t>IIM Bangalore, India</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>$79</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>All areas of accounting and finance</t>
+          <t>Accounting, Corporate Finance, Asset Pricing, Corporate Governance, Law, Contracting, Sustainability, Corporate social responsibility</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026 Midwest Finance Association Annual Meeting</t>
+          <t>The 7th China International Forum on Finance and Policy</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2025-12-13</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Radisson Blu Aqua Hotel, Chicago, IL</t>
+          <t>Beijing, China</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Corporate finance, financial institutions, asset pricing, and asset management</t>
+          <t>Academic research, regulatory policies, real world applications, development of the Chinese financial system</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025 VINS Annual Conference</t>
+          <t>The 19th International Behavioural Finance Conference</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NYU Shanghai, Shanghai, China</t>
+          <t>Chicago, US</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1613,34 +1613,34 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Financial implications of geopolitical risks, asset pricing, corporate finance, capital markets, market microstructure, behavioral finance, macro-financial linkages, international finance.</t>
+          <t>Behavioural finance within financial decision making, investments, financial markets, corporate finance, fund management, banking, asset pricing, forecasting, experimental finance, sociology of finance, banking and regulation, behavioural asset pricing, behavioural corporate finance, biases and heuristics, pandemics, cryptocurrencies, equality, diversity &amp; inclusion, financial analysts, financial behaviour, financial markets, investment decisions, managerial biases, mergers and acquisitions, political environment, retail investors, sentiment, climate finance, CSR and ESG.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4th Bonn/Frankfurt/Mannheim Workshop on Digital Finance</t>
+          <t>IIM Calcutta-NYU Stern India Research Conference on Zoom</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Frankfurt am Main, Germany</t>
+          <t>Stern School of Business New York University (Zoom)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1650,34 +1650,34 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Digital finance, AI, Digital currencies, Decentralized finance (DeFi), FinTech</t>
+          <t>Finance, economics, and accounting covering issues that concern India and emerging economies in general. Preference will be given to papers that address challenges and implications of major policy initiatives in India and Indian financial markets.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IV CEMLA / Dallas Fed Financial Stability Workshop</t>
+          <t>2025 FMA Annual Meeting</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>San Antonio, USA</t>
+          <t>Vancouver, BC, Canada</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1687,108 +1687,108 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Monetary policy and financial stability: Interactions and trade-offs, Global financial spillovers and the role of the US dollar, Macroprudential policy: Design, transmission, and applications to housing and beyond, Non-bank financial intermediation, market liquidity, and funding fragilities, Emerging macro-financial risks and the digital transformation of finance.</t>
+          <t>Corporate Finance, Asset Pricing / Investments, Fintech and AI, Behavioral, Household Finance, Climate Finance</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>14th LaBS International Banking Workshop</t>
+          <t>SGF 2026 Conference</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>HSE University, Moscow and online</t>
+          <t>Zurich, Switzerland</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>No conference fee</t>
+          <t>CHF 60</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Theoretical and empirical research in all fields of Banking or Household finance, Issues concerning banking in emerging and developing markets</t>
+          <t>Asset Pricing, Corporate Finance &amp; Governance, Financial Intermediation and Institutions, Behavioral Finance &amp; Household Finance, Financial Markets General</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>International Conference in Banking and Financial Studies (ICBFS 2025)</t>
+          <t>Last Call Behavioral/Cognitive Finance, Decision/Risk Sciences in the Age of Artificial Intelligence; Entrepreneurship &amp; Economics-2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>Silicon Valley/Santa Clara, CA, USA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Milan (Piacenza), Italy</t>
+          <t>Making Under Conditions of Risk and Uncertainty; Venture Startups and Exits; Trust, Financial and Capital Markets, Social Capital, Moral Sentiments and Working of the Markets Economy, Capitalism; Investment in and Working of Financial Markets at all levels of functionality and capital allocation-; Financial Management of Companies- both public and private entities; Role of Virtual Assistants; Entrepreneurship, Innovation, and Economic Development; Sustainable Finance: Efficient Financial Markets; Market for Human/Social Capital &amp; Economic Development; Role of Behavioral Finance &amp; Economics in Personal Finance, Retirement Saving &amp; Planning; Teaching, Learning, and Training-; Applications- Behavioral finance in practice.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>08-17</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Accounting, auditing, and taxation; Asset allocation and valuation; Banking regulation and financial services; Behavioral and experimental finance/economics; Big data in finance, artificial intelligence, and cybersecurity; Climate finance and sustainability; Corporate finance, IPOs, SEOs, M&amp;A, and crowdfunding; Corporate governance; Country funds, sovereign funds, and hedge funds; Debt issues; Digital finance, cryptocurrency finance, and blockchain; Emerging markets finance; Energy finance and environment Issues; Entrepreneurial finance, venture capital, and private equity; Ethical finance, green finance, ESG, and CSR; Financial accounting and regulation; Financial crises, contagion, integration, and global risks interconnection; Financial engineering and derivatives; Foreign currency issue; Global imbalances &amp; sustainability; Household finance, real estate finance, and microfinance; Market behavior efficiency; Multinational financial management; Portfolio management and optimization; Risk management and compliance; Small business finance.</t>
+          <t>Development of new financial &amp; economic models and theories for decision making and risk taking in the post efficient-markets world; Contributions to advance our understanding and knowledge of:</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025 (5th) “Innovation, Sustainability and Regeneration” International Conference</t>
+          <t>65th Annual Meeting of the Southwestern Finance Association (SWFA)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2026-03-25</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Universidade Católica Portuguesa, Porto campus, Porto, Portugal</t>
+          <t>Dallas, TX</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1798,71 +1798,71 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Innovation and business transformation, Circular economy, Bioeconomy, Leadership and governance for sustainability, Sustainable business strategy, Social entrepreneurship and responsible business, Sustainability literacy and education, Sustainable investment and financing, Challenges due to the impact of climate change, Climate risk management, Laws and regulations related to sustainability, Arts and sustainability, AI and analytics for sustainability</t>
+          <t>AI, Machine Learning, and Finance, Asset Pricing, Banking and Financial Institutions, Corporate Finance, Financial Markets and Investments, Behavioral Finance, ESG and Sustainable Finance, FinTech and Cryptocurrencies, International Finance, Risk Management and Derivatives</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2nd Modern Finance Conference (MFC 2025)</t>
+          <t>9th Commodity Markets Winter Workshop</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Warsaw, Poland</t>
+          <t>Brand (Vorarlberg), Austria</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>No submission fee is required.</t>
+          <t>Full-time PhD students €250, others €300.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Asset pricing and valuation, Banking and financial services, Behavioral finance and decision making, Capital structure, Corporate finance, Corporate governance, Cryptocurrencies, Derivatives, Economic development, Exchange rates and currency markets, Finance and accounting standards, Financial econometrics and quantitative methods, Financial markets and instruments, Financial, management, and tax accounting, Financial regulation and supervisions, Financial stability, Fintech and financial innovation, Green finance, Investment and portfolio management, Insurance, Market microstructure, Mergers and acquisitions, Microfinance, Monetary policy and central banking, Risk management, Sustainable finance and responsible investment</t>
+          <t>Micro &amp; macroeconomic analysis of commodity markets, portfolio allocation/optimization including commodities, pricing, hedging, and risk analysis of commodity derivatives and derivatives portfolios, financialization of commodity markets, the microstructure of commodity markets, corporate finance and risk management related to commodity markets, econometric/statistical analysis of commodity markets, decision models applied to the commodity sector, real option analysis investigating commodity project investment and production decisions, financial market analysis for commodity markets, managerial accounting &amp; economics for commodity related corporations, global and regional trade of commodities, the role of commodity production and consumption for developing countries.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sustainable Finance Research Forum Paris 2025</t>
+          <t>WFEClear, the WFE Clearing and Derivatives Conference 2026</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2026-04-21</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2026-04-23</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Paris, France</t>
+          <t>Toronto, Canada</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1872,34 +1872,34 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Impact banking and financial products, Impact finance, Corporate responsibility, Climate finance, Corporate governance, Greenwashing, Corporate culture and values, Ratings, Social matters and education in firms, Responsible investments, Green banking, Long term performance and risks, Green and Societal Bonds, Financial education and literacy</t>
+          <t>Innovations in collateral management, Innovations in options trading, Derivatives in emerging markets, Clearing structures and incentives, Market resilience, Vertical integration and market consolidation, Supervisory structures and data reporting standards, New clearing and risk models, Operational risk, Impact of new technologies, Liquidity risk transmission, The impacts and suitability of the clearing mandate, Barriers impeding cross-border activity, Climate-related issues</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025 Colorado Finance Summit</t>
+          <t>The CUHK-RAPS-RCFS Conference on Asset Pricing and Corporate Finance</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-07-01 for the regular session, 2025-10-15 for the job market session</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Vail, Colorado</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1909,182 +1909,182 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>All areas of finance, both theoretical and empirical contributions</t>
+          <t>Asset Pricing, Corporate Finance</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Univ of Texas at Dallas 2025 Annual Finance Conference</t>
+          <t>AlgoDefi25 Workshop</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>University of Texas at Dallas, Dallas, TX</t>
+          <t>Politecnico di Milano, Milano, Italy</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>$75 per paper</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>finance</t>
+          <t>Algo-trading &amp; DeFi Algorithmic Trading, Decentralized Finance and Artificial Intelligence in Capital Markets</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Startup Cities: Strategies, Stakeholders and Impact</t>
+          <t>5th Frontiers of Factor Investing Conference 2026</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2026-04-15</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Milan, Italy</t>
+          <t>Lancaster University, England</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>£30</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Micro-geography of entrepreneurship, Relationship between urban contexts and entrepreneurship, Entrepreneurial finance and local impacts, Social inequality and entrepreneurship, Local public policies and entrepreneurship, Sustainability of startup ecosystems</t>
+          <t>Asset Pricing, Financial Econometrics, Investments, High-Frequency Finance, Factor Allocation, Volatility Modelling, Risk Management, News Sentiment, Sustainable Investing, Machine Learning, Climate Finance, Alternative Data, Fintech, DeFi &amp; Crypto, Extreme Event Modelling</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025 FMA Conference on Derivatives &amp; Volatility</t>
+          <t>Bretton Woods Accounting and Finance Ski Conference</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025-11-15</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>Bretton Woods, New Hampshire</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>$50 USD for members, $60 USD for non-members</t>
+          <t>$79 per paper</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Derivatives, Volatility, Financial Management, Research Presentations, Product Innovations, Industry Trends</t>
+          <t>All areas of accounting and finance</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>China Accounting and Finance Review (CAFR) Special Issue Conference 2025</t>
+          <t>2026 Midwest Finance Association Annual Meeting</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-08-02</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Yunnan University of Finance and Economics, Kunming, China</t>
+          <t>Radisson Blu Aqua Hotel, Chicago, IL</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>No submission fee</t>
+          <t>$75</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Environmental, Social, and Governance (ESG) topics, Climate finance and biodiversity finance, Artificial Intelligence (AI) and Machine Learning (ML), Big and unstructured data (e.g., voice and facial recognition) in accounting and finance, FinTech (e.g., Blockchain and Bitcoin), Other contemporary accounting and finance issues.</t>
+          <t>Corporate finance, Financial institutions, Asset pricing, and Asset management</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>The 2025 Sydney Banking and Financial Stability Conference</t>
+          <t>2025 VINS Annual Conference</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-08-31</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>University of Sydney Business School</t>
+          <t>NYU Shanghai, Shanghai, China</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2094,34 +2094,34 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Banking, Financial system stability, Financial Intermediation, Financial Institutions and Markets, Fintech, Cryptocurrency and Central Bank Digital Currency, Corporate Finance, Asset Pricing, Investment and Funds Management, Macro Finance</t>
+          <t>Asset pricing, corporate finance, capital markets, market microstructure, behavioral finance, macro-financial linkages, and international finance. Papers that focus on the financial implications of geopolitical risks are particularly encouraged.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AI Empowering Business, Economics, Finance &amp; Healthcare 2024-2025 Academic Summit of the Digital Economy Open Research Platform</t>
+          <t>4th Bonn/Frankfurt/Mannheim Workshop on Digital Finance</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Shenzhen, China</t>
+          <t>Frankfurt am Main, Germany</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2131,34 +2131,34 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>AI applications in business, economics, finance and healthcare, including but not limited to: Ethics, governance, and regulation in AI applications,  AI applications in financial markets, AI applications in management decisions, AI and sustainability, AI, emerging technologies, and digital economy, AI and healthcare, Cyber security and operational risks as sources of systemic risk, Economic policies in AI era</t>
+          <t>AI, digital currencies, decentralized finance (DeFi), FinTech</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>The 2025 Massey Sustainable Finance Conference</t>
+          <t>IV CEMLA / Dallas Fed Financial Stability Workshop</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-24</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Nanjing, China</t>
+          <t>San Antonio, USA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2168,71 +2168,71 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Artificial intelligence and machine learning applications in Sustainable Finance, Alternative data on firms' digital transformation, Behavioral Finance/Economics and its implications to climate transition, Blue economy, Carbon market and carbon credit, Carbon price forecasting techniques, Circular economy, Corporate Social Responsibility, Climate Finance, Climate risks: assessment and management, Climate transition and portfolio management, Cryptocurrency and digital finance interactions with Sustainable Finance, Diversity, equity and inclusion in Finance, Digital finance, Fintech, and sustainability, Environmental, Social and Governance, Financial markets and climate transition, Green Finance, Green Finance and energy security, (Renewable) Energy Finance, Renewable Energy and Sustainability, Sustainable Finance and Accounting</t>
+          <t>Monetary policy and financial stability: Interactions and trade-offs, Global financial spillovers and the role of the US dollar, Macroprudential policy: Design, transmission, and applications to housing and beyond, Non-bank financial intermediation, market liquidity, and funding fragilities, Emerging macro-financial risks and the digital transformation of finance</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4th Contemporary Issues in Financial Markets and Banking Online Conference</t>
+          <t>14th LaBS International Banking Workshop</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>HSE University and online</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>USD 175</t>
+          <t>No conference fee.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Corporate finance, corporate governance, international financial management, investment, financial resilience, liquidity management, crisis investment and crisis portfolio management, banking and financial sector stability and regulation, financial (dis)integration and Brexit, green and sustainable finance, sustainable energy financing, alternative investments, financial inclusion, Islamic banking, crowdfunding, decentralised finance, disruptive financial technologies, metaverse and blockchain technologies in finance, artificial intelligence, machine and deep learning applications in finance, theoretical asset pricing, empirical asset pricing, risk management, behavioural finance, financial applications of game theory and decision theory, computational financial economics, experimental economics, market microstructure, household finance, real estate and property markets.</t>
+          <t>Theoretical and empirical research in all fields of Banking or Household finance; current issues concerning banking in emerging and developing markets.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MIT GCFP 12th Annual Conference</t>
+          <t>International Conference in Banking and Financial Studies (ICBFS 2025)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Cambridge, MA, US</t>
+          <t>Milan (Piacenza), Italy</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2242,51 +2242,51 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Government asset and liability measurement, financial economics, fiscal sustainability, evaluations of contingent financial, environmental and other liabilities, sovereign wealth funds, state-owned enterprises, public sector pension systems, mark-to-market and fair value accounting applications to government assets and liabilities, valuation and fiscal implications of opaque public assets, fiscal effects of monetary policy, government accounting and budgetary rule reform, the economics of privatization, international applications and comparisons.</t>
+          <t>Accounting, auditing, and taxation; Asset allocation and valuation; Banking regulation and financial services; Behavioral and experimental finance/economics; Big data in finance, artificial intelligence, and cybersecurity; Climate finance and sustainability; Corporate finance, IPOs, SEOs, M&amp;A, and crowdfunding; Corporate governance; Country funds, sovereign funds, and hedge funds; Debt issues; Digital finance, cryptocurrency finance, and blockchain; Emerging markets finance; Energy finance and environment Issues; Entrepreneurial finance, venture capital, and private equity; Ethical finance, green finance, ESG, and CSR; Financial accounting and regulation; Financial crises, contagion, integration, and global risks interconnection; Financial engineering and derivatives; Foreign currency issue; Global imbalances &amp; sustainability; Household finance, real estate finance, and microfinance; Market behavior efficiency; Multinational financial management; Portfolio management and optimization; Risk management and compliance; Small business finance.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025 UNSW Asset Pricing Workshop</t>
+          <t>2025 (5th) “Innovation, Sustainability and Regeneration” International Conference</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Coogee Beach (Sydney, Australia)</t>
+          <t>Universidade Católica Portuguesa, Porto campus, Porto, Portugal</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>No submission fee</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Asset Pricing, Finance, Both theoretical and empirical papers</t>
+          <t>Innovation and business transformation, circular economy, bioeconomy, leadership and governance for sustainability, sustainable business strategy, social entrepreneurship and responsible business, sustainability literacy and education, sustainable investment and financing, challenges due to the impact of climate change, climate risk management, laws and regulations related to sustainability, arts and sustainability, AI and analytics for sustainability.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SFS Cavalcade Asia-Pacific 2025</t>
+          <t>2nd Modern Finance Conference (MFC 2025)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2296,34 +2296,34 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Tsinghua PBC School of Finance, Beijing, China</t>
+          <t>University of Warsaw in Warsaw, Poland.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No submission fee is required.</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Asset pricing and valuation, Banking and financial services, Behavioral finance and decision making, Capital structure, Corporate finance, Corporate governance, Cryptocurrencies, Derivatives, Economic development, Exchange rates and currency markets, Finance and accounting standards, Financial econometrics and quantitative methods, Financial markets and instruments, Financial management and tax accounting, Financial regulation and supervisions, Financial stability, Fintech and financial innovation, Green finance, Investment and portfolio management, Insurance, Market microstructure, Mergers and acquisitions, Microfinance, Monetary policy and central banking, Risk management, Sustainable finance and responsible investment.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AI in Real Estate | Day 3 of the 2nd AI in Finance Conference</t>
+          <t>Sustainable Finance Research Forum Paris 2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2333,276 +2333,276 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Montréal, Canada</t>
+          <t>Paris, France</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CAD 400 (approximately EUR 270 / USD 300)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>AI-driven property valuation and appraisal models, Machine learning for real estate market forecasting and trend analysis, AI applications in real estate development and land use planning, AI in real estate investment and portfolio management, AI for sustainable real estate and climate risk assessment, Urban analytics and smart-city applications in real estate, Natural language processing and large language models for real estate market analysis, Computer vision and geospatial analysis for property and neighborhood insights, AI-driven demand for real estate: Data centers and infrastructure, Ethics, fairness, and regulatory challenges in AI-driven real estate</t>
+          <t>Impact banking and financial products, Impact finance, Corporate responsibility, Climate finance, Corporate governance, Greenwashing, Corporate culture and values, Ratings, Social matters and education in firms, Responsible investments, Green banking, Long term performance and risks, Green and Social Bonds, Financial education and literacy</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Univ of Texas at Dallas 2025 Annual Finance Conference</t>
+          <t>2025 Colorado Finance Summit</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-01 for regular session, 2025-10-15 for job market session</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>University of Texas at Dallas, Dallas, TX</t>
+          <t>Vail, Colorado</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>All areas of finance</t>
+          <t>All areas of finance, both theoretical and empirical contributions</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Fischer-Shain Research Conference 2025</t>
+          <t>Univ of Texas at Dallas 2025 Annual Finance Conference</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Fox School of Business, Temple University (1810 Liacouras Walk, Philadelphia, PA USA)</t>
+          <t>University of Texas at Dallas, Dallas, TX</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>$50</t>
+          <t>$75</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Financial intermediation, banking, and financial services</t>
+          <t>All areas of finance</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Startup Cities: Strategies, Stakeholders and Impact</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Santa Clara, CA, USA</t>
+          <t>Milan, Italy</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>$99.00</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Behavioral/Cognitive Finance &amp; Economics, Neuroscience/Neuromorphic Computing, Quantum Entanglement Political Economy, Biological Anthropology, Brain-Computer Interfaces; Quantum Entanglement, Development of new financial and economic models and theories for decision making and risk taking in the Age of Artificial Intelligence (AI), Decision making under conditions of risk and uncertainty, Venture startups and exits, Trust, financial and capital markets, social capital, financial management of companies, entrepreneurship, innovation, and economic development, Sustainable finance, Role of Behavioral Finance &amp; Economics in personal finance, teaching, learning, and training using AI or AGI, applications- behavioral finance in practice, empirical works, behavioral/cognitive value investing, other business, socio-economic, and legal endeavors involving decision making and risk taking.</t>
+          <t>Micro-geography of entrepreneurship, Relationship between urban contexts and entrepreneurship, Entrepreneurial finance and local impacts, Social inequality and entrepreneurship, Local public policies and entrepreneurship, Sustainability of startup ecosystems</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Inaugural RAPS/RCFS Europe Conference</t>
+          <t>2025 FMA Conference on Derivatives &amp; Volatility</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cambridge University, England</t>
+          <t>Chicago, IL</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$50 USD for members and $60 USD for non-members.</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Asset Pricing and Corporate Finance</t>
+          <t>Derivatives, Volatility, Financial Management, Research Presentations, Product Innovations, Industry Trends.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025 FMA Asia/Pacific Conference</t>
+          <t>China Accounting and Finance Review (CAFR) Special Issue Conference 2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Taipei, Taiwan</t>
+          <t>Yunnan University of Finance and Economics, Kunming, China</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>$50 (current FMA members); $60 (non-members)</t>
+          <t>There is no paper submission fee for the CAFR Special Issue Conference.</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>financial decision-making, financial management and related topics</t>
+          <t>Environmental, Social, and Governance (ESG) topics; Climate finance and biodiversity finance; Artificial Intelligence (AI) and Machine Learning (ML); Big and unstructured data (e.g., voice and facial recognition) in accounting and finance; FinTech (e.g., Blockchain and Bitcoin); Other contemporary accounting and finance issues.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025 Vietnam Symposium in Climate Transition (VSCT-2025)</t>
+          <t>The 2025 Sydney Banking and Financial Stability Conference</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>The University of Danang - University of Economics: 71 Ngu Hanh Son street, Ngu Hanh Son district, Danang, Vietnam</t>
+          <t>University of Sydney Business School</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>No fee required</t>
+          <t>There is NO fee for paper submission.</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Behavioral finance/economics and its implications to climate transition, Blue economy, Carbon market, Circular economy, Climate change: mitigation and adaptation, Climate change: policy and regulations, Climate finance, Climate risks: assessment and management, Climate transition and COVID-19 recovery, Climate transition and portfolio management, Corporate Social Responsibility (CSR), Energy and environmental issues, Energy markets and energy transition, Environmental, Social and Governance (ESG), Financial markets and climate transition, Geopolitical risk and climate change mitigation, Just climate transition, Low carbon technologies and innovation, Management of extractive industries, Responsible behaviors and sustainability in family business, Responsible business conduct and SDG goals, Role of management, business strategies, and SDG goals, Sustainable business model innovation, Sustainable entrepreneurship, Sustainable infrastructure investment, Sustainable production and consumption, Sustainable key performance indicators</t>
+          <t>Banking, Financial system stability, Financial Intermediation, Financial Institutions and Markets, Fintech, Cryptocurrency and Central Bank Digital Currency, Corporate Finance, Asset Pricing, Investment and Funds Management, Macro Finance.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025 FMA Annual Meeting - Innovation in Teaching Award</t>
+          <t>AI Empowering Business, Economics, Finance &amp; Healthcare 2024-2025 Academic Summit of the Digital Economy Open Research Platform</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Vancouver, BC, Canada</t>
+          <t>Shenzhen, China</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2612,34 +2612,34 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Recognizing inspiring educators, enhancing the quality and relevance of education in finance, disseminating successful innovative practices, elevating teaching as a craft</t>
+          <t>AI applications in business, economics, finance and healthcare, including but not limited to: Ethics, governance, and regulation in AI applications, AI applications in financial markets, AI applications in management decisions, AI and sustainability, AI, emerging technologies, and digital economy, AI and healthcare, Cyber security and operational risks as sources of systemic risk, Economic policies in AI era</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025 Inaugural China Future Scholars in Finance Forum</t>
+          <t>The 2025 Massey Sustainable Finance Conference</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Beijing, China</t>
+          <t>Nanjing, China</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2649,71 +2649,71 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>All areas of finance, research related to China</t>
+          <t>Artificial intelligence and machine learning applications in sustainable finance, alternative data on firms' digital transformation, behavioral finance/economics and its implications to climate transition, blue economy, carbon market and carbon credit, carbon price forecasting techniques, circular economy, corporate social responsibility, climate finance, climate risks: assessment and management, climate transition and portfolio management, cryptocurrency and digital finance interactions with sustainable finance, diversity, equity and inclusion in finance, digital finance, fintech, and sustainability, environmental, social and governance, financial markets and climate transition, green finance, green finance and energy security, renewable energy finance, renewable energy and sustainability, sustainable finance and accounting.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sustainability at Crossroads: The Edinburgh and International Review of Finance Conference</t>
+          <t>4th Contemporary Issues in Financial Markets and Banking Online Conference</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>University of Edinburgh, Edinburgh, Scotland, UK</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>USD 175</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>The evolving regulatory landscape of ESG, Climate risk assessment and measurement, ESG integration in investment decision-making, The role of technology and AI in ESG analysis, Greenwashing and transparency challenges, ESG and corporate financial performance, The impact of ESG on emerging markets, Sustainable finance innovations and best practices</t>
+          <t>Corporate finance, corporate governance, international financial management, and investment; Financial resilience; liquidity management; crisis investment and crisis portfolio management; banking and financial sector stability and regulation; financial (dis)integration and Brexit; Green and sustainable finance; sustainable energy financing, alternative investments; financial inclusion; Islamic banking; Crowdfunding; decentralised finance; disruptive financial technologies; metaverse and blockchain technologies in finance; artificial intelligence; machine and deep learning applications in finance; Theoretical asset pricing; empirical asset pricing; risk management; behavioural finance; financial applications of game theory and decision theory; computational financial economics (including multi-agent models and econophysics); experimental economics with implications for financial theory and practice; Market microstructure; household finance; real estate and property markets</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Private Equity Research Consortium (PERC) Symposium</t>
+          <t>MIT GCFP 12th Annual Conference</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Chapel Hill, North Carolina, USA - University of North Carolina at Chapel Hill</t>
+          <t>Cambridge, MA, US</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2723,34 +2723,34 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Private equity, including research on buyouts, distressed securities, mezzanine financing, special situations, private credit, venture capital, real estate, and real assets.</t>
+          <t>Evaluations of contingent financial, environmental and other liabilities; sovereign wealth funds; state-owned enterprises; public sector pension systems; mark-to-market and fair value accounting applications to government assets and liabilities; valuation and fiscal implications of opaque public assets (e.g., biodiversity and other environmental resources, research and other infrastructure); fiscal effects of monetary policy; government accounting and budgetary rule reform; the economics of privatization; international applications and comparisons.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IMRC 2025</t>
+          <t>2025 UNSW Asset Pricing Workshop</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Indian Institute of Management Ahmedabad</t>
+          <t>Coogee Beach (Sydney, Australia)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2760,51 +2760,51 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>The Gold and Precious Metals: Business and Economic Policies, Corporate Governance, Ethics and Firm Performance, The Finance, Accounting, and Economics, Theoretical and Empirical Asset Pricing, Quality of Financial Reporting and Adoption of IFRS, Market Microstructure and Algorithmic Trading, Insurance/Reinsurance/Pension Funds, Business Cycles, Corporate Finance, Capital Structure and Dividend Policy, Financial Policy Choice, Institutions and Regulation, Enhancing Liquidity in Commodity Derivatives Markets, Public Economics, Asset Allocation and Investment Management, Computational Finance and Financial Econometrics, FDI and Portfolio Capital Flows, Household Finance, International Trade and Exchange Rates, Financial Crises, Systemic Risk and Macro-Finance, Financial Risk Analytics and Management, Financial Analytics, Monetary Policy and Banking, Global Value Chains and Firm Performance</t>
+          <t>All areas of Finance with a special focus on Asset Pricing, Theoretical and empirical papers</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2nd AI in Finance Conference | FRL Special Issue Workshop on “AI in Corporate Finance”</t>
+          <t>SFS Cavalcade Asia-Pacific 2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Montréal, Canada</t>
+          <t>Tsinghua PBC School of Finance, Beijing, China</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>CAD 750 (approximately EUR 475 / USD 540) for the Main Academic Conference, 50% discount for PhD students and online presenters</t>
+          <t>Not mentioned in the provided text</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>AI and machine learning in corporate finance, AI and machine learning in entrepreneurial innovation, AI and machine learning in entrepreneurial fundraising, AI and sustainability, AI applications in financial markets, AI, emerging technologies, and digital finance, Natural language processing, robo-advisory, fraud detection, Ethics, governance, and regulation in AI applications</t>
+          <t>Not mentioned in the provided text</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PhD and Postdoc Workshop on Empirical AI in Finance at the 2nd AI in Finance Conference</t>
+          <t>2nd AI in Finance Conference</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2814,12 +2814,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2829,261 +2829,261 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>CAD 400 (approximately EUR 270 / USD 300)</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Empirical finance, machine learning, data-driven research, programming in Matlab, WRDS Data, SQL, Matlab, AI &amp; machine learning essentials, Stock return forecasting, Economic relevance evaluation beyond traditional regression models, Empirical Asset Pricing</t>
+          <t>AI-driven property valuation and appraisal models, Machine learning for real estate market forecasting and trend analysis, AI applications in real estate development and land use planning, AI in real estate investment and portfolio management, AI for sustainable real estate and climate risk assessment, Urban analytics and smart-city applications in real estate, Natural language processing and large language models for real estate market analysis, Computer vision and geospatial analysis for property and neighborhood insights, AI-driven demand for real estate: Data centers and infrastructure, Ethics, fairness, and regulatory challenges in AI-driven real estate.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025 Wharton Conference on Liquidity and Financial Fragility</t>
+          <t>Univ of Texas at Dallas 2025 Annual Finance Conference</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Philadelphia, PA</t>
+          <t>University of Texas at Dallas, Dallas, TX</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$75</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Coordination failures, self-fulfilling beliefs, and runs; Fragility in banks and non-bank institutions; Liquidity and frictions in financial markets and macroeconomy; Systemic risk and financial regulation; Monetary policy and financial stability; Dysfunctions, frictions, and fragility in U.S. Treasury markets; Currency dominance, sovereign debt crises, and their link to the financial sector; Geopolitical tensions, trade conflicts, and financial fragility; Inflation, interest rate risks, and implications on financial fragility; The real impact of crises and fragility on firms' financing and investment policies; FinTech, artificial intelligence (AI), and their implications for financial stability; New payment technologies, digital currencies, and their implications for the monetary system</t>
+          <t>All areas of finance</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>The 2nd Global Conference on Sustainability in Economics, Business and Law</t>
+          <t>Fischer-Shain Research Conference 2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ho Chi Minh City, Vietnam</t>
+          <t>Fox School of Business, Temple University, Philadelphia, PA, USA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$50</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Intersection of green transition towards environmental sustainability and digital transformation, economic models, business strategies, and legal frameworks, contemporary issues in the theory and practice of the twin transition.</t>
+          <t>Financial intermediation, banking, financial services, early-stage papers that would benefit from feedback and discussion.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Warwick Business School Gillmore Centre Conference on DeFi &amp; Digital Currencies 2025</t>
+          <t>Behavioral/Cognitive Finance, Decision/Risk Sciences in the Age of Artificial Intelligence; Entrepreneurship &amp; Economics-2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Warwick Business School, The Shard, London, UK</t>
+          <t>Santa Clara, CA, USA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>£45</t>
+          <t>$99.00 USD</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Optimal design, governance and market efficiency of DeFi Protocols (exchanges, lending protocols, NFTs), Economics of the blockchain (mechanism design, security, and welfare), Financial stability, macroeconomic, and political economy implications of stable coin and CBDC designs.</t>
+          <t>Behavioral/Cognitive Finance &amp; Economics, Neuroscience/Neuromorphic Computing, Quantum Entanglement Political Economy, Biological Anthropology, Brain-Computer Interfaces; Quantum Entanglement, Financial &amp; Economic Models, Decision Making and Risk Taking in the Age of Artificial Intelligence, Venture Startups and Exits, Trust, Financial and Capital Markets, Social Capital, Moral Sentiments and Working of the Markets Economy, Capitalism, Investment in and Working of Financial Markets, Financial Management of Companies, Entrepreneurship, Innovation, and Economic Development, Sustainable Finance, Efficient Financial Markets, Role of Behavioral Finance &amp; Economics in Personal Finance, Retirement Saving &amp; Planning, Teaching, Learning, and Training, etc.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Developments in Sustainable Finance: A New Era of Financial Innovation</t>
+          <t>Inaugural RAPS/RCFS Europe Conference</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-11-02</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>American University of Sharjah, Sharjah, United Arab Emirates</t>
+          <t>Cambridge University, England</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Early bird registration fee( by Tuesday 30 September 2025) - £300, Standard registration fee - £400. For PhD students, Early bird registration fee - £100, Standard registration fee - £200.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Sustainable finance, environmental, social, and governance (ESG) criteria, green and sustainability-linked bonds, ESG-focused investment portfolios, regulatory frameworks and policy initiatives like European Union's Sustainable Finance Disclosure Regulation, Impact of geopolitical tensions on progress of sustainable finance, role of artificial intelligence (AI) in climate change mitigation, sustainable infrastructure, climate risk assessments.</t>
+          <t>Asset Pricing and Corporate Finance</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>24th International Conference C.r.e.d.i.t. 2025 - Emerging Global Financial Systems</t>
+          <t>2025 FMA Asia/Pacific Conference</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Venice, Italy</t>
+          <t>Taipei, Taiwan</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$50 for current FMA members; $60 for non-members.</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Macroeconomic Polarization and Financial Fragmentation, Geopolitical Risks and Global Financial Stability, Technological Innovation in Finance and Insurance, Risk Management and Resilience especially with respect to climate change and socioeconomic disparities, Innovating Governance for Future Risks</t>
+          <t>Financial decision-making, current issues in financial management and related topics</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025 FMA Annual Meeting</t>
+          <t>2025 Vietnam Symposium in Climate Transition (VSCT-2025)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Vancouver, BC, Canada</t>
+          <t>The University of Danang - University of Economics: 71 Ngu Hanh Son street, Ngu Hanh Son district, Danang, Vietnam</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No submission fee is required.</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Doctoral Student Consortium, Emerging Scholars Initiative, Innovation in Teaching Award</t>
+          <t>Behavioral finance/economics and its implications to climate transition, Blue economy, Carbon market, Circular economy, Climate change: mitigation and adaptation, Climate change: policy and regulations, Climate finance, Climate risks: assessment and management, Climate transition and COVID-19 recovery, Climate transition and portfolio management, Corporate Social Responsibility (CSR), Energy and environmental issues, Energy markets and energy transition, Environmental, Social and Governance (ESG), Financial markets and climate transition, Geopolitical risk and climate change mitigation, Just climate transition, Low carbon technologies and innovation, Management of extractive industries, Responsible behaviors and sustainability in family business, Responsible business conduct and SDG goals, Role of management, business strategies, and SDG goals, Sustainable business model innovation, Sustainable entrepreneurship, Sustainable infrastructure investment, Sustainable production and consumption, Sustainable key performance indicators</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025 Global AI Finance Research Conference</t>
+          <t>2025 FMA Annual Meeting - Innovation in Teaching Award</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2025-08-31</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Vancouver, BC, Canada</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3093,71 +3093,71 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI), Big data and Machine Learning, Blockchain and Cryptocurrencies, Initial Coin Offerings (ICOs) and Security Token Offerings (STOs), Decentralized Finance (DeFi), Peer-to-peer lending, FinTech regulation, High-frequency trading and market liquidity, Green FinTech</t>
+          <t>Financial Management, Financial Education, and Innovative Teaching Practices in Finance</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Finance Research Letters Paper Development Workshop “Artificial Intelligence in Corporate Finance” and PhD / Postdoc Workshop</t>
+          <t>China Future Scholars in Finance Forum</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Dresden, Germany</t>
+          <t>Beijing, China</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Early-bird registration fee until August 5, 2025: EUR 290 + VAT. For registrations between August 6, 2025, and September 25, 2025: EUR 340 + VAT.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>AI and machine learning in firm valuation, AI and machine learning in mergers and acquisitions (M&amp;A), AI and machine learning in capital structure, AI and dividend policy, AI and agency theory, AI and ESG, AI and corporate governance and risk management, AI fraud detection, Natural language processing and corporate finance, AI applications and regulation</t>
+          <t>Academic papers across all areas of finance, with a preference for research related to China.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Federal Reserve Day-Ahead Conference on Financial Markets and Institutions</t>
+          <t>Sustainability at Crossroads: The Edinburgh and International Review of Finance Conference</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Federal Reserve Bank of Philadelphia, Philadelphia, PA 10 N Independence Mall W, Philadelphia, PA 19106</t>
+          <t>University of Edinburgh, Edinburgh, Scotland, UK</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3167,71 +3167,71 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Monetary policy implementation, money markets and central bank balance sheets, Financial stability and the conduct of monetary policy, Maturity transformation, liquidity risk, runs on financial institutions, Nonbank financial intermediation, Financial markets and the macroeconomy, Real estate and mortgage markets, Household finance and the transmission of monetary policy, Financial innovation and artificial intelligence, Effects of inflation on financial markets and institutions, Interconnectedness of global financial markets, Cryptocurrencies and stablecoins, Emerging risks to financial stability.</t>
+          <t>The evolving regulatory landscape of ESG, Climate risk assessment and measurement, ESG integration in investment decision-making, The role of technology and AI in ESG analysis, Greenwashing and transparency challenges, ESG and corporate financial performance, The impact of ESG on emerging markets, Sustainable finance innovations and best practices</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>First Annual Corporate Governance Academic Forum</t>
+          <t>Private Equity Research Consortium (PERC) Symposium</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Toronto, Ontario. Canada</t>
+          <t>Chapel Hill, NC - University of North Carolina at Chapel Hill</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>CAN$100</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Corporate governance including topics such as Boards of directors, executive compensation and incentives, mergers, ownership structure, shareholder activism, ESG and sustainability governance, governance of new technologies, political influences on governance</t>
+          <t>Theoretical and empirical papers in the broad field of private equity, including, but not limited to research on buyouts, distressed securities, mezzanine financing, special situations, private credit, venture capital, real estate, and real assets.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025 Derivative Markets Conference</t>
+          <t>IMRC 2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Queenstown, New Zealand</t>
+          <t>Indian Institute of Management Ahmedabad</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3241,108 +3241,108 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Derivative markets and products</t>
+          <t>The Future of the Economy: People, Organizations, and Policy, Gold and Precious Metals: Business and Economic Policies, Corporate Governance, Ethics and Firm Performance, Finance, Accounting, and Economics, Financial Risk &amp; Analytics.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025 New Zealand Finance Meeting</t>
+          <t>2nd AI in Finance Conference | FRL Special Issue Workshop on “AI in Corporate Finance”</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Queenstown, New Zealand</t>
+          <t>Montréal, Canada</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>CAD 750 (approximately EUR 475 / USD 540) — includes meals, social program, gala dinner, and conference materials.</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>All topics related to the field of finance.</t>
+          <t>AI and machine learning in corporate finance, AI and machine learning in entrepreneurial innovation, AI and machine learning in entrepreneurial fundraising, AI and sustainability, AI applications in financial markets, AI, emerging technologies, and digital finance, Natural language processing, robo-advisory, fraud detection, Ethics, governance, and regulation in AI applications.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CEPR European Conference on Household Finance 2025</t>
+          <t>PhD and Postdoc Workshop on Empirical AI in Finance at the 2nd AI in Finance Conference</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Stockholm, Sweden</t>
+          <t>Montréal, Canada</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>50 Euro</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Asset allocation and debt behaviour over the life cycle, Financing retirement and the demographic transition, Consumer indebtedness, financial distress, and default decisions, Behavioural approaches to household finance, Financial literacy and financial education programs, Trust, subjective expectations, pessimism, and financial decisions, International comparisons of household finances using micro-data, Financial advice and legal protection of investors and borrowers, Financial innovation and household finances, Households liquidity and risk management, Climate change, sustainability, and household finances</t>
+          <t>Empirical finance, machine learning, data-driven research, programming in Matlab, WRDS data, replicating top-tier finance papers, AI &amp; Machine Learning in finance, Paper replication in empirical asset pricing.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>12th Annual Conference on Financial Market Regulation (CFMR 2025)</t>
+          <t>2025 Wharton Conference on Liquidity and Financial Fragility</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SEC Headquarters, Washington, DC</t>
+          <t>Philadelphia, PA</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3352,34 +3352,34 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Financial Market Regulation</t>
+          <t>Coordination failures, self-fulfilling beliefs, and runs, Fragility in banks and non-bank institutions, Liquidity and frictions in financial markets and macroeconomy, Systemic risk and financial regulation, Monetary policy and financial stability, Dysfunctions, frictions, and fragility in U.S. Treasury markets, Currency dominance, sovereign debt crises, and their link to the financial sector, Geopolitical tensions, trade conflicts, and financial fragility, Inflation, interest rate risks, and implications on financial fragility, The real impact of crises and fragility on firms’ financing and investment policies, FinTech, artificial intelligence (AI), and their implications for financial stability, New payment technologies, digital currencies, and their implications for the monetary system</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Haskell &amp; White Corporate Reporting and Governance Conference</t>
+          <t>The 2nd Global Conference on Sustainability in Economics, Business and Law</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Fullerton, CA</t>
+          <t>Ho Chi Minh City, Vietnam</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3389,182 +3389,182 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Accounting, Finance, Machine Learning, Artificial Intelligence, Big Data</t>
+          <t>Environmental sustainability, digital transformation, economic models, business strategies, legal frameworks, contemporary issues in the theory and practice of the twin transition</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Federal Reserve Stress Testing Research Conference</t>
+          <t>Warwick Business School Gillmore Centre Conference on DeFi &amp; Digital Currencies 2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Boston, Massachusetts</t>
+          <t>Warwick Business School, The Shard, London, UK</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>£45</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>The economic and macroprudential effects of stress tests and bank regulation, balancing the costs and benefits of bank regulation, the roles and risks of nonbank financial intermediaries and their interplay with the banking system, financial instruments for risk transfer and their implications, modeling bank revenues, credit, and counterparty risks, interest-rate, liquidity, and inflation risk in the banking system, design of macroeconomic and financial market scenarios, regulatory and supervisory approaches to non-financial risks, such as cybersecurity and operational risk, and emerging technologies, such as AI.</t>
+          <t>Optimal design, governance and market efficiency of DeFi Protocols (exchanges, lending protocols, NFTs), Economics of the blockchain (mechanism design, security, and welfare), Financial stability, macroeconomic, and political economy implications of stable coin and CBDC designs.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Finance and Real Estate Conference 2025</t>
+          <t>Developments in Sustainable Finance: A New Era of Financial Innovation</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-11-02</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Oxford, Oh</t>
+          <t>American University of Sharjah, Sharjah, United Arab Emirates</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Early bird registration by 2025-09-30: £300 (standard); £100 (PhD students). Standard registration fee: £400 (standard); £200 (PhD students).</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Asset pricing and valuation, Corporate finance, Real estate markets and investment, Risk management and financial regulation, Urban economics and housing policy, Sustainable and green finance, Behavioral finance in real estate</t>
+          <t>Sustainable finance, environmental, social, and governance (ESG) criteria, green and sustainability-linked bonds, ESG-focused investment portfolios, European Union's Sustainable Finance Disclosure Regulation (SFDR), climate risk assessments, optimizing energy consumption, developing sustainable infrastructure, artificial intelligence (AI) and sustainability.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Melbourne Asset Pricing Meeting</t>
+          <t>24th INTERNATIONAL CONFERENCE C.r.e.d.i.t. 2025 Emerging Global Financial Systems</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Melbourne, Australia</t>
+          <t>Venice, Italy</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>There is no submission fee.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Theoretical and empirical models of asset prices and returns, return predictability, empirical methodology, macro-finance, the study of financial institutions as related to asset prices, information and liquidity in asset markets, behavioural investment studies, asset market structure and microstructure, risk analysis, hedge funds, mutual funds, pension funds, ESG, the impact of COVID19, and alternative investments.</t>
+          <t>Macroeconomic Polarization and Financial Fragmentation, Geopolitical Risks and Global Financial Stability, Technological Innovation in Finance and Insurance, Risk Management and Resilience, Climate Change as a Systemic Risk, Addressing Socioeconomic Disparities, Innovating Governance for Future Risks.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>EUROFIDAI-ESSEC Paris December Finance Meeting</t>
+          <t>2025 FMA Annual Meeting - Doctoral Student Consortium, Emerging Scholars Initiative and Innovation in Teaching Award</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Pullman Paris Montparnasse Hotel, France</t>
+          <t>Vancouver, BC, Canada</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>€50</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>All areas of finance. Job market papers</t>
+          <t>Advances in research, career advice, job market papers or dissertation proposals, research ideas, education in finance</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2nd Knut Wicksell Conference on Crypto and Fintech</t>
+          <t>2025 Global AI Finance Research Conference</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Lund, Sweden</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3574,51 +3574,51 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Crypto and blockchain technology (asset pricing, systemic risk, market microstructure), Crypto markets, households, and the real economy, Environmental and social impact of crypto markets, Central Bank Digital Currencies (CBDCs), Financial technology (Fintech), Payment systems (payment firms, consumer experiences, bank competition), Interaction between traditional finance and decentralized finance</t>
+          <t>Artificial Intelligence (AI), Big data and Machine Learning, Blockchain and Cryptocurrencies, Initial Coin Offerings (ICOs) and Security Token Offerings (STOs), Decentralized Finance (DeFi), Peer-to-peer lending, FinTech regulation, High-frequency trading and market liquidity, Green FinTech</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025 Vietnam Symposium in Banking and Finance (VSBF-2025)</t>
+          <t>Finance Research Letters Paper Development Workshop “Artificial Intelligence in Corporate Finance” and PhD / Postdoc Workshop</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Banking Academy : 12 Chua Boc Street, Dong Da District, Hanoi, Vietnam</t>
+          <t>Dresden, Germany</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Early-bird registration fee until August 5, 2025: EUR 290 + VAT. For registrations between August 6, 2025, and September 25, 2025: EUR 340 + VAT.</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Asset pricing and allocation, Banking regulation and financial services, Behavioral finance, Capital market integration, Corporate finance, IPOs, SEOs, M&amp;A, Corporate governance, Digital finance, Dynamics of international capital markets, Emerging markets finance, Entrepreneurial finance, Finance and sustainability, Financial crises and contagion, Financial econometrics, Financial engineering and derivatives, Financial markets, institutions, and money, Financial modeling, Financial policy and regulation, Investment funds, Macro-financial linkages, Market behavior and efficiency, Market linkages, financial crises, and contagion, Market microstructure, Monetary and financial macroeconomics, Portfolio management and optimization, Risk management, AI in banking and finance, Professional Report</t>
+          <t>AI and machine learning in firm valuation, AI and machine learning in mergers and acquisitions (M&amp;A), AI and machine learning in capital structure, AI and dividend policy, AI and agency theory, AI and ESG, AI and corporate governance and risk management, AI fraud detection, Natural language processing and corporate finance, AI applications and regulation.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>The Second PHBS-IER Conference on "Demographic Change and Migration: Facts, Models and Policy Implications"</t>
+          <t>Federal Reserve Day-Ahead Conference on Financial Markets and Institutions</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3628,17 +3628,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Peking University HSBC Business School, Shenzhen, China</t>
+          <t>Federal Reserve Bank of Philadelphia, Philadelphia, PA 10 N Independence Mall W, Philadelphia, PA 19106</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3648,71 +3648,71 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Driving factors of demographic change: empirics and modeling of fertility and mortality. Internal and international migration flows induced by demographic change. The impact of population aging on public finances and the future of social insurance systems (social security, health care, long-term care etc.). Demographic change, migration flows and national and local labor markets. Migration and the spatial distribution of economic activity. The interaction between demographic change, technological progress, and economic growth. The impact of demographic change on housing and financial asset prices and returns.</t>
+          <t>Monetary policy implementation, money markets and central bank balance sheets, Financial stability and the conduct of monetary policy, Maturity transformation, liquidity risk, and runs on financial institutions, Nonbank financial intermediation, Financial markets and the macroeconomy, Real estate and mortgage markets, Household finance and the transmission of monetary policy, Financial innovation and artificial intelligence, Effects of inflation on financial markets and institutions, Interconnectedness of global financial markets, Cryptocurrencies and stablecoins, Emerging risks to financial stability</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025 Frontiers in Quantitative Finance</t>
+          <t>First Annual Corporate Governance Academic Forum</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>New York Marriott Marquis</t>
+          <t>Toronto, Ontario, Canada</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>CAN$100</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Quantitative methods, asset pricing, market efficiency, information asymmetry, limits to arbitrage, active management, impact of trading and liquidity on price formation</t>
+          <t>Corporate governance, Boards of directors, Executive compensation and incentives, Mergers, Ownership structure, Shareholder activism, ESG and sustainability governance, Governance of new technologies, Political influences on governance.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NTU AI &amp; Business Forum: NTU Summer School &amp; Conference on AI for Finance</t>
+          <t>2025 Derivative Markets Conference</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Nanyang Business School, Nanyang Technological University, Singapore</t>
+          <t>Queenstown, New Zealand</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3722,182 +3722,182 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>AI in finance, asset pricing, portfolio management, corporate finance, financial accounting, algorithmic and high-frequency trading strategies, AI in risk management and credit scoring, AI-based portfolio optimization, natural language processing in financial applications, robo-advisory services and fraud detection, financial forecasting and market sentiment analysis using AI/ML, reinforcement learning for dynamic trading, AI regulations and ethical decision-making in financial AI.</t>
+          <t>Derivative markets and products</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>International Society for the Advancement of Financial Economics 2025 Conference (ISAFE – China)</t>
+          <t>2025 New Zealand Finance Meeting</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Beijing, China</t>
+          <t>Queenstown, New Zealand</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>No submission fee is required.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>AI and finance, Asset allocation and valuation, Central banking and monetary policy, Corporate finance and governance, Country funds and hedge funds, Emerging markets finance, Empirical assets pricing, Financial accounting, law, and regulation, Financial crises and contagion, Financial econometrics, Financial engineering and derivatives, Financial intermediation, institutions &amp; services, Financial markets and market microstructure, FinTech: Revealing Potential and Challenges, Foreign currency issues, International finance and capital markets, IPOs, SEOs, M&amp;As &amp; Divestitures, Market behavior efficiency, Multinational financial management, Personal finance and household finance, Portfolio management and optimization, Quantitative finance and financial econometrics, Real estate finance, Risk management, Small business and entrepreneurial finance, Sustainable finance, ethics, and CSR.</t>
+          <t>All topics related to the field of finance</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>8th Dauphine Finance PhD Workshop</t>
+          <t>CEPR European Conference on Household Finance 2025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Stockholm, Sweden</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>50 Euro</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Papers in all areas of Finance and Financial Economics</t>
+          <t>Asset allocation and debt behaviour over the life cycle, Financing retirement and the demographic transition, Consumer indebtedness, financial distress, and default decisions, Behavioural approaches to household finance, Financial literacy and financial education programs, Trust, subjective expectations, pessimism, and financial decisions, International comparisons of household finances using micro-data, Financial advice and legal protection of investors and borrowers, Financial innovation and household finances, Households liquidity and risk management, Climate change, sustainability, and household finances.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>The 19th NYCU International Finance Conference</t>
+          <t>12th Annual Conference on Financial Market Regulation (CFMR 2025)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>National Yang Ming Chiao Tung University, Hsinchu, Taiwan</t>
+          <t>SEC Headquarters, Washington, DC</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>US$250</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Financial Market Regulation</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Symposium on Financial Markets in the Era of Climate Change</t>
+          <t>Haskell &amp; White Corporate Reporting and Governance Conference</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Madrid, Spain</t>
+          <t>Fullerton, CA</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No registration fee</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Climate risks, Green financial products, Sustainable investing, Corporate green strategy, Environmental externalities, Climate-related regulation</t>
+          <t>All areas of accounting and finance, including research that overlaps these disciplines, research exploring the applications of machine learning, artificial intelligence, and big data in financial and accounting contexts.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>The 38th Australasian Finance and Banking Conference</t>
+          <t>2025 Federal Reserve Stress Testing Research Conference</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025-12-13</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sydney, Australia</t>
+          <t>Boston, Massachusetts</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3907,145 +3907,145 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Opportunities and Risks of AI Technology in Finance, CBDCs, Fintech, and Digital Finance, Sustainable Investment</t>
+          <t>The economic and macroprudential effects of stress tests and bank regulation, Balancing the costs and benefits of bank regulation, The roles and risks of nonbank financial intermediaries and their interplay with the banking system, Financial instruments for risk transfer and their implications, Modeling bank revenues, credit, and counterparty risks, Interest-rate, liquidity, and inflation risk in the banking system, Design of macroeconomic and financial market scenarios, Regulatory and supervisory approaches to non-financial risks, such as cybersecurity and operational risk, and emerging technologies, such as AI</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>The 2025 GSU-MS AI and FinTech Conference</t>
+          <t>Finance and Real Estate Conference 2025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Buckhead Center of Georgia State University, Atlanta, GA</t>
+          <t>Oxford, Oh</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>$100</t>
+          <t>No submission fee</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>AI Methods and Applications in Finance and Economics, Impact of AI and New Technologies on various financial sectors, Risk and Regulation of AI and FinTech, Other AI and FinTech topics such as Big Data, Digital Economy, DeFi, Cryptoeconomics</t>
+          <t>Asset pricing and valuation, Corporate finance, Real estate markets and investment, Risk management and financial regulation, Urban economics and housing policy, Sustainable and green finance, Behavioral finance in real estate</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2nd Financial Fraud, Misconduct and Market Manipulation Conference</t>
+          <t>Melbourne Asset Pricing Meeting</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Lancaster University, England</t>
+          <t>Melbourne, Australia</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No submission fee.</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Theoretical and empirical analysis of financial fraud, Case studies of recent instances of market misconduct, Insider trading, Implication of financial fraud/market manipulation for market efficiency, stability, and asset pricing, Market manipulation at a high-frequency (intraday) level, Fraudulent activities and crypto currency markets, Social networks, fake news, and their effect on financial markets, Money laundering and banking, Conflicts of interests and their implications for various stake holders and financial markets, Hedge funds/Mutual funds and their involvement in market misconduct, Statistical/ Machine Learning methods for fraud detection, Cyber security and cyber risk management, Regulatory response to financial misconduct, Unintended consequences of politics and regulations.</t>
+          <t>Theoretical and empirical models of asset prices and returns, return predictability, empirical methodology, macro-finance, the study of financial institutions as related to asset prices, information and liquidity in asset markets, behavioural investment studies, asset market structure and microstructure, risk analysis, hedge funds, mutual funds, pension funds, ESG, the impact of COVID19, and alternative investments.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Future Finance Fest (3f)</t>
+          <t>EUROFIDAI-ESSEC Paris December Finance Meeting</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Vilnius, Lithuania</t>
+          <t>Pullman Paris Montparnasse Hotel, Paris, France</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>No submission fee</t>
+          <t>50€</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Finance academics and fintechs, future of finance, academic and fintech/practitioner tracks, presentations, keynotes and panel discussions. There are opportunities for early-stage work, case studies, slide decks and proposals for panel discussions.</t>
+          <t>All areas of finance</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Johns Hopkins Carey Finance Conference</t>
+          <t>2nd Knut Wicksell Conference on Crypto and Fintech</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Johns Hopkins Carey Campus, 100 International Drive, Baltimore, MD</t>
+          <t>Lund, Sweden</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4055,34 +4055,34 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>All areas of finance, particularly early-stage papers that would benefit from feedback and discussion</t>
+          <t>Crypto and blockchain technology (asset pricing, systemic risk, market microstructure), Crypto markets, households, and the real economy, Environmental and social impact of crypto markets, Central Bank Digital Currencies (CBDCs), Financial technology (Fintech), Payment systems (payment firms, consumer experiences, bank competition), Interaction between traditional finance and decentralized finance</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TSE Industrial Organisation &amp; Finance Conference</t>
+          <t>2025 Vietnam Symposium in Banking and Finance (VSBF-2025)</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Toulouse School of Economics</t>
+          <t>Banking Academy : 12 Chua Boc Street, Dong Da District, Hanoi, Vietnam</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4092,71 +4092,71 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Competition between financial service providers, Entry of new players in the financial intermediation chain (Fintechs, NBFIs), Integration between different financial services (e.g., payment and credit) or between financial services and other activities (e.g., social networks and payment), The role of data in the provision of financial services, Open Banking, The use of structural estimation techniques to analyze the demand for financial products and/or strategic interactions between financial firms, The impact of the organization of financial firms for product market competition</t>
+          <t>Asset pricing and allocation, Banking regulation and financial services, Behavioral finance, Capital market integration, Corporate finance, IPOs, SEOs, M&amp;A Corporate governance, Digital finance, Dynamics of international capital markets, Emerging markets finance, Entrepreneurial finance, Finance and sustainability, Financial crises and contagion, Financial econometrics, Financial engineering and derivatives, Financial markets, institutions, and money, Financial modeling, Financial policy and regulation, Investment funds, Macro-financial linkages, Market behavior and efficiency, Market linkages, financial crises, and contagion, Market microstructure, Monetary and financial macroeconomics, Portfolio management and optimization, Risk management, AI in banking and finance.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2nd Exeter Sustainable Finance Conference</t>
+          <t>The Second PHBS-IER Conference on "Demographic Change and Migration: Facts, Models and Policy Implications"</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Exeter, UK</t>
+          <t>Peking University HSBC Business School, Shenzhen, China</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>No submission fee</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Sustainable and responsible finance, Interdisciplinary research</t>
+          <t>Driving factors of demographic change: empirics and modeling of fertility and mortality, Internal and international migration flows induced by demographic change, The impact of population aging on public finances and the future of social insurance systems (social security, health care, long-term care etc.), Demographic change, migration flows and national and local labor markets, Migration and the spatial distribution of economic activity, The interaction between demographic change, technological progress, and economic growth, The impact of demographic change on housing and financial asset prices and returns.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Hybrid Conference on Islamic Law and Finance</t>
+          <t>Frontiers in Quantitative Finance Conference</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Durham University Business School (Waterside Building Campus), UK</t>
+          <t>New York Marriott Marquis</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4166,71 +4166,71 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Financial Innovation (including FinTech); Shaping Monetary Policy from a Maqasid perspective; Designing Fiscal Policy from a Maqasid perspective; Artificial Intelligence (AI) in Islamic Finance; Legal and Regulatory Frameworks; Access to Finance and Social Welfare; Corporate Governance and Shari’ah Compliance; Purpose-Based vs. Problem-Based Approaches; Cultural Dimensions in Islamic Finance; Islamic Finance for Global Challenges; Governance Mechanisms and Stakeholder Accountability.</t>
+          <t>Quantitative methods and asset pricing, work related to the research of Professor Sanford “Sandy” J. Grossman</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>21st Annual Conference of the Asia-Pacific Association of Derivatives (APAD)</t>
+          <t>NTU AI &amp; Business Forum: NTU Summer School &amp; Conference on AI for Finance</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Busan, Korea</t>
+          <t>Nanyang Business School, Nanyang Technological University (Singapore)</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>US$ 200 (waived for presenters of accepted papers)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Derivatives; Volatility; Risk Management; Asset Pricing; Investments; Corporate Finance; Corporate Governance; Market Microstructure; Banking; Personal and Household Finance; ESG and Climate Finance; AI and Big Data; Blockchain and Crypto Assets; Fintech; Regulation; Behavioral Finance</t>
+          <t>Financial implications and applications of artificial intelligence, adoption of AI in finance, asset pricing, portfolio management, corporate finance, financial accounting, machine learning, financial forecasting, deep learning for asset pricing, reinforcement learning for trading and portfolio management, computational linguistics and natural language processing (NLP) in finance, algorithmic and high-frequency trading strategies, AI in Risk management and credit scoring, AI-based Portfolio optimization, Robo-advisory services and fraud detection, financial forecasting and market sentiment analysis using AI/ML, reinforcement learning for dynamic trading, AI regulations and ethical decision-making in Financial AI.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>EBA's 14th Policy Research Workshop: Bridging capital and growth - the role of financial structures and intermediaries</t>
+          <t>International Society for the Advancement of Financial Economics 2025 Conference (ISAFE – China)</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>EBA premises (Paris, France) and remotely</t>
+          <t>Beijing - China</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4240,108 +4240,108 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Impact of global capital flows on market efficiency and the role of financial intermediation, access to finance by entrepreneurs ensuring that capital is used in the most productive ways, provision of mechanisms for managing risk and contribution from regulatory frameworks on the functioning and stability of financial intermediaries, incorporation of environmental, social, and governance (ESG) supporting sustainable development and growth, advances in digital finance initiatives and better alignment with regulation and policies</t>
+          <t>AI and finance, Asset allocation and valuation, Central banking and monetary policy, Corporate finance and governance, Country funds and hedge funds, Emerging markets finance, Empirical assets pricing, Financial accounting, law, and regulation, Financial crises and contagion, Financial econometrics, Financial engineering and derivatives, Financial intermediation, institutions &amp; services, Financial markets and market microstructure, FinTech: Revealing Potential and Challenges, Foreign currency issues, International finance and capital markets, IPOs, SEOs, M&amp;As &amp; Divestitures, Market behavior efficiency, Multinational financial management, Personal finance and household finance, Portfolio management and optimization, Quantitative finance and financial econometrics, Real estate finance, Risk management, Small business and entrepreneurial finance, Sustainable finance, ethics, and CSR.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>5th CEPR-Stigler Center Conference on Political Economy of Finance: Governance in a Polarized World</t>
+          <t>Dauphine Finance PhD Workshop</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Imperial College London, London</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>No submission fee.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Polarization and its impact on private and public governance; how corporate governance adjusts; responses to societal challenges such as climate change or economic decline; effect of inequality and politicization on governance choices; fostering trust and cohesion.</t>
+          <t>Papers in all areas of Finance and Financial Economics</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Inaugural Finance Conference Vitznau 2025</t>
+          <t>The 19th NYCU International Finance Conference</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Vitznau, Switzerland</t>
+          <t>National Yang Ming Chiao Tung University, Hsinchu, Taiwan</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>US$250</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Machine learning for the cross-section of returns, Big data analysis, Large language models and unstructured data, Non-standard datasets for return predictions, Systematic expectations mistakes, and predictable returns, Feasible and implementable portfolios, Predictable turning points</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025 Canadian Derivatives Institute (CDI) Conference</t>
+          <t>Symposium on Financial Markets in the Era of Climate Change</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>HEC Montréal’s Downtown Campus, Montréal (Qc), Canada</t>
+          <t>Madrid, Spain</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4351,34 +4351,34 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Derivatives</t>
+          <t>Climate risks, Green financial products, Sustainable investing, Corporate green strategy, Environmental externalities, Climate-related regulation</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>The Institute for Quantitative Investment Research, Residential Seminar</t>
+          <t>The 38th Australasian Finance and Banking Conference</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-12-13</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Eastwell Manor, Kent, United Kingdom</t>
+          <t>Sydney, Australia</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4388,71 +4388,71 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Factors and Macro Risks in a Changing World, Diversification in an inflationary environment, AI applications in investment management, Quantitative investing in private assets, Causality and models of expected returns</t>
+          <t>Opportunities and Risks of AI Technology in Finance, CBDCs, Fintech, Digital Finance, Sustainable Investment</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>8th CEIBS Finance/Accounting Symposium</t>
+          <t>2025 GSU-MS AI and FinTech Conference</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Shanghai, China</t>
+          <t>Buckhead Center of Georgia State University, Atlanta, GA</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$100</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Corporate Finance and Governance, Private Equity and Venture Capital, Fintech, Political Economy of Finance, related subfields of finance, accounting, and economics</t>
+          <t>AI Methods and Applications in Finance and Economics, Impact of AI and New Technologies, Risk and Regulation of AI and FinTech, Other AI and FinTech topics (Big Data, Digital Economy, DeFi, Cryptoeconomics and other relevant topics)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>12th Asset Pricing Workshop</t>
+          <t>2nd Financial Fraud, Misconduct and Market Manipulation Conference</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Theodor W. Adorno Platz 3, House of Finance, 60323 Frankfurt</t>
+          <t>Lancaster University, England</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4462,34 +4462,34 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>All areas of asset pricing (Theoretical, empirical, intermediary, macrofinance, etc.)</t>
+          <t>Theoretical and empirical analysis of financial fraud, case studies of recent instances of market misconduct, insider trading, implication of financial fraud/market manipulation for market efficiency, stability, and asset pricing, market manipulation at a high-frequency (intraday) level, fraudulent activities and crypto currency markets, social networks, fake news, and their effect on financial markets, money laundering and banking, conflicts of interests and their implications for various stake holders and financial markets, hedge funds/mutual funds and their involvement in market misconduct, statistical/ machine learning methods for fraud detection, cyber security and cyber risk management, regulatory response to financial misconduct, unintended consequences of politics and regulations.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>9th SAFE Market Microstructure Conference</t>
+          <t>Future Finance Fest (3f)</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Theodor W. Adorno Platz 3, House of Finance, 60323 Frankfurt</t>
+          <t>Vilnius, Lithuania</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4499,145 +4499,145 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Current developments in all areas of market microstructure.</t>
+          <t>Finance academics, fintech, finance innovation, future of finance.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>14th Fixed Income and Financial Institutions (FIFI) Conference</t>
+          <t>Johns Hopkins Carey Finance Conference</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>University of South Carolina in Columbia, SC</t>
+          <t>Johns Hopkins Carey Campus, 100 International Drive, Baltimore, MD</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Fixed income, commercial and investment banks, asset management and mutual fund companies, short sellers, hedge funds, broker-dealers, insurance companies, PE &amp; VCs, FinTech companies</t>
+          <t>All areas of finance, particularly early-stage papers that would benefit from feedback and discussion</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>The 8th Cryptocurrency Research Conference (CRC2025)</t>
+          <t>TSE Industrial Organisation &amp; Finance Conference</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>National and Kapodistrian University of Athens, Athens, Greece</t>
+          <t>Toulouse School of Economics</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>£400</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>AI and Machine Learning in Crypto and Blockchain, Big Data in Fintech, Blockchain in Global Finance, Crypto Asset Efficiency and Market Behaviour, Central Bank Digital Currencies (CBDCs), Crowdfunding and P2P Lending, Cybercrime and Cybersecurity in Fintech, Digital Banking and the Digital Economy, Decentralized Autonomous Organizations (DAOs), Decentralized Finance (DeFi), DEXs vs. CEXs: Market Dynamics, Environmental Sustainability of Cryptocurrency, Fintech Regulation and Compliance, Cryptocurrency and Financial Stability, Media and Investor Attention on Fintech and DeFi, Non-Fungible Tokens (NFTs) and Digital Assets, Natural Language Processing (NLP) in Fintech, Blockchain Opportunities for Entrepreneurs, Russian Sanctions and the Fintech Industry, Stablecoins: Design and Risks, AI-Driven Innovation in Crypto Markets, Preparing for post-Quantum Blockchain and Other relevant topics.</t>
+          <t>Competition between financial service providers, Entry of new players in the financial intermediation chain (Fintechs, NBFIs), Integration between different financial services (e.g., payment and credit) or between financial services and other activities (e.g., social networks and payment), The role of data in the provision of financial services, Open Banking, The use of structural estimation techniques to analyze the demand for financial products and/or strategic interactions between financial firms, The impact of the organization of financial firms for product market competition.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>6th CEAR-RSI Household Finance Workshop</t>
+          <t>2nd Exeter Sustainable Finance Conference</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2025-11-15</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Montréal (Québec), Canada</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No submission fee.</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Consumption-saving decisions and investment choices, Financial literacy and education, Pensions and retirement, Financial planning and advice, Financial delinquency and bankruptcy, Household insurance and risk management</t>
+          <t>Sustainable and responsible finance, interdisciplinary research that draws together approaches and perspectives from different disciplines.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Compensation of Top Executives: Determinants and Consequences</t>
+          <t>Hybrid Conference on Islamic Law and Finance</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Cambridge, MA</t>
+          <t>Durham University Business School (Waterside Building Campus), UK</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4647,14 +4647,14 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>The effects of CEO pay on firm performance and behavior, The relationship between CEO pay and the market for executive talent, The role of institutional investors and other shareholders in setting CEO pay, Drivers of variation in CEO pay across time, firms, and countries, The optimal design of CEO pay contracts, The effects of regulation on CEO pay.</t>
+          <t>Financial Innovation (including FinTech); Shaping Monetary Policy from a Maqasid perspective; Designing Fiscal Policy from a Maqasid perspective; Artificial Intelligence (AI) in Islamic Finance; Legal and Regulatory Frameworks; Access to Finance and Social Welfare; Corporate Governance and Shari’ah Compliance; Purpose-Based vs. Problem-Based Approaches; Cultural Dimensions in Islamic Finance; Islamic Finance for Global Challenges; Governance Mechanisms and Stakeholder Accountability.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Research Symposium on Finance and Economics (RSFE) 2025</t>
+          <t>21st Annual Conference of the Asia-Pacific Association of Derivatives (APAD)</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4664,91 +4664,91 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>IFMR GSB, Krea University, Andhra Pradesh, India (Virtual)</t>
+          <t>Busan, Korea</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>No submission fee</t>
+          <t>US$ 200, which is waived for presenters of accepted papers.</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Corporate Finance, Capital Structure and Dividend Policy, Emerging trends in Corporate Finance and Corporate Governance, Mergers and Acquisitions, Financial Reporting and Regulations, Behavioural Finance, Computational Finance and Financial Econometrics, Asset Pricing, Financial Markets, Derivatives Trading and Pricing, Market Microstructure and Algorithmic Trading, Banking and Risk Management, Digital Finance, Financial Tech, AI, and Machine Learning. Economics: Microeconomics, Applied Microeconomics, Macroeconomics, International Economics, International Trade, Development Economics, Energy Economics, Econometrics, Applied Econometrics, Public Finance, Political Economy, Game Theory, Economic Growth, Environmental Economics, and Labour Economics.</t>
+          <t>Derivatives, Volatility, Risk Management, Asset Pricing, Investments, Corporate Finance, Corporate Governance, Market Microstructure, Banking, Personal and Household Finance, ESG and Climate Finance, AI and Big Data, Blockchain and Crypto Assets, Fintech, Regulation, Behavioral Finance</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Behavioral/Cognitive Finance, Decision/Risk Sciences in the Age of Artificial Intelligence; Entrepreneurship &amp; Economics-2025</t>
+          <t>EBA's 14th Policy Research Workshop: Bridging capital and growth - the role of financial structures and intermediaries</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Silicon Valley/Santa Clara, CA, USA</t>
+          <t>EBA premises (Paris, France) and remotely</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>$99.00</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Behavioral/Cognitive Finance &amp; Economics, Neuroscience/Neuromorphic Computing, Quantum Entanglement Political Economy, Biological Anthropology, Brain-Computer Interfaces, Development of New Financial &amp; Economic Models and Theories for Decision Making and Risk Taking in the Post Efficient-Markets World, Contributions to Advance Our Understanding and Knowledge of Various Areas including Decision Making Under Conditions of Risk and Uncertainty, Venture Startups and Exits, Trust, Financial and Capital Markets, Social Capital, Moral Sentiments and Working of the Markets Economy, Capitalism, Investment in and Working of Financial Markets, Financial Management of Companies, Role of Virtual Assistants, Entrepreneurship, Innovation, and Economic Development, Sustainable Finance, Role of Behavioral Finance &amp; Economics in Personal Finance, Retirement Saving &amp; Planning, Teaching, Learning, and Training, Applications- Behavioral Finance in Practice.</t>
+          <t>The impact of global capital flows on market efficiency and the role of financial intermediation, Access to finance by entrepreneurs ensuring that capital is used in the most productive ways, Provision of mechanisms for managing risk and contribution from regulatory frameworks on the functioning and stability of financial intermediaries, Incorporation of environmental, social, and governance (ESG) supporting sustainable development and growth, Advances in digital finance initiatives and better alignment with regulation and policies.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>The 16th Annual Financial Markets and Liquidity (AFML) Conference</t>
+          <t>5th CEPR-Stigler Center Conference on Political Economy of Finance: Governance in a Polarized World</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>London</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4758,108 +4758,108 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Corporate finance; Investments; Banking; Asset Pricing; Mathematical Finance; Systemic Risk; Regulations; ESG Investments and Sustainability; Climate Finance; Household Finance; AI and Machine Learning; Game Theoretic Aspects of Financial Markets; Market and Funding Liquidity; Global Liquidity (both Public and Private); Leverage and Macroeconomic Determinants; Market Microstructure; Illiquid Alternative Investments; Asset Innovations</t>
+          <t>Corporate governance in a more conflictual world, a divided society and politicized corporations' response to major societal challenges such as climate change or economic decline, the role of inequality and politicization in shaping governance choices, the trade-offs faced by voters, businesses and governments, strategies for fostering trust and cohesion in an era of polarization.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025 Conference on Accounting and Finance Research and Education in the Era of Rapid Technological Advances</t>
+          <t>Inaugural Finance Conference Vitznau 2025</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Suzhou, China</t>
+          <t>Vitznau, Switzerland</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>RMB ¥2,000 (or USD $280) for onsite participants and RMB ¥1,200 (or USD $180) for online participants.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Artificial intelligence (AI), big data, and machine learning, Blockchain, cryptocurrencies, and digital finance, Fintech and financial inclusion, Cybersecurity in financial data management, Accounting for technology and innovation, Business ethics and corporate governance, Corporate social responsibility (CSR), Environmental, Social and Governance (ESG), Entrepreneurship, innovation and sustainability, Regulation and the roles of government, Risk management in the digital age, Green finance, green innovation and technology, Green supply chain analysis and social responsibility in global supply chains, Curriculum design and educational research, Pedagogy and case studies.</t>
+          <t>Asset pricing, Machine learning for the cross-section of returns, Big data analysis, Large language models and unstructured data, Non-standard datasets for return predictions, Systematic expectations mistakes, and predictable returns, Feasible and implementable portfolios, Predictable turning points</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>4th Holden Conference in Finance and Real Estate</t>
+          <t>2025 Canadian Derivatives Institute (CDI) Conference</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Bloomington, Indiana</t>
+          <t>HEC Montréal’s Downtown Campus (Hélène-Desmarais Building), Montréal (Qc), Canada</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>$95 (fees are waived for Ph.D. students)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Empirical and theoretical papers in all finance and real estate areas</t>
+          <t>Derivatives</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>The 2025 5th Global PhD Student Colloquium</t>
+          <t>The Institute for Quantitative Investment Research, Residential Seminar</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>University of Sydney Business School, Australia</t>
+          <t>Eastwell Manor, Kent, United Kingdom</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4869,219 +4869,219 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Business disciplines, especially Finance and Accounting</t>
+          <t>Factors and Macro Risks in a Changing World, Diversification in an inflationary environment, AI applications in investment management, Quantitative investing in private assets, Causality and models of expected returns</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025 UGA Fall Finance Conference</t>
+          <t>8th CEIBS Finance/Accounting Symposium</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Athens, GA</t>
+          <t>Shanghai, China</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>$65</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Papers in all areas of finance</t>
+          <t>Corporate Finance and Governance, Private Equity and Venture Capital, Fintech, and Political Economy of Finance. Papers in related subfields of finance, accounting, and economics</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025 FMA Annual Meeting</t>
+          <t>12th Asset Pricing Workshop</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Vancouver, BC, Canada</t>
+          <t>Theodor W. Adorno Platz 3, House of Finance, 60323 Frankfurt</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>$75 for current FMA members, $85 for non-members</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Financial decision-making, Financial management and related topics</t>
+          <t>All areas of asset pricing (theoretical, empirical, intermediary, macrofinance etc.).</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>The Fifth Israel Behavioral Finance Conference</t>
+          <t>9th SAFE Market Microstructure Conference</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Academic College of Tel Aviv Yaffo- Israel</t>
+          <t>Theodor W. Adorno Platz 3, House of Finance, 60323 Frankfurt</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>No submission fee</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>All areas of behavioral finance, including its applications to the theory of the firm, individual and professional investors, experimental finance, financial markets, international finance, and ESG investing. Special emphasis on the intersection of behavioral finance and women, and examining how creating helpful nudges via social networks or new AI products may support women's involvement and improve their financial decisions.</t>
+          <t>Current developments in the field of market microstructure</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>NTU Summer School &amp; Conference on AI for Finance</t>
+          <t>14th Fixed Income and Financial Institutions (FIFI) Conference</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Nanyang Business School, Nanyang Technological University, Singapore</t>
+          <t>University of South Carolina in Columbia, SC</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$75</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>AI implications and applications in finance, asset pricing, portfolio management, corporate finance, financial accounting, algorithmic and high-frequency trading strategies, AI in risk management and credit scoring, AI-based portfolio optimization, natural language processing in financial applications, robo-advisory services and fraud detection, financial forecasting and market sentiment analysis using AI/ML, Reinforcement learning for dynamic trading, AI regulations, and ethical decision-making in Financial AI.</t>
+          <t>Fixed income, commercial and investment banks, asset management and mutual fund companies, short sellers, hedge funds, broker-dealers, insurance companies, PE &amp; VCs, FinTech companies, and more.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>The 32nd Annual Global Finance Conference</t>
+          <t>The 8th Cryptocurrency Research Conference</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Boston, MA</t>
+          <t>National and Kapodistrian University of Athens, Athens, Greece</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>£400</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Accounting, Auditing, and Taxation; Banking, Financial Services, and Investment Banking; Behavioral and Experimental Finance/Economics; Big Data, AI, Machine Learning, and Fintech in Global Finance &amp; Banking; Emerging Markets (BRICS, MIST, MINT, Next 11, PIIGS, SANE); Corporate Finance, Investments &amp; Global Perspectives; Corporate Governance and Executive Compensation; Green Finance &amp; ESG Investments; Climate Risks and Financial Stability; Global Health Issues and Pandemic Impacts; Derivatives, Financial Engineering, and Real Options; Entrepreneurship and Venture Capital; Financial Market Integration, Linkages &amp; Segmentation; Foreign Exchange &amp; Monetary Economics; Global Energy and Environmental Finance; Financial Crises, Global Inequality &amp; Economic Imbalances; Household &amp; Micro Finance; IPOs, SEOs, Stock Buybacks &amp; Privatization; Mergers &amp; Acquisitions, Corporate &amp; State Sovereign Wealth Funds; Blockchain, Cryptocurrencies, and Digital Finance; Portfolio Management, Asset Allocation &amp; Foreign Direct Investments; Real Estate Finance, REITs, and Crowdfunding; Risk Management, Debt, Insurance &amp; Reinsurance; Sovereign Wealth Funds, Hedge Funds, ETFs &amp; Mutual Funds; Sustainability, Corporate Social Responsibility &amp; Ethics.</t>
+          <t>AI and Machine Learning in Crypto and Blockchain, Big Data in Fintech, Blockchain in Global Finance, Crypto Asset Efficiency and Market Behaviour, Central Bank Digital Currencies (CBDCs), Crowdfunding and P2P Lending, Cybercrime and Cybersecurity in Fintech, Digital Banking and the Digital Economy, Decentralized Autonomous Organizations (DAOs), Decentralized Finance (DeFi), DEXs vs. CEXs: Market Dynamics, Environmental Sustainability of Cryptocurrency, Fintech Regulation and Compliance, Cryptocurrency and Financial Stability, Media and Investor Attention on Fintech and DeFi, Non-Fungible Tokens (NFTs) and Digital Assets, Natural Language Processing (NLP) in Fintech, Blockchain Opportunities for Entrepreneurs, Russian Sanctions and the Fintech Industry, Stablecoins: Design and Risks, AI-Driven Innovation in Crypto Markets, Preparing for post-Quantum Blockchain and other relevant topics.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025 International Symposium on Climate, Finance, and Sustainability (ISCFS-2025)</t>
+          <t>6th CEAR-RSI Household Finance Workshop</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>House of Management Science, Paris Pantheon-Assas University</t>
+          <t>Montréal (Québec), Canada</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5091,34 +5091,34 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Carbon Finance and Taxes, Climate Finance, Climate Negotiations and Scenarios, Climate Risk and Disclosures, Climate-resilient Economies, Energy Derivatives: Pricing and Hedging, Energy Markets: Modeling, and Forecasting, Energy, Environment, and Climate Models, Financial and Economic Analysis of Energy Markets, Financial Regulation of Energy and Environmental Markets, Green Finance and Sustainable Investment, Just Energy Transition, Macroeconomic Implications of Net-Zero Carbon Emissions, Natural Resources, Risk, Welfare and Social Preferences, Renewable Energy Regulation and Energy Governance, Role of Financial Institutions in Sustainability</t>
+          <t>Household financial decision-making, consumption-saving decisions and investment choices, financial literacy and education, pensions and retirement, financial planning and advice, financial delinquency and bankruptcy, household insurance and risk management.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Conference on Sustainable Financial Intermediation</t>
+          <t>Compensation of Top Executives: Determinants and Consequences</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Novotel Reims Tinqueux, France</t>
+          <t>Cambridge, MA</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5128,108 +5128,108 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>financial intermediation, household finance, corporate finance, the financing of “green” assets</t>
+          <t>The effects of CEO pay on firm performance and behavior, The relationship between CEO pay and the market for executive talent, The role of institutional investors and other shareholders in setting CEO pay, Drivers of variation in CEO pay across time, firms, and countries, The optimal design of CEO pay contracts, The effects of regulation on CEO pay</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>9th Shanghai-Edinburgh-London Conference Sustainable Finance in the Digital Era</t>
+          <t>Research Symposium on Finance and Economics (RSFE) 2025</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Shanghai and Online</t>
+          <t>IFMR GSB, Krea University, Andhra Pradesh, India (Virtual)</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No paper submission fee.</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Sustainable finance, AI-driven financial innovation, ESG integration in the digital era, The use of AI and machine learning in ESG investment strategies, sustainability disclosures, and climate risk modelling, Blockchain applications in carbon markets, green bonds and regulatory compliance, Corporate governance challenges, greenwashing detection and market responses to ESG commitments, The role of digital finance, decentralised finance (DeFi) and emerging technologies in supporting a low-carbon transition, Policy frameworks and regulatory challenges shaping the adoption of sustainable finance in developed and emerging markets.</t>
+          <t>Corporate Finance, Capital Structure and Dividend Policy, Emerging trends in Corporate Finance and Corporate Governance, Mergers and Acquisitions, Financial Reporting and Regulations, Behavioural Finance, Computational Finance and Financial Econometrics, Asset Pricing, Financial Markets, Derivatives Trading and Pricing, Market Microstructure and Algorithmic Trading, Banking and Risk Management, Digital Finance, Financial Tech, AI, and Machine Learning, Microeconomics, Applied Microeconomics, Macroeconomics, International Economics, International Trade, Development Economics, Energy Economics, Econometrics, Applied Econometrics, Public Finance, Political Economy, Game Theory, Economic Growth, Environmental Economics, Labour Economics</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025 Vietnam Symposium in Entrepreneurship, Finance, and Innovation</t>
+          <t>Behavioral/Cognitive Finance, Decision/Risk Sciences in the Age of Artificial Intelligence; Entrepreneurship &amp; Economics-2025</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Hanoi, Vietnam</t>
+          <t>Silicon Valley/Santa Clara, CA, USA</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>No submission fee is required.</t>
+          <t>$99.00</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>AI, Big Data, and Machine Learning Applications in Finance, Asset Pricing, Bankruptcy and Liquidation, Biodiversity Finance, Climate Finance, Corporate Finance and Governance, Corporate Responsibility and Sustainability, Crypto Assets and Decentralized Finance, Digital Finance, ESG and Sustainable Finance, Financial Markets, Green Cryptocurrencies, Household Finance, Information Disclosure, Market Efficiency, and Transparency, Portfolio and Investment Decisions, Business Model Innovation, Corporate Digital Transformation, Crowdfunding and P2P Lending, Entrepreneurship, Intrapreneurship, and Innovation, Entrepreneurship in Emerging and Transition Markets, Family-Owned Businesses and Governance, Governance and Financing of High-Tech Firms, New Venture Creation and Performance, Social and Sustainable Entrepreneurship, Startups, SMEs, and Resource Allocation, Venture Financing and Entrepreneurial Growth, Digital Human Resources, Digital Innovation, Knowledge Management, and Entrepreneurship, Electronic Markets and Trading Platforms, FinTech and Alternative Finance, Innovation Management and Growth Strategies, Sustainability in the Digital Economy.</t>
+          <t>Behavioral/Cognitive Finance &amp; Economics, Neuroscience/Neuromorphic Computing, Quantum Entanglement Political Economy, Biological Anthropology, Brain-Computer Interfaces, Quantum Entanglement, Decision Making Under Conditions of Risk and Uncertainty, Venture Startups and Exits, Trust, Financial and Capital Markets, Social Capital, Moral Sentiments and Working of the Markets Economy, Capitalism, Investment in and Working of Financial Markets, Financial Management of Companies, Entrepreneurship, Innovation, Economic Development, Sustainable Finance, Role of Behavioral Finance &amp; Economics in Personal Finance, Retirement Saving &amp; Planning, Teaching, Learning, Training, Applications- Behavioral Finance in Practice.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20th Central Bank Conference on the Microstructure of Financial Markets</t>
+          <t>The 16th Annual Financial Markets and Liquidity (AFML) Conference</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5239,256 +5239,256 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI) in market microstructure design, financial innovation and settlement cycles in security markets, decentralized finance and the digital asset ecosystem. These include AI-driven trading algorithms and market quality, AI predictive analytics and their impact on market efficiency, applications of AI in market making and liquidity provision, implications of AI for market microstructure design, role of technology and financial innovation in shaping settlement cycles, alternative settlement cycles and financial stability, impact of alternative settlement cycles on market liquidity, volatility, price efficiency and informativeness, asset tokenization, impact of market fragmentation on price discovery and information asymmetry in digital-asset markets, decentralized finance in terms of market making, trading mechanisms, market efficiency, and related regulatory developments, price dynamics and liquidity in stablecoin markets, and stablecoin design and peg stability.</t>
+          <t>Corporate finance; Investments; Banking; Asset Pricing; Mathematical Finance; Systemic Risk; Regulations; ESG Investments and Sustainability; Climate Finance; Household Finance; AI and Machine Learning; Game Theoretic Aspects of Financial Markets; Market and Funding Liquidity; Global Liquidity (both Public and Private); Leverage and Macroeconomic Determinants; Market Microstructure; Illiquid Alternative Investments; and Asset Innovations.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Financial Regulation and RegTech Forum</t>
+          <t>2025 Conference on Accounting and Finance Research and Education in the Era of Rapid Technological Advances</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Beijing, China</t>
+          <t>Suzhou, China</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>RMB 2000 for non-students, RMB 1000 for students.</t>
+          <t>Onsite participants - RMB ¥2,000 or USD $280; Online participants - RMB ¥1,200 or USD $180.</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Methods and technologies for intelligent monitoring and discovery of abnormal trading behaviors in the securities market, Financial fraud detection methods, Methods for identifying and monitoring illicit financial activities and regulatory technologies, New approaches to financial risk assessment, New measurement methods and early warning techniques for financial systemic risk, New methods and technologies for credit risk assessment and credit scoring, Liquidity risk measurement methodology, Supply chain finance in the era of big data, The development of fintech and its impact, Fintech product and institutional risk monitoring, Application and innovation of large language models and generative AI in the financial sector, Interpretable AI, Model risk and model risk assessment methodology, AI approaches in the financial sector and their impact on financial stability, Blockchain technology and its application in financial regulation, Risk identification and monitoring methods for virtual currencies, Key technical facilities in the banking industry, Finance of science and technology, Digital finance.</t>
+          <t>Artificial intelligence (AI), big data, and machine learning, Blockchain, cryptocurrencies, and digital finance, Fintech and financial inclusion, Cybersecurity in financial data management, Accounting for technology and innovation, Business ethics and corporate governance, Corporate social responsibility (CSR), Environmental, Social and Governance (ESG), Entrepreneurship, innovation and sustainability, Regulation and the roles of government, Risk management in the digital age, Green finance, green innovation and technology, Green supply chain analysis and social responsibility in global supply chains, Curriculum design and educational research, Pedagogy and case studies</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Northern Finance Association 2025 Annual Meeting</t>
+          <t>4th Holden Conference in Finance and Real Estate</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Calgary, Alberta</t>
+          <t>Bloomington, Indiana</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>CAD $50</t>
+          <t>$95</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Empirical and theoretical papers in all finance and real estate areas</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Fourth Oxford Sustainable Private Markets Conference</t>
+          <t>The 2025 5th Global PhD Student Colloquium</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Saïd Business School, University of Oxford, UK</t>
+          <t>University of Sydney Business School, Australia</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>No submission fee</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Environmental, social and governance (ESG) in private markets (private equity, private debt, real assets).</t>
+          <t>Research papers from all business disciplines, especially Finance and Accounting</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>New Perspectives on Consumer Behavior in Credit and Payments Markets Conference</t>
+          <t>2025 UGA Fall Finance Conference</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Federal Reserve Bank of Philadelphia</t>
+          <t>Athens, GA</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$65</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Consumer credit and payments, household debt and default, fintech, financial literacy, regulation, linkages between consumer credit and the real economy, innovations in household payments</t>
+          <t>Papers in all areas of finance</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>6th LTI@UniTO/Bank of Italy Workshop on Long-term investors’ trends: theory and practice</t>
+          <t>2025 FMA Annual Meeting</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Collegio Carlo Alberto, Turin, Italy</t>
+          <t>Vancouver, BC, Canada</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$75 (current FMA members); $85 (non-members)</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Long-term investors’ strategies and behavior in times of geopolitical fragmentation, rising protectionism and technological breakthroughs; shifting equilibria in government bond markets; the evolution of sustainable investment strategies and greenlash risks; challenges for long-term investors from increasing equity market concentration; the rising importance of non-bank investors in credit intermediation; the rise of cryptocurrencies and fintech and their impact; emerging trends in asset allocation and risk management for long-term investors; shock transmission mechanisms from the real economy to financial institutions; the use of big data and AI to assess and manage risk factors; innovations in financial markets; the effects of the demographic transitions on financial markets.</t>
+          <t>Financial decision-making, financial management and related topics.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Politics in Finance 2025 Conference</t>
+          <t>The Fifth Israel Behavioral Finance Conference</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Georgetown University, Washington DC</t>
+          <t>Academic College of Tel Aviv Yaffo- Israel</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>No submission fee.</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>The role of political connections and political ideologies in shaping capital market forces, How political ideologies affect the decision making by firms and workers, Political connections and corruption in developing economies, The political economy of financial development, The interaction between government and financial institutions, Implications of political uncertainty and political connections for asset prices and corporate policies, Political economy of financial regulation and financial crises.</t>
+          <t>All areas of behavioral finance, including its applications to the theory of the firm, individual and professional investors, experimental finance, financial markets, international finance, and ESG investing.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>10th RiskLab Finland, Bank of Finland and European Systemic Risk Board Joint Conference on AI and Systemic Risk Analytics</t>
+          <t>NTU Summer School &amp; Conference on AI for Finance</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Bank of Finland, Helsinki</t>
+          <t>Nanyang Business School, Nanyang Technological University, Singapore.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5498,44 +5498,525 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>AI and systemic risk, Use of Large Language Models (LLM) and trustworthy AI, AI and changing interdependencies in the financial markets, Cyber security and operational risks, AI and Quantum Computing as potential sources of new systemic risks, Use of AI with big data for systemic risk analytics, Risks and opportunities from financial technology (FinTech), Supporting macro-prudential policy and regulation with systemic risk analytics, Analysing emerging risks from the interconnectedness of the financial system, Identifying market-based finance risks, Evidence of macroprudential policy measures, Economic policies in turbulent and uncertain times.</t>
+          <t>The financial implications and applications of artificial intelligence, AI research in asset pricing, portfolio management, corporate finance, financial accounting, algorithmic and high-frequency trading strategies, AI in Risk management and credit scoring, AI-based Portfolio optimization, natural language processing in financial applications, Robo-advisory services and fraud detection, financial forecasting and market sentiment analysis using AI/ML, reinforcement learning for dynamic trading, AI regulations and ethical decision-making in Financial AI, other AI-related research in finance.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
+          <t>The 32nd Annual Global Finance Conference</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Boston, MA</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Accounting, Auditing, and Taxation, Banking, Financial Services, and Investment Banking, Behavioral and Experimental Finance/Economics, Big Data, AI, Machine Learning, and Fintech in Global Finance &amp; Banking, Emerging Markets, Corporate Finance, Investments &amp; Global Perspectives, Corporate Governance and Executive Compensation, Green Finance &amp; ESG Investments, Climate Risks and Financial Stability, Global Health Issues and Pandemic Impacts, Derivatives, Financial Engineering, and Real Options, Entrepreneurship and Venture Capital, Financial Market Integration, Linkages &amp; Segmentation, Foreign Exchange &amp; Monetary Economics, Global Energy and Environmental Finance, Financial Crises, Global Inequality &amp; Economic Imbalances, Household &amp; Micro Finance, IPOs, SEOs, Stock Buybacks &amp; Privatization, Mergers &amp; Acquisitions, Corporate &amp; State Sovereign Wealth Funds, Blockchain, Cryptocurrencies, and Digital Finance, Portfolio Management, Asset Allocation &amp; Foreign Direct Investments, Real Estate Finance, REITs, and Crowdfunding, Risk Management, Debt, Insurance &amp; Reinsurance, Sovereign Wealth Funds, Hedge Funds, ETFs &amp; Mutual Funds, Sustainability, Corporate Social Responsibility &amp; Ethics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025 International Symposium on Climate, Finance, and Sustainability (ISCFS-2025)</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>House of Management Science, Paris Pantheon-Assas University</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Carbon Finance and Taxes, Climate Finance, Climate Negotiations and Scenarios, Climate Risk and Disclosures, Climate-resilient Economies, Energy Derivatives: Pricing and Hedging, Energy Markets: Modeling, and Forecasting, Energy, Environment, and Climate Models, Financial and Economic Analysis of Energy Markets, Financial Regulation of Energy and Environmental Markets, Green Finance and Sustainable Investment, Just Energy Transition, Macroeconomic Implications of Net-Zero Carbon Emissions, Natural Resources, Risk, Welfare and Social Preferences, Renewable Energy, Regulation and Energy Governance, Role of Financial Institutions in Sustainability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Conference on Sustainable Financial Intermediation</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Novotel Reims Tinqueux, France</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Financial intermediation, household finance, corporate finance, financing of “green” assets</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>9th Shanghai-Edinburgh-London Conference Sustainable Finance in the Digital Era</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Shanghai and Online</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Use of AI and machine learning in ESG investment strategies, sustainability disclosures, and climate risk modelling; Blockchain applications in carbon markets, green bonds and regulatory compliance; Corporate governance challenges, greenwashing detection and market responses to ESG commitments; Role of digital finance, decentralised finance (DeFi) and emerging technologies in supporting a low-carbon transition; Policy frameworks and regulatory challenges shaping the adoption of sustainable finance in developed and emerging markets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025 Vietnam Symposium in Entrepreneurship, Finance, and Innovation</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Hanoi, Vietnam</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>No submission fee is required.</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>AI, Big Data, and Machine Learning Applications in Finance, Asset Pricing, Bankruptcy and Liquidation, Biodiversity Finance, Climate Finance, Corporate Finance and Governance, Corporate Responsibility and Sustainability, Crypto Assets and Decentralized Finance, Digital Finance, ESG and Sustainable Finance, Financial Markets, Green Cryptocurrencies, Household Finance, Information Disclosure, Market Efficiency, and Transparency, Portfolio and Investment Decisions, Business Model Innovation, Corporate Digital Transformation, Crowdfunding and P2P Lending, Entrepreneurship, Intrapreneurship, and Innovation, Entrepreneurship in Emerging and Transition Markets, Family-Owned Businesses and Governance, Governance and Financing of High-Tech Firms, New Venture Creation and Performance, Social and Sustainable Entrepreneurship, Startups, SMEs, and Resource Allocation, Venture Financing and Entrepreneurial Growth, Digital Human Resources, Digital Innovation, Knowledge Management, and Entrepreneurship, Electronic Markets and Trading Platforms, FinTech and Alternative Finance, Innovation Management and Growth Strategies, Sustainability in the Digital Economy</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>20th Central Bank Conference on the Microstructure of Financial Markets</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>AI-driven trading algorithms and market quality, AI predictive analytics and their impact on market efficiency, Applications of AI in market making and liquidity provision, Implications of AI for market microstructure design, The role of technology and financial innovation in shaping settlement cycles in security markets, Alternative settlement cycles and financial stability, The Impact of alternative settlement cycles on market liquidity, volatility, price efficiency and informativeness, Asset tokenisation: Liquidity and price discovery implications, Impact of market fragmentation on price discovery and information asymmetry in digital-asset markets, Decentralised finance: market making, trading mechanisms, market efficiency, and related regulatory developments, Price dynamics and liquidity in stablecoin markets, Stablecoin design and peg stability</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Financial Regulation and RegTech Forum</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Beijing, China</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>RMB 2000 for non-students and RMB 1000 for students.</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Methods and technologies for intelligent monitoring and discovery of abnormal trading behaviors in the securities market, Financial fraud detection methods, Methods for identifying and monitoring illicit financial activities and regulatory technologies, New approaches to financial risk assessment such as the application of big data and AI methods in risk management, New measurement methods and early warning techniques for financial systemic risk, New methods and technologies for credit risk assessment and credit scoring, Liquidity risk measurement methodology, Supply chain finance in the era of big data, The development of fintech and its impact, Fintech product and institutional risk monitoring, Application and innovation of large language models and generative AI in the financial sector, Interpretable AI, Model risk and model risk assessment methodology, AI approaches in the financial sector and their impact on financial stability, Blockchain technology and its application in financial regulation, Risk identification and monitoring methods for virtual currencies, Key technical facilities in the banking industry, Finance of science and technology, Digital finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Northern Finance Association 2025 Annual Meeting</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Hyatt Regency, Calgary, Alberta</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Canadian $50 per paper</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Any topic related to finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Fourth Oxford Sustainable Private Markets Conference</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Saïd Business School, University of Oxford</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Environmental, social and governance (ESG) in private markets (private equity, private debt, real assets).</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>New Perspectives on Consumer Behavior in Credit and Payments Markets Conference</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Federal Reserve Bank of Philadelphia</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Household debt and default, fintech, financial literacy, regulation, linkages between consumer credit and the real economy, innovations in household payments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>6th LTI@UniTO/Bank of Italy Workshop on Long-term investors’ trends: theory and practice</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Collegio Carlo Alberto, Turin, Italy</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Long-term investors’ strategies and behavior in times of geopolitical fragmentation, rising protectionism and technological breakthroughs. Shifting equilibria in government bond markets driven by quantitative tightening, rising indebtedness and macroeconomic uncertainty. The evolution of sustainable investment strategies and greenlash risks. Challenges for long-term investors stemming from increasing equity market concentration. The rising importance of non-bank investors in credit intermediation and its consequences for the transmission of monetary policy. The rise of cryptocurrencies, emerging financial technologies (fintech) and their impact on investment strategies. Emerging trends in asset allocation and risk management for long-term investors, including insurance companies, pension funds, and mutual funds. Shock transmission mechanisms from the real economy to financial institutions and the amplification of shocks through credit chains, fire sales, and other procyclical processes. The use of big data and artificial intelligence to assess and manage exposure to risk factors. Innovations in financial markets and opportunities for financial institutions. The effects of the demographic transitions on financial markets and the role of long-term investors in tackling them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Politics in Finance 2025 Conference</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Georgetown University, Washington DC</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>$75</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>The role of political connections and political ideologies in shaping capital market forces, How political ideologies affect the decision making by firms and workers, Political connections and corruption in developing economies, The political economy of financial development, The interaction between government and financial institutions, Implications of political uncertainty and political connections for asset prices and corporate policies, Political economy of financial regulation and financial crises</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>10th RiskLab Finland, Bank of Finland and European Systemic Risk Board Joint Conference on AI and Systemic Risk Analytics</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2025-06-28</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Bank of Finland, Helsinki</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Use of Large Language Models (LLM) and trustworthy AI, AI and changing interdependencies in the financial markets, Cyber security and operational risks as sources of systemic risk, AI and Quantum Computing as potential source of new systemic risks, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
           <t>2025 USTC Alumni Finance Conference</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>2025-03-31</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>2025-07-03</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>2025-07-04</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>Hefei, China</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>There is no submission fee for the conference.</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Academic papers on finance related topics</t>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>No submission fee</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Finance related topics</t>
         </is>
       </c>
     </row>

--- a/public/conference_list.xlsx
+++ b/public/conference_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,138 +473,138 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7th Analyst Research Conference</t>
+          <t>Florida State University Truist Beach Conference</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-04-16</t>
+          <t>2026-04-23</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>University of Notre Dame; Notre Dame, IN, USA</t>
+          <t>Hilton Sandestin Beach Golf Resort and Spa, Miramar Beach, Florida</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>No submission fee</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Current topics in analyst research</t>
+          <t>All areas of finance (empirical and theoretical)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Annual VSB Mid-Atlantic Research Conference in Finance (MARC)</t>
+          <t>Adam Smith Workshops 2026</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-04-09</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bartley Hall, Villanova University, Villanova, PA</t>
+          <t>London Business School</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$60</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>All areas of finance</t>
+          <t>Asset Pricing, Behavioral Finance, Corporate Finance, Financial Intermediation, Household Finance, International Finance (papers in all areas of finance; two parallel streams for Asset Pricing and Corporate Finance, plus a joint session)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Joint World Bank - Financial Analysts Journal Conference on “Public Asset Management: Best Practices and Innovations for the Future”</t>
+          <t>International Conference on Sustainability, Technology, and the Transformation of Accounting and Finance (STTAF 2026)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-04-08</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-04-09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>World Bank Headquarters, Washington DC, USA</t>
+          <t>Kingdom of Bahrain</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$50</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Public pension funds: Risk management methodologies, challenges, and best practices, Central Bank Reserve Management, Sovereign Wealth Fund Management, Stability, Guarantee, and Insurance Funds Management, Local Capital Markets and Home Bias, Blended Finance, Transition Finance for Public Investors</t>
+          <t>Climate Finance; Artificial Intelligence (AI) and Machine Learning in Finance and Accounting; Green Finance, Sustainable Finance, ESG Reporting, and Climate Risk; FinTech, Blockchain, and Digital Currencies; Corporate Governance and Technological Innovation; Big Data in Accounting and Finance; Green Accounting and Carbon Disclosure; RegTech and Financial Compliance; Data Analytics and Financial Decision-Making; Digital Transformation in Public Sector Accounting; Ethical Implications of AI and Automation in Financial Services; Evolving Accounting Standards in Response to Sustainability/Technology</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Seventh Edinburgh Corporate Finance Conference</t>
+          <t>Disclosure, Information Sharing, and Secrecy (DISS) Workshop</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-11-02</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-05-24</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-05-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Edinburgh, Scotland</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -614,34 +614,34 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Corporate finance, both theoretical and empirical</t>
+          <t>Economics of disclosure, information sharing, and secrecy; information disclosure (or non-disclosure) in economics, accounting, management science, and related disciplines</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Federal Reserve Bank of Philadelphia Mortgage Market Research Conference</t>
+          <t>9th World Symposium on Investment Research (with Review of Finance)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-05-14</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-05-15</t>
+          <t>2026-05-04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Federal Reserve Bank of Philadelphia, Ten Independence Mall, Philadelphia, PA 19106</t>
+          <t>Edinburgh, Scotland, United Kingdom</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,182 +651,182 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mortgages, the mortgage market, residential and commercial mortgages, homeownership and wealth accumulation, real estate prices, the structure and risk of the financial sector, transmission of monetary policy and macroeconomic shocks.</t>
+          <t>Arbitrage in Asset Markets; Corporate Decisions and Asset Returns; Firm Governance and Valuation; Global Investment Issues; Hedge Funds and Other Alternative Investments; High-Frequency Trading; Investor Behavior and Performance; Liquidity and Security Returns; Mutual Funds and Pension Funds; Portfolio Rebalancing Strategies; Real Economy and Asset Prices; Return Predictability</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026 ITAM Finance Conference</t>
+          <t>11th Annual University of Connecticut Finance Conference</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-05-12</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-05-12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ITAM Campus, Mexico City</t>
+          <t>Storrs, CT</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$1,250 MXN (approximately $67 USD)</t>
+          <t>60 USD</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>empirical or theoretical papers from all areas of finance and financial economics</t>
+          <t>All areas of finance (unpublished empirical or theoretical papers)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>The 2025 Cross Country Perspectives in Finance (CCPF) Special Multi-Thematic Conference</t>
+          <t>2nd Annual Conference on the Economics and Finance of Healthcare and Medicine</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-11-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-15</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>online only</t>
+          <t>WashU Olin Business School, St. Louis, MO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$75 USD</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sustainable Finance, Financial Innovation, Digital and Crypto Assets, Fintech, Family Firms and SMEs, The Effectiveness of Financial Regulation</t>
+          <t>Economics and finance of healthcare and medicine; intersection of healthcare/medicine and economics/finance; theoretical, empirical, and policy-oriented papers on these topics</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2nd Workshop on LLMs and Generative AI in Finance at ICAIF '25</t>
+          <t>1st Global Banking and Finance Conference 2026 – XLRI Delhi NCR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-11-15</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>XLRI Xavier School of Management Delhi-NCR, Jhajjar, India</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No submission fee</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Multi-Agentic Systems, Composable and Compound System Design for Explainable Reasoning, Trust and Accountability in AI Systems, Methodologies for Processing Unstructured Data, Technical Challenges of LLMs and NLP, Prompt Engineering, Retrieval-Augmented Generation (RAG), Fine-Tuning LLMs, Text-to-SQL Applications, Evaluation Techniques, Applications in Analyzing Financial Reports and Alternative Data, Financial Modeling, Multi-Lingual ESG Identification and Assessment, Financial Fraud Detection, Enhancing Investor Communication.</t>
+          <t>Banking and Finance; Sustainable Finance</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5th Edition Spring Finance Workshop</t>
+          <t>27th Annual Texas Finance Festival</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-11-09</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-09</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-04-21</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ischgl, Austria</t>
+          <t>Austin, Texas</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>70 EUR</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>All fields of finance</t>
+          <t>any topic in financial economics</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Columbia/BPI Annual Bank Regulation Research Conference</t>
+          <t>2026 Asian Finance Association Annual Conference</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-11-15</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-07-02</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-07-04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Columbia University, New York City</t>
+          <t>Seoul, Korea</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -836,330 +836,330 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>All aspects of bank regulation including capital and liquidity regulation, stress testing, merger policy, implications of financial innovation for bank regulation and intermediation activity, evolving roles of banks and nonbanks, digitalization, real-time payments, effect of digital asset innovation and regulation on financial intermediation by banks and nonbanks, implications of financial innovations, such as stablecoins and real-time payments for managing and regulating liquidity, credit, and market risks, adequacy of regulation and the financial safety net for innovations such as stablecoins, implications of financial innovations for bank deposit-taking and provision of payments services.</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026 Loyola Wealth Management Conference</t>
+          <t>2026 Bretton Woods Accounting and Finance Ski Conference</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Loyola University Maryland</t>
+          <t>Bretton Woods, New Hampshire</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>USD 79 per paper</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>mutual funds, ETFs, REITs, private equity, cryptocurrency, and related areas of wealth management</t>
+          <t>All areas of accounting and finance</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ninth Duke-UNC Asset Pricing Conference</t>
+          <t>Professor James R. Lothian Memorial Workshop</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Duke University - Durham, North Carolina</t>
+          <t>Gabelli School of Business, Fordham University, New York City</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>All areas of asset pricing and macro-finance</t>
+          <t>All topics in finance and economics; emphasis on international finance, monetary economics, and the history of economic thought</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>The 2025 TSFS International Conference in Finance</t>
+          <t>SGF 2026 Conference</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Kuriat Palace Hotel, Monastir, Tunisia</t>
+          <t>Zurich, Switzerland</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>CHF 60</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Accounting, auditing, taxation, Asset allocation and valuation, Banking regulation and financial services, Behavioral and experimental finance/economics, Big data in finance, artificial intelligence, cybersecurity, Climate finance and sustainability, Corporate finance, IPOs, SEOs, M&amp;A, crowdfunding, Corporate governance, Country funds, sovereign funds, hedge funds, Debt issues, Digital finance, cryptocurrency finance, blockchain, Emerging markets finance, Energy finance and environmental Issues, Entrepreneurial finance, venture capital, private equity, Ethical finance, green finance, ESG, CSR, Financial accounting and regulation, Financial crises, contagion, integration, global risks interconnection, Financial engineering and derivatives, Foreign currency issue, Global imbalances &amp; sustainability, Household finance, real estate finance, microfinance, Market behavior efficiency, Multinational financial management, Portfolio management and optimization, Risk management and compliance, Small business finance.</t>
+          <t>All topic areas of finance (including track areas: Asset Pricing; Corporate Finance &amp; Governance; Financial Intermediation and Institutions; Behavioral Finance &amp; Household Finance; Financial Markets General)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2nd LSU Finance Mardi Gras Conference</t>
+          <t>SWFA 2026 Conference (65th Annual Meeting of the Southwestern Finance Association)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-03-25</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Baton Rouge, LA</t>
+          <t>Hyatt Regency Dallas, 300 Reunion Blvd, Dallas, TX 75207</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>$50</t>
+          <t>Regular (Non-Doctoral Student): $75; Doctoral Student: $40 USD</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>All topics in finance</t>
+          <t>AI, Machine Learning, and Finance; ESG and Sustainable Finance; Asset Pricing; FinTech and Cryptocurrencies; Banking and Financial Institutions; International Finance; Corporate Finance; Risk Management and Derivatives; Financial Markets and Investments; Finance in the Classroom; Behavioral Finance; Financial Engineering</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Finance Down Under: Building on the Best from the Cellars of Finance</t>
+          <t>University of Kentucky Finance Conference</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-04-23</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Melbourne, Australia</t>
+          <t>Lexington, KY, USA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>US$100</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Papers in asset pricing, corporate finance and all other areas of finance. Session on gender finance. Submissions related to the contributions by Professor Stulz.</t>
+          <t>All areas of finance</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>The 2026 NYSE Market Microstructure Conference</t>
+          <t>Tenth Annual Young Scholars Finance Consortium</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NYSE | 11 Wall Street, New York, NY 10005</t>
+          <t>College Station, Texas, USA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Regular: $100 USD; PhD-only: $50 USD</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Real-world application of market microstructure, U.S. Equity and related markets.</t>
+          <t>Asset pricing, investments; corporate finance and financial intermediation; theoretical and empirical finance research</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2nd Annual Boca Finance and Real-Estate Conference</t>
+          <t>21st European Winter Finance Summit</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Florida Atlantic University, Schmidt Family Complex, Boca Raton, Florida, USA</t>
+          <t>Saas-Fee, Switzerland</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>$50</t>
+          <t>CHF 60</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>finance and real estate</t>
+          <t>All areas of finance (empirical and theoretical contributions)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19th Annual Corporate Governance Academic Conference</t>
+          <t>Finance Down Under: Building on the Best from the Cellars of Finance</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Philadelphia, PA</t>
+          <t>Melbourne, Australia</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>$100</t>
+          <t>US$100 per submission</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Corporate governance, board of directors, executive compensation, ownership structure, shareholder activism, institutional investors, mergers and acquisitions, private equity, sustainable finance, regulation, talent management</t>
+          <t>Asset pricing; corporate finance; all areas of finance; gender finance (session)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Financial Research Association 2025 Annual Conference</t>
+          <t>ASU Sonoran Winter Finance Conference 2026</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-08-31</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Four Seasons Hotel, Las Vegas, Nevada</t>
+          <t>Omni Montelucia, Scottsdale, Arizona</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1169,71 +1169,71 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>New finance papers of general interest to the profession</t>
+          <t>All areas of finance (theoretical and empirical contributions)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21st European Winter Finance Summit</t>
+          <t>The Friends of Women in Finance 4th Symposium in Greater New York (FWFS-GNY)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Saas-Fee, Switzerland</t>
+          <t>Hofstra University, Hempstead, New York, USA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CHF 60</t>
+          <t>0 USD (free)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>empirical and theoretical contributions from all areas of finance</t>
+          <t>fintech and AI, social and behavioral finance, corporate finance and governance, financial markets and investments, climate and sustainable finance, and related fields</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>The 20th Annual Conference on Asia-Pacific Financial Markets (CAFM)</t>
+          <t>Alternative Investments Conference &amp; IPC Current Issues in Alternatives Research Symposium</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2026-03-26</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CONRAD Seoul, Seoul, Korea</t>
+          <t>Chapel Hill, North Carolina, USA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1243,34 +1243,34 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Research papers in all areas of finance</t>
+          <t>private capital and alternative investments including buyouts, distressed securities, mezzanine financing, special situations, private credit, venture capital, hedge funds, real estate, infrastructure, and other real assets</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>14th International Moscow Finance Conference</t>
+          <t>IIM Calcutta Finance Research Conference 2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>HSE University, Moscow and Online</t>
+          <t>IIM Calcutta (and online), Kolkata, India</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1280,256 +1280,256 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Theoretical and empirical research in all fields of finance</t>
+          <t>Finance and/or accounting (any topics related to finance and/or accounting)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>The 35th Conference on Financial Economics and Accounting</t>
+          <t>RBF Global Finance Forum 2026</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>East Lansing, MI</t>
+          <t>Al-Hasa, King Faisal University, Saudi Arabia</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>$250</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Accounting, Economics, Financial Economics, and other related disciplines.</t>
+          <t>Sustainable Finance and Climate Risk; Corporate Finance and Investment Strategies; Banking Stability and Innovation (FinTech, Crypto, CBDCs); Financial Regulation and Risk Governance; Emerging Markets and Geopolitical Risk; ESG Reporting, Valuation and Strategy; Sovereign Risk, Public Finance, and Inflation Dynamics; Machine Learning &amp; AI in Financial Decision-Making</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Future Finance and Economics Association Dubai December 2025</t>
+          <t>Second Winter Finance Summit in Asia</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>Appi Resort, Japan (ANA Crowne Plaza Resort APPI Kogen, Iwate Prefecture, northern Japan)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No submission fees</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>International, Climate and Green finance, their interactions with each other and how they can aid the sustainable growth of economies, corporations and organizations, international financial integration and financial globalization.</t>
+          <t>finance and real estate finance (all areas of finance and real estate finance)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>The 15th Workshop on Exchange Rates</t>
+          <t>13th Annual Conference on Financial Market Regulation (CFMR 2026)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2026-05-07</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2026-05-08</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Banka Slovenije, Slovenia, Ljubljana</t>
+          <t>SEC Headquarters, Washington, DC</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$50 USD</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>FX markets, financial intermediation, macrofinancial stability, drivers of exchange rates and related asset prices from a financial perspective (including the role of intermediaries), exchange rates and the transmission of monetary policy, exchange rate pass-through and the role of dominant currency pricing, FX interventions and the impact of tariff policies, exchange rates and macrofinancial stability frameworks, FX risk premia and their drivers, global linkages between capital flows, foreign exchange rates and risk appetite, the international use of currencies and its implications for exchange rates, digital currencies and their implications for the global monetary and financial system</t>
+          <t>Asset management; Corporate finance; Enforcement; Intermediaries; Market microstructure and trading</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>62nd Annual Eastern Finance Association Meeting</t>
+          <t>RCFS Winter Conference (Review of Corporate Finance Studies Winter Conference)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2026-03-25</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Asheville, NC</t>
+          <t>Royal Sonesta San Juan, Puerto Rico</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>All areas of finance</t>
+          <t>Corporate finance; financial intermediation; household finance; Global and Emerging Markets in Finance (special session)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6th Annual RCF-ECGI Corporate Finance and Governance Conference</t>
+          <t>2026 UBC Winter Finance Conference</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-12-13</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Hybrid: in person at School of Business, Stevens Institute of Technology, Hoboken, NJ, USA, and virtually</t>
+          <t>Whistler, BC, Canada</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>$50 online option, $400 in person (For conference dinner, lunches, and coffee breaks)</t>
+          <t>CAD $100 (approx. USD $75)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>capital structure, corporate and securities law, corporate culture, corporate failure, corporate finance and public policy, corporate governance, corporate restructuring, corporate social responsibility, crowdfunding, dividends, payout policy, and repurchases, entrepreneurial finance, family business, financial contracting, financial intermediation, financial literacy, fintech, fraud, innovation, IPOs and SEOs, mergers and acquisitions, misconduct, private debt, private equity, trade credit, socially responsible investments, sustainable finance, real options, venture capital</t>
+          <t>topics of general interest to the finance profession</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Santiago Finance Workshop (SFW)</t>
+          <t>2nd LSU Finance Mardi Gras Conference</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>School of Business and Economics of the University of Chile, Santiago, Chile</t>
+          <t>Baton Rouge, LA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$50 per paper (USD)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Finance, Financial Economics</t>
+          <t>All topics in finance</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rutgers-ATP India Accounting &amp; Finance Symposium</t>
+          <t>Institute for Quantitative Investment Research Joint UK-Europe Spring Residential Seminar 2026</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-03-24</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>IIM Bangalore, India</t>
+          <t>University Arms Hotel, Cambridge, U.K.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1539,34 +1539,34 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Accounting, Corporate Finance, Asset Pricing, Corporate Governance, Law, Contracting, Sustainability, Corporate social responsibility</t>
+          <t>Recent Developments in Investment Research; any topic relevant to investment management practitioners</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>The 7th China International Forum on Finance and Policy</t>
+          <t>2026 Georgia Tech-Atlanta Fed Household Finance Conference</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-12-13</t>
+          <t>2026-03-26</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Beijing, China</t>
+          <t>Atlanta, Georgia</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1576,108 +1576,108 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Academic research, regulatory policies, real world applications, development of the Chinese financial system</t>
+          <t>Household financial decision-making, inflation and consumer spending, impact of AI and ML model adoption on consumers, savings and investment behavior, retirement decisions and choices, housing and mortgage markets, credit access and debt management, impact of fintech innovation and adoption, behavioral economics and household finance, disparities in credit access, household wealth and inequality, entrepreneurship, small business lending</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>The 19th International Behavioural Finance Conference</t>
+          <t>62nd Annual Eastern Finance Association Meeting</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2026-03-25</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Chicago, US</t>
+          <t>Asheville, North Carolina, USA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$75 USD</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Behavioural finance within financial decision making, investments, financial markets, corporate finance, fund management, banking, asset pricing, forecasting, experimental finance, sociology of finance, banking and regulation, behavioural asset pricing, behavioural corporate finance, biases and heuristics, pandemics, cryptocurrencies, equality, diversity &amp; inclusion, financial analysts, financial behaviour, financial markets, investment decisions, managerial biases, mergers and acquisitions, political environment, retail investors, sentiment, climate finance, CSR and ESG.</t>
+          <t>All areas of finance</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IIM Calcutta-NYU Stern India Research Conference on Zoom</t>
+          <t>Baruch-JFQA Climate Finance and Sustainability Conference</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Stern School of Business New York University (Zoom)</t>
+          <t>Baruch College, City University of New York</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0 USD (no submission fee)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Finance, economics, and accounting covering issues that concern India and emerging economies in general. Preference will be given to papers that address challenges and implications of major policy initiatives in India and Indian financial markets.</t>
+          <t>climate finance, sustainability; intersection of politics and climate finance (political economy, policy uncertainty, regulatory change); climate risk, disclosure, and real estate</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025 FMA Annual Meeting</t>
+          <t>European Winter Finance Conference 2026</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Vancouver, BC, Canada</t>
+          <t>Megéve, France</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1687,108 +1687,108 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Corporate Finance, Asset Pricing / Investments, Fintech and AI, Behavioral, Household Finance, Climate Finance</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SGF 2026 Conference</t>
+          <t>12th International Conference on Sovereign Bond Markets</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-06-02</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-06-03</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Zurich, Switzerland</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CHF 60</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Asset Pricing, Corporate Finance &amp; Governance, Financial Intermediation and Institutions, Behavioral Finance &amp; Household Finance, Financial Markets General</t>
+          <t>The interaction between sovereign bond markets and monetary policy, tariffs, regulation, fiscal policy, political risk, foreign exchange, and the macroeconomy under geopolitical uncertainty; including pricing of financial assets and exchange rates, policy divergence, market participants and institutions, bank risk-taking, cross-border spillovers across economies and asset classes, currency regimes, firm investment decisions, market liquidity, sovereign debt issuance and management, financial stability, bank–sovereign risk (“doom loop”), and related areas.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Last Call Behavioral/Cognitive Finance, Decision/Risk Sciences in the Age of Artificial Intelligence; Entrepreneurship &amp; Economics-2025</t>
+          <t>Energy Finance and Climate Transition Risk Conference</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Silicon Valley/Santa Clara, CA, USA</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2026-04-09</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Making Under Conditions of Risk and Uncertainty; Venture Startups and Exits; Trust, Financial and Capital Markets, Social Capital, Moral Sentiments and Working of the Markets Economy, Capitalism; Investment in and Working of Financial Markets at all levels of functionality and capital allocation-; Financial Management of Companies- both public and private entities; Role of Virtual Assistants; Entrepreneurship, Innovation, and Economic Development; Sustainable Finance: Efficient Financial Markets; Market for Human/Social Capital &amp; Economic Development; Role of Behavioral Finance &amp; Economics in Personal Finance, Retirement Saving &amp; Planning; Teaching, Learning, and Training-; Applications- Behavioral finance in practice.</t>
+          <t>University of North Carolina (Rizzo Conference Center)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>08-17</t>
+          <t>$100 per submission</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Development of new financial &amp; economic models and theories for decision making and risk taking in the post efficient-markets world; Contributions to advance our understanding and knowledge of:</t>
+          <t>Financing Energy Transition; Financing the Capital Requirements in Emerging Economies; Asset Prices and Climate Transition; Corporate Climate Strategies and Financial Implications; Financial Instruments and Climate Transition; Insurance and Climate Resilience</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>65th Annual Meeting of the Southwestern Finance Association (SWFA)</t>
+          <t>World Finance Conference - Ireland</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2026-03-25</t>
+          <t>2026-07-26</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-07-29</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>University of Limerick, Limerick, Ireland</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1798,293 +1798,293 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>AI, Machine Learning, and Finance, Asset Pricing, Banking and Financial Institutions, Corporate Finance, Financial Markets and Investments, Behavioral Finance, ESG and Sustainable Finance, FinTech and Cryptocurrencies, International Finance, Risk Management and Derivatives</t>
+          <t>Finance, Fintech, Economics, Banking</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9th Commodity Markets Winter Workshop</t>
+          <t>Central Bank Payments Conference</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-03-23</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-03-25</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Brand (Vorarlberg), Austria</t>
+          <t>Istanbul, Türkiye</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Full-time PhD students €250, others €300.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Micro &amp; macroeconomic analysis of commodity markets, portfolio allocation/optimization including commodities, pricing, hedging, and risk analysis of commodity derivatives and derivatives portfolios, financialization of commodity markets, the microstructure of commodity markets, corporate finance and risk management related to commodity markets, econometric/statistical analysis of commodity markets, decision models applied to the commodity sector, real option analysis investigating commodity project investment and production decisions, financial market analysis for commodity markets, managerial accounting &amp; economics for commodity related corporations, global and regional trade of commodities, the role of commodity production and consumption for developing countries.</t>
+          <t>Cross-border payments and their evolving architecture; Payment fraud and scams: detection, mitigation, and prevention; Geopolitical shifts and their influence on global or domestic payment systems; Public payment infrastructure like fast payment systems and central bank digital currencies; Stablecoins and their implications for existing payment infrastructure; Payments and financial inclusion: enabling access, equity, and resilience</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>WFEClear, the WFE Clearing and Derivatives Conference 2026</t>
+          <t>7th Analyst Research Conference</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2026-04-21</t>
+          <t>2026-04-16</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2026-04-23</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Toronto, Canada</t>
+          <t>University of Notre Dame, Notre Dame, IN, USA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>USD 0</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Innovations in collateral management, Innovations in options trading, Derivatives in emerging markets, Clearing structures and incentives, Market resilience, Vertical integration and market consolidation, Supervisory structures and data reporting standards, New clearing and risk models, Operational risk, Impact of new technologies, Liquidity risk transmission, The impacts and suitability of the clearing mandate, Barriers impeding cross-border activity, Climate-related issues</t>
+          <t>Current topics in analyst research</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>The CUHK-RAPS-RCFS Conference on Asset Pricing and Corporate Finance</t>
+          <t>Annual VSB Mid-Atlantic Research Conference in Finance (MARC)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-08-31</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Bartley Hall, Villanova University, Villanova, PA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>60 USD</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Asset Pricing, Corporate Finance</t>
+          <t>All topics in finance</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AlgoDefi25 Workshop</t>
+          <t>Joint World Bank - Financial Analysts Journal Conference on “Public Asset Management: Best Practices and Innovations for the Future”</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Politecnico di Milano, Milano, Italy</t>
+          <t>World Bank Headquarters, Washington DC, USA</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>USD 50</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Algo-trading &amp; DeFi Algorithmic Trading, Decentralized Finance and Artificial Intelligence in Capital Markets</t>
+          <t>Public pension funds: risk management methodologies, challenges and best practices; Central Bank Reserve Management; Sovereign Wealth Fund Management; Stability, Guarantee, and Insurance Funds Management; Local Capital Markets and Home Bias; Blended Finance; Transition Finance for Public Investors; Applications to emerging markets contexts are particularly welcome</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5th Frontiers of Factor Investing Conference 2026</t>
+          <t>Seventh Edinburgh Corporate Finance Conference</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-11-02</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2026-04-15</t>
+          <t>2026-05-24</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Lancaster University, England</t>
+          <t>Edinburgh, Scotland</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>£30</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Asset Pricing, Financial Econometrics, Investments, High-Frequency Finance, Factor Allocation, Volatility Modelling, Risk Management, News Sentiment, Sustainable Investing, Machine Learning, Climate Finance, Alternative Data, Fintech, DeFi &amp; Crypto, Extreme Event Modelling</t>
+          <t>Corporate finance</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bretton Woods Accounting and Finance Ski Conference</t>
+          <t>Federal Reserve Bank of Philadelphia Mortgage Market Research Conference</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-05-14</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-05-15</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Bretton Woods, New Hampshire</t>
+          <t>Federal Reserve Bank of Philadelphia, Ten Independence Mall, Philadelphia, PA 19106</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>$79 per paper</t>
+          <t>0 USD (no submission fee)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>All areas of accounting and finance</t>
+          <t>Mortgages and the mortgage market (including residential and commercial mortgages), policy-oriented panel discussions on current issues and market trends</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026 Midwest Finance Association Annual Meeting</t>
+          <t>2026 ITAM Finance Conference</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Radisson Blu Aqua Hotel, Chicago, IL</t>
+          <t>ITAM Santa Teresa campus, Mexico City, Mexico</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>MXN 1,250 (approximately USD 67)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Corporate finance, Financial institutions, Asset pricing, and Asset management</t>
+          <t>All areas of finance and financial economics (broadly defined)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025 VINS Annual Conference</t>
+          <t>The 2025 Cross Country Perspectives in Finance (CCPF) Special Multi-Thematic Conference</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NYU Shanghai, Shanghai, China</t>
+          <t>online only</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2094,34 +2094,34 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Asset pricing, corporate finance, capital markets, market microstructure, behavioral finance, macro-financial linkages, and international finance. Papers that focus on the financial implications of geopolitical risks are particularly encouraged.</t>
+          <t>Sustainable Finance; Financial Innovation, Digital and Crypto Assets, and Fintech; Family Firms and SMEs; The Effectiveness of Financial Regulation</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4th Bonn/Frankfurt/Mannheim Workshop on Digital Finance</t>
+          <t>2nd Workshop on LLMs and Generative AI in Finance at ICAIF '25</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Frankfurt am Main, Germany</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2131,219 +2131,219 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>AI, digital currencies, decentralized finance (DeFi), FinTech</t>
+          <t>Multi-Agentic Systems; Composable and Compound System Design for Explainable Reasoning; Trust and Accountability in AI Systems; Methodologies for Processing Unstructured Data; Technical Challenges of LLMs and NLP; Prompt Engineering; Retrieval-Augmented Generation (RAG); Fine-Tuning LLMs; Text-to-SQL Applications; Evaluation Techniques; Applications in Analyzing Financial Reports and Alternative Data; Financial Modeling; Multi-Lingual ESG Identification and Assessment; Financial Fraud Detection; Enhancing Investor Communication</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IV CEMLA / Dallas Fed Financial Stability Workshop</t>
+          <t>5th Edition Spring Finance Workshop - Call for Papers</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-11-09</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2026-04-21</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>San Antonio, USA</t>
+          <t>Ischgl, Austria</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>70 EUR</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Monetary policy and financial stability: Interactions and trade-offs, Global financial spillovers and the role of the US dollar, Macroprudential policy: Design, transmission, and applications to housing and beyond, Non-bank financial intermediation, market liquidity, and funding fragilities, Emerging macro-financial risks and the digital transformation of finance</t>
+          <t>All fields of finance</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>14th LaBS International Banking Workshop</t>
+          <t>Columbia/BPI Annual Bank Regulation Research Conference</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>HSE University and online</t>
+          <t>Columbia University, New York City, NY, USA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>No conference fee.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Theoretical and empirical research in all fields of Banking or Household finance; current issues concerning banking in emerging and developing markets.</t>
+          <t>All aspects of bank regulation (e.g., capital and liquidity regulation, stress testing, merger policy), with emphasis on the implications of financial innovation for bank regulation and intermediation, including digitalization and real-time payments; topics on digital asset innovation (e.g., stablecoins), regulation and liquidity/credit/market risk implications, regulatory adequacy for innovations, and impact on bank deposit-taking and payments services.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>International Conference in Banking and Financial Studies (ICBFS 2025)</t>
+          <t>2026 Loyola Wealth Management Conference</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Milan (Piacenza), Italy</t>
+          <t>Loyola University Maryland</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0 USD</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Accounting, auditing, and taxation; Asset allocation and valuation; Banking regulation and financial services; Behavioral and experimental finance/economics; Big data in finance, artificial intelligence, and cybersecurity; Climate finance and sustainability; Corporate finance, IPOs, SEOs, M&amp;A, and crowdfunding; Corporate governance; Country funds, sovereign funds, and hedge funds; Debt issues; Digital finance, cryptocurrency finance, and blockchain; Emerging markets finance; Energy finance and environment Issues; Entrepreneurial finance, venture capital, and private equity; Ethical finance, green finance, ESG, and CSR; Financial accounting and regulation; Financial crises, contagion, integration, and global risks interconnection; Financial engineering and derivatives; Foreign currency issue; Global imbalances &amp; sustainability; Household finance, real estate finance, and microfinance; Market behavior efficiency; Multinational financial management; Portfolio management and optimization; Risk management and compliance; Small business finance.</t>
+          <t>mutual funds, ETFs, REITs, private equity, cryptocurrency, and related areas of wealth management</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025 (5th) “Innovation, Sustainability and Regeneration” International Conference</t>
+          <t>Ninth Duke-UNC Asset Pricing Conference</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Universidade Católica Portuguesa, Porto campus, Porto, Portugal</t>
+          <t>Duke University - Durham, North Carolina</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$75 USD</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Innovation and business transformation, circular economy, bioeconomy, leadership and governance for sustainability, sustainable business strategy, social entrepreneurship and responsible business, sustainability literacy and education, sustainable investment and financing, challenges due to the impact of climate change, climate risk management, laws and regulations related to sustainability, arts and sustainability, AI and analytics for sustainability.</t>
+          <t>Asset pricing and macro-finance</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2nd Modern Finance Conference (MFC 2025)</t>
+          <t>The 2025 TSFS International Conference in Finance</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>University of Warsaw in Warsaw, Poland.</t>
+          <t>Kuriat Palace Hotel, Monastir, Tunisia</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>No submission fee is required.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Asset pricing and valuation, Banking and financial services, Behavioral finance and decision making, Capital structure, Corporate finance, Corporate governance, Cryptocurrencies, Derivatives, Economic development, Exchange rates and currency markets, Finance and accounting standards, Financial econometrics and quantitative methods, Financial markets and instruments, Financial management and tax accounting, Financial regulation and supervisions, Financial stability, Fintech and financial innovation, Green finance, Investment and portfolio management, Insurance, Market microstructure, Mergers and acquisitions, Microfinance, Monetary policy and central banking, Risk management, Sustainable finance and responsible investment.</t>
+          <t>Accounting, auditing, and taxation; Asset allocation and valuation; Banking regulation and financial services; Behavioral and experimental finance/economics; Big data in finance, artificial intelligence, and cybersecurity; Climate finance and sustainability; Corporate finance, IPOs, SEOs, M&amp;A, and crowdfunding; Corporate governance; Country funds, sovereign funds, and hedge funds; Debt issues; Digital finance, cryptocurrency finance, and blockchain; Emerging markets finance; Energy finance and environment issues; Entrepreneurial finance, venture capital, and private equity; Ethical finance, green finance, ESG, and CSR; Financial accounting and regulation; Financial crises, contagion, integration, and global risks interconnection; Financial engineering and derivatives; Foreign currency issue; Global imbalances &amp; sustainability; Household finance, real estate finance, and microfinance; Market behavior efficiency; Multinational financial management; Portfolio management and optimization; Risk management and compliance; Small business finance</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sustainable Finance Research Forum Paris 2025</t>
+          <t>The 2026 NYSE Market Microstructure Conference</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Paris, France</t>
+          <t>NYSE | 11 Wall Street, New York, NY 10005</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2353,108 +2353,108 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Impact banking and financial products, Impact finance, Corporate responsibility, Climate finance, Corporate governance, Greenwashing, Corporate culture and values, Ratings, Social matters and education in firms, Responsible investments, Green banking, Long term performance and risks, Green and Social Bonds, Financial education and literacy</t>
+          <t>Real-world applications of market microstructure in U.S. equity and related markets</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025 Colorado Finance Summit</t>
+          <t>2nd Annual Boca Finance and Real-Estate Conference</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-07-01 for regular session, 2025-10-15 for job market session</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Vail, Colorado</t>
+          <t>Florida Atlantic University, Schmidt Family Complex, Boca Raton, Florida, USA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$50 USD</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>All areas of finance, both theoretical and empirical contributions</t>
+          <t>All topics related to finance and real estate; interdisciplinary forum including accounting, economics, finance, and real estate disciplines</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Univ of Texas at Dallas 2025 Annual Finance Conference</t>
+          <t>19th Annual Corporate Governance Academic Conference at Drexel University</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>University of Texas at Dallas, Dallas, TX</t>
+          <t>Philadelphia, PA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>$100 per paper (USD); waived for papers written by current PhD students</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>All areas of finance</t>
+          <t>board of directors; executive compensation; ownership structure; shareholder activism; institutional investors; mergers and acquisitions; private equity; sustainable finance; regulation; talent management; etc.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Startup Cities: Strategies, Stakeholders and Impact</t>
+          <t>Financial Research Association 2025 Annual Conference</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Milan, Italy</t>
+          <t>Four Seasons Hotel, Las Vegas, Nevada</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2464,145 +2464,145 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Micro-geography of entrepreneurship, Relationship between urban contexts and entrepreneurship, Entrepreneurial finance and local impacts, Social inequality and entrepreneurship, Local public policies and entrepreneurship, Sustainability of startup ecosystems</t>
+          <t>General finance topics (finance papers of general interest)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025 FMA Conference on Derivatives &amp; Volatility</t>
+          <t>The 20th Annual Conference on Asia-Pacific Financial Markets (CAFM)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-11-15</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>CONRAD Seoul, Seoul, Korea</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>$50 USD for members and $60 USD for non-members.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Derivatives, Volatility, Financial Management, Research Presentations, Product Innovations, Industry Trends.</t>
+          <t>All areas of finance</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>China Accounting and Finance Review (CAFR) Special Issue Conference 2025</t>
+          <t>14th International Moscow Finance Conference</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-08-02</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Yunnan University of Finance and Economics, Kunming, China</t>
+          <t>HSE University, Moscow and Online</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>There is no paper submission fee for the CAFR Special Issue Conference.</t>
+          <t>Free (no submission fee)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Environmental, Social, and Governance (ESG) topics; Climate finance and biodiversity finance; Artificial Intelligence (AI) and Machine Learning (ML); Big and unstructured data (e.g., voice and facial recognition) in accounting and finance; FinTech (e.g., Blockchain and Bitcoin); Other contemporary accounting and finance issues.</t>
+          <t>All fields of finance; both theoretical and empirical research</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>The 2025 Sydney Banking and Financial Stability Conference</t>
+          <t>The 35th Conference on Financial Economics and Accounting (CFEA)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-08-31</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>University of Sydney Business School</t>
+          <t>East Lansing, Michigan, USA (Marriott East Lansing at University Place)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>There is NO fee for paper submission.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Banking, Financial system stability, Financial Intermediation, Financial Institutions and Markets, Fintech, Cryptocurrency and Central Bank Digital Currency, Corporate Finance, Asset Pricing, Investment and Funds Management, Macro Finance.</t>
+          <t>Accounting, Economics, Financial Economics, and related disciplines; theoretical and empirical contributions; focus on the intersection of accounting and financial economics</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AI Empowering Business, Economics, Finance &amp; Healthcare 2024-2025 Academic Summit of the Digital Economy Open Research Platform</t>
+          <t>Future Finance and Economics Association Dubai December 2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Shenzhen, China</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2612,34 +2612,34 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>AI applications in business, economics, finance and healthcare, including but not limited to: Ethics, governance, and regulation in AI applications, AI applications in financial markets, AI applications in management decisions, AI and sustainability, AI, emerging technologies, and digital economy, AI and healthcare, Cyber security and operational risks as sources of systemic risk, Economic policies in AI era</t>
+          <t>International finance; Climate and Green finance; International financial integration and financial globalization; overlaps and interactions among these areas and their implications for sustainable growth of economies, firms, and organizations</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>The 2025 Massey Sustainable Finance Conference</t>
+          <t>The 15th Workshop on Exchange Rates</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Nanjing, China</t>
+          <t>Banka Slovenije, Slovenia, Ljubljana</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2649,71 +2649,71 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Artificial intelligence and machine learning applications in sustainable finance, alternative data on firms' digital transformation, behavioral finance/economics and its implications to climate transition, blue economy, carbon market and carbon credit, carbon price forecasting techniques, circular economy, corporate social responsibility, climate finance, climate risks: assessment and management, climate transition and portfolio management, cryptocurrency and digital finance interactions with sustainable finance, diversity, equity and inclusion in finance, digital finance, fintech, and sustainability, environmental, social and governance, financial markets and climate transition, green finance, green finance and energy security, renewable energy finance, renewable energy and sustainability, sustainable finance and accounting.</t>
+          <t>The drivers of exchange rates and related asset prices from a financial perspective (including the role of intermediaries); Exchange rates and the transmission of monetary policy; Exchange rate pass-through and the role of dominant currency pricing; FX interventions and the impact of tariff policies; Exchange rates and macrofinancial stability frameworks; FX risk premia and their drivers; Global linkages between capital flows, foreign exchange rates and risk appetite; The international use of currencies and its implications for exchange rates; Digital currencies and their implications for the global monetary and financial system</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4th Contemporary Issues in Financial Markets and Banking Online Conference</t>
+          <t>6th Annual RCF-ECGI Corporate Finance and Governance Conference</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2025-12-13</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Hybrid: in person at School of Business, Stevens Institute of Technology, Hoboken, NJ, USA, and virtually</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>USD 175</t>
+          <t>In person: $400; Online: $50 (USD)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Corporate finance, corporate governance, international financial management, and investment; Financial resilience; liquidity management; crisis investment and crisis portfolio management; banking and financial sector stability and regulation; financial (dis)integration and Brexit; Green and sustainable finance; sustainable energy financing, alternative investments; financial inclusion; Islamic banking; Crowdfunding; decentralised finance; disruptive financial technologies; metaverse and blockchain technologies in finance; artificial intelligence; machine and deep learning applications in finance; Theoretical asset pricing; empirical asset pricing; risk management; behavioural finance; financial applications of game theory and decision theory; computational financial economics (including multi-agent models and econophysics); experimental economics with implications for financial theory and practice; Market microstructure; household finance; real estate and property markets</t>
+          <t>capital structure, corporate and securities law, corporate culture, corporate failure, corporate finance and public policy, corporate governance, corporate restructuring, corporate social responsibility, crowdfunding, dividends, payout policy, and repurchases, entrepreneurial finance, family business, financial contracting, financial intermediation, financial literacy, fintech, fraud, innovation, IPOs and SEOs, mergers and acquisitions, misconduct, private debt, private equity, trade credit, socially responsible investments, sustainable finance, real options, and venture capital</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MIT GCFP 12th Annual Conference</t>
+          <t>Santiago Finance Workshop (SFW)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Cambridge, MA, US</t>
+          <t>Santiago, Chile (School of Business and Economics, University of Chile)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2723,88 +2723,88 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Evaluations of contingent financial, environmental and other liabilities; sovereign wealth funds; state-owned enterprises; public sector pension systems; mark-to-market and fair value accounting applications to government assets and liabilities; valuation and fiscal implications of opaque public assets (e.g., biodiversity and other environmental resources, research and other infrastructure); fiscal effects of monetary policy; government accounting and budgetary rule reform; the economics of privatization; international applications and comparisons.</t>
+          <t>any Finance or Financial Economics topic</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025 UNSW Asset Pricing Workshop</t>
+          <t>Rutgers-ATP India Accounting &amp; Finance Symposium</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Coogee Beach (Sydney, Australia)</t>
+          <t>IIM Bangalore, India</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0 USD (no submission fee)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>All areas of Finance with a special focus on Asset Pricing, Theoretical and empirical papers</t>
+          <t>accounting; corporate finance; asset pricing; corporate governance; law; contracting; sustainability; corporate social responsibility</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SFS Cavalcade Asia-Pacific 2025</t>
+          <t>The 7th China International Forum on Finance and Policy</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-13</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Tsinghua PBC School of Finance, Beijing, China</t>
+          <t>Beijing, China</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Not mentioned in the provided text</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Not mentioned in the provided text</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2nd AI in Finance Conference</t>
+          <t>The 19th International Behavioural Finance Conference, Chicago</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2819,108 +2819,108 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Montréal, Canada</t>
+          <t>Chicago, US</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>CAD 400 (approximately EUR 270 / USD 300)</t>
+          <t>0 USD</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>AI-driven property valuation and appraisal models, Machine learning for real estate market forecasting and trend analysis, AI applications in real estate development and land use planning, AI in real estate investment and portfolio management, AI for sustainable real estate and climate risk assessment, Urban analytics and smart-city applications in real estate, Natural language processing and large language models for real estate market analysis, Computer vision and geospatial analysis for property and neighborhood insights, AI-driven demand for real estate: Data centers and infrastructure, Ethics, fairness, and regulatory challenges in AI-driven real estate.</t>
+          <t>Behavioural finance topics in financial decision making, investments, financial markets, corporate finance, fund management, banking, asset pricing, forecasting, experimental finance and sociology of finance; Banking and Regulation; Behavioural Asset Pricing; Behavioural Corporate Finance; Biases and Heuristics; Pandemic; Cryptocurrencies; Equality, Diversity &amp; Inclusion; Financial Analysts; Financial Markets; Investment Decisions; Managerial Biases; Mergers and Acquisitions; Political Environment; Retail Investors; Sentimento; Climate Finance; CSR and ESG</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Univ of Texas at Dallas 2025 Annual Finance Conference</t>
+          <t>IIM Calcutta-NYU Stern India Research Conference on Zoom</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>University of Texas at Dallas, Dallas, TX</t>
+          <t>Stern School of Business, New York University; Online via Zoom</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>All areas of finance</t>
+          <t>Areas of finance, economics, and accounting focusing on India and emerging economies; preference for papers addressing policy initiatives in India; researchers encouraged to submit papers using Indian data.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Fischer-Shain Research Conference 2025</t>
+          <t>2025 FMA Annual Meeting</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Fox School of Business, Temple University, Philadelphia, PA, USA</t>
+          <t>Vancouver, BC, Canada</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>$50</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Financial intermediation, banking, financial services, early-stage papers that would benefit from feedback and discussion.</t>
+          <t>Corporate Finance; Asset Pricing / Investments; Fintech and AI; Behavioral; Household Finance; Climate Finance</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Behavioral/Cognitive Finance, Decision/Risk Sciences in the Age of Artificial Intelligence; Entrepreneurship &amp; Economics-2025</t>
+          <t>Last Call Behavioral/Cognitive Finance, Decision/Risk Sciences in the Age of Artificial Intelligence; Entrepreneurship &amp; Economics-2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2935,44 +2935,44 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Santa Clara, CA, USA</t>
+          <t>Silicon Valley/Santa Clara, CA, USA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>$99.00 USD</t>
+          <t>USD 99.00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Behavioral/Cognitive Finance &amp; Economics, Neuroscience/Neuromorphic Computing, Quantum Entanglement Political Economy, Biological Anthropology, Brain-Computer Interfaces; Quantum Entanglement, Financial &amp; Economic Models, Decision Making and Risk Taking in the Age of Artificial Intelligence, Venture Startups and Exits, Trust, Financial and Capital Markets, Social Capital, Moral Sentiments and Working of the Markets Economy, Capitalism, Investment in and Working of Financial Markets, Financial Management of Companies, Entrepreneurship, Innovation, and Economic Development, Sustainable Finance, Efficient Financial Markets, Role of Behavioral Finance &amp; Economics in Personal Finance, Retirement Saving &amp; Planning, Teaching, Learning, and Training, etc.</t>
+          <t>Development of new financial and economic models and theories for decision making and risk taking in the post-efficient-markets world; decision making under risk and uncertainty (social-science-based and AI-based models; theoretical and empirical works); venture startups and exits (cognitive manufacturing, additive and smart manufacturing, digital twin, Industrial IoT); trust, financial and capital markets, social capital, moral sentiments and working of the markets economy; investment in and working of financial markets at all levels of functionality and capital allocation (public and private); financial management of companies (public and private entities; role of virtual assistants); entrepreneurship, innovation, and economic development; sustainable finance (efficient financial markets; market for human/social capital &amp; economic development); role of behavioral finance &amp; economics in personal finance, retirement saving &amp; planning; teaching, learning, and training (pedagogical issues; using AI or AGI); applications in behavioral finance in practice (empirical works using AI-generated data; evidence-based retirement planning; trading/investing brain/neuromorphic strategies; nudging clients and markets; trust in investment management, markets, policy, and regulation; behavioral/cognitive value investing; other socio-economic/legal endeavors involving decision making and risk taking)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Inaugural RAPS/RCFS Europe Conference</t>
+          <t>65th Annual Meeting of the Southwestern Finance Association (SWFA)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2026-03-25</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Cambridge University, England</t>
+          <t>Dallas, TX</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2982,108 +2982,108 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Asset Pricing and Corporate Finance</t>
+          <t>AI, Machine Learning, and Finance; Asset Pricing; Banking and Financial Institutions; Corporate Finance; Financial Markets and Investments; Behavioral Finance; ESG and Sustainable Finance; FinTech and Cryptocurrencies; International Finance; Risk Management and Derivatives</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025 FMA Asia/Pacific Conference</t>
+          <t>9th Commodity Markets Winter Workshop</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Taipei, Taiwan</t>
+          <t>Brand (Vorarlberg), Austria</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>$50 for current FMA members; $60 for non-members.</t>
+          <t>€300 (Full-time PhD students €250)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Financial decision-making, current issues in financial management and related topics</t>
+          <t>Micro &amp; macroeconomic analysis of commodity markets; Portfolio allocation/optimization including commodities; Pricing, hedging, and risk analysis of commodity derivatives and derivatives portfolios; Financialization of commodity markets; The microstructure of commodity markets; Corporate finance and risk management related to commodity markets; Econometric/statistical analysis of commodity markets; Decision models (OR/MS models) applied to the commodity sector; Real option analysis investigating commodity project investment and production decisions; Financial market analysis (risk factor models etc.) for commodity markets; Managerial accounting &amp; economics for commodity related corporations; Global and regional trade of commodities; The role of commodity production and consumption for developing countries; Commodity markets in this context include the entire range of commodities, i.e. energy (including electricity and renewables), metals, agricultural products and fish, and also related markets such as markets for shipping and transportation services, emission quotas and weather derivatives.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025 Vietnam Symposium in Climate Transition (VSCT-2025)</t>
+          <t>WFEClear, the WFE Clearing and Derivatives Conference 2026</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-04-21</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-04-23</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>The University of Danang - University of Economics: 71 Ngu Hanh Son street, Ngu Hanh Son district, Danang, Vietnam</t>
+          <t>Toronto, Canada</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>No submission fee is required.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Behavioral finance/economics and its implications to climate transition, Blue economy, Carbon market, Circular economy, Climate change: mitigation and adaptation, Climate change: policy and regulations, Climate finance, Climate risks: assessment and management, Climate transition and COVID-19 recovery, Climate transition and portfolio management, Corporate Social Responsibility (CSR), Energy and environmental issues, Energy markets and energy transition, Environmental, Social and Governance (ESG), Financial markets and climate transition, Geopolitical risk and climate change mitigation, Just climate transition, Low carbon technologies and innovation, Management of extractive industries, Responsible behaviors and sustainability in family business, Responsible business conduct and SDG goals, Role of management, business strategies, and SDG goals, Sustainable business model innovation, Sustainable entrepreneurship, Sustainable infrastructure investment, Sustainable production and consumption, Sustainable key performance indicators</t>
+          <t>Innovations in collateral management (especially to cater for 24/7 trading); innovations in options trading; derivatives in emerging markets; clearing structures and incentives (auction design, corporate governance, client clearing, non-default losses (NDLs), impact of clearing regulations); market resilience (clearing networks, liquidity contagion, cyber threats, collateral flows); vertical integration and market consolidation; supervisory structures and data reporting standards; new clearing and risk models; operational risk (third party risk management, transitioning to the cloud); impact of new technologies (clearing of crypto assets, crypto derivatives, DLT applications, smart contracts, the use of AI); liquidity risk transmission (network models, procyclicality); the impacts and suitability of the clearing mandate; barriers impeding cross-border activity; climate-related issues (green derivatives, clearing carbon emissions, water futures, carbon markets derivatives, etc.)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025 FMA Annual Meeting - Innovation in Teaching Award</t>
+          <t>The CUHK-RAPS-RCFS Conference on Asset Pricing and Corporate Finance</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Vancouver, BC, Canada</t>
+          <t>Hong Kong (Hyatt Regency Sha Tin)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3093,34 +3093,34 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Financial Management, Financial Education, and Innovative Teaching Practices in Finance</t>
+          <t>Asset pricing and corporate finance (including papers spanning both areas)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>China Future Scholars in Finance Forum</t>
+          <t>AlgoDefi25 Workshop</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Beijing, China</t>
+          <t>Politecnico di Milano, Milano, Italy</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3130,93 +3130,93 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Academic papers across all areas of finance, with a preference for research related to China.</t>
+          <t>Algo-trading &amp; DeFi Algorithmic Trading, Decentralized Finance, Artificial Intelligence in Capital Markets; related topics include machine learning techniques, automatic trading strategies, automatic market making, distributed ledger technologies, digital assets, smart contracts, cryptocurrencies</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sustainability at Crossroads: The Edinburgh and International Review of Finance Conference</t>
+          <t>5th Frontiers of Factor Investing Conference 2026</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2026-04-15</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>University of Edinburgh, Edinburgh, Scotland, UK</t>
+          <t>Lancaster University, England</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>GBP 30</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>The evolving regulatory landscape of ESG, Climate risk assessment and measurement, ESG integration in investment decision-making, The role of technology and AI in ESG analysis, Greenwashing and transparency challenges, ESG and corporate financial performance, The impact of ESG on emerging markets, Sustainable finance innovations and best practices</t>
+          <t>Asset Pricing; Financial Econometrics; Investments; High-Frequency Finance; Factor Allocation; Volatility Modelling; Risk Management; News Sentiment; Sustainable Investing; Machine Learning; Climate Finance; Alternative Data; Fintech, DeFi &amp; Crypto; Extreme Event Modelling</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Private Equity Research Consortium (PERC) Symposium</t>
+          <t>2026 Midwest Finance Association Annual Meeting</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Chapel Hill, NC - University of North Carolina at Chapel Hill</t>
+          <t>Radisson Blu Aqua Hotel, Chicago, IL</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>USD 75</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Theoretical and empirical papers in the broad field of private equity, including, but not limited to research on buyouts, distressed securities, mezzanine financing, special situations, private credit, venture capital, real estate, and real assets.</t>
+          <t>corporate finance, financial institutions, asset pricing, asset management</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>IMRC 2025</t>
+          <t>The Tenth Annual Volatility Institute Conference at NYU Shanghai</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3226,12 +3226,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Indian Institute of Management Ahmedabad</t>
+          <t>NYU Shanghai, Shanghai, China</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3241,145 +3241,145 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>The Future of the Economy: People, Organizations, and Policy, Gold and Precious Metals: Business and Economic Policies, Corporate Governance, Ethics and Firm Performance, Finance, Accounting, and Economics, Financial Risk &amp; Analytics.</t>
+          <t>asset pricing; corporate finance; capital markets; market microstructure; behavioral finance; macro-financial linkages; international finance; papers focusing on the financial implications of geopolitical risks</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2nd AI in Finance Conference | FRL Special Issue Workshop on “AI in Corporate Finance”</t>
+          <t>4th Bonn/Frankfurt/Mannheim Workshop on Digital Finance</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Montréal, Canada</t>
+          <t>Frankfurt am Main, Germany</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>CAD 750 (approximately EUR 475 / USD 540) — includes meals, social program, gala dinner, and conference materials.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>AI and machine learning in corporate finance, AI and machine learning in entrepreneurial innovation, AI and machine learning in entrepreneurial fundraising, AI and sustainability, AI applications in financial markets, AI, emerging technologies, and digital finance, Natural language processing, robo-advisory, fraud detection, Ethics, governance, and regulation in AI applications.</t>
+          <t>AI, digital currencies, decentralized finance (DeFi), FinTech</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PhD and Postdoc Workshop on Empirical AI in Finance at the 2nd AI in Finance Conference</t>
+          <t>IV CEMLA / Dallas Fed Financial Stability Workshop</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-11-24</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Montréal, Canada</t>
+          <t>San Antonio, Texas, USA</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0 USD (no registration or submission fees)</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Empirical finance, machine learning, data-driven research, programming in Matlab, WRDS data, replicating top-tier finance papers, AI &amp; Machine Learning in finance, Paper replication in empirical asset pricing.</t>
+          <t>Monetary policy and financial stability: interactions and trade-offs; Global financial spillovers and the role of the US dollar; Macroprudential policy: design, transmission, and applications to housing and beyond; Non-bank financial intermediation, market liquidity, and funding fragilities; Emerging macro-financial risks and the digital transformation of finance</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025 Wharton Conference on Liquidity and Financial Fragility</t>
+          <t>14th LaBS International Banking Workshop</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Philadelphia, PA</t>
+          <t>HSE University (Moscow) and online</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0 USD (free)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Coordination failures, self-fulfilling beliefs, and runs, Fragility in banks and non-bank institutions, Liquidity and frictions in financial markets and macroeconomy, Systemic risk and financial regulation, Monetary policy and financial stability, Dysfunctions, frictions, and fragility in U.S. Treasury markets, Currency dominance, sovereign debt crises, and their link to the financial sector, Geopolitical tensions, trade conflicts, and financial fragility, Inflation, interest rate risks, and implications on financial fragility, The real impact of crises and fragility on firms’ financing and investment policies, FinTech, artificial intelligence (AI), and their implications for financial stability, New payment technologies, digital currencies, and their implications for the monetary system</t>
+          <t>Banking; Household finance; Emerging and developing markets (issues in banking in emerging markets)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>The 2nd Global Conference on Sustainability in Economics, Business and Law</t>
+          <t>International Conference in Banking and Financial Studies (ICBFS 2025)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ho Chi Minh City, Vietnam</t>
+          <t>Milan (Piacenza), Italy</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3389,108 +3389,108 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Environmental sustainability, digital transformation, economic models, business strategies, legal frameworks, contemporary issues in the theory and practice of the twin transition</t>
+          <t>Accounting, auditing, and taxation; Asset allocation and valuation; Banking regulation and financial services; Behavioral and experimental finance/economics; Big data in finance, artificial intelligence, and cybersecurity; Climate finance and sustainability; Corporate finance, IPOs, SEOs, M&amp;A, and crowdfunding; Corporate governance; Country funds, sovereign funds, and hedge funds; Debt issues; Digital finance, cryptocurrency finance, and blockchain; Emerging markets finance; Energy finance and environment issues; Entrepreneurial finance, venture capital, and private equity; Ethical finance, green finance, ESG, and CSR; Financial accounting and regulation; Financial crises, contagion, integration, and global risks interconnection; Financial engineering and derivatives; Foreign currency issue; Global imbalances &amp; sustainability; Household finance, real estate finance, and microfinance; Market behavior efficiency; Multinational financial management; Portfolio management and optimization; Risk management and compliance; Small business finance</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Warwick Business School Gillmore Centre Conference on DeFi &amp; Digital Currencies 2025</t>
+          <t>2025 (5th) “Innovation, Sustainability and Regeneration” International Conference</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Warwick Business School, The Shard, London, UK</t>
+          <t>Universidade Católica Portuguesa, Porto campus, Porto, Portugal</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>£45</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Optimal design, governance and market efficiency of DeFi Protocols (exchanges, lending protocols, NFTs), Economics of the blockchain (mechanism design, security, and welfare), Financial stability, macroeconomic, and political economy implications of stable coin and CBDC designs.</t>
+          <t>Innovation and business transformation; Circular economy; Bioeconomy; Leadership and governance for sustainability; Sustainable business strategy; Social entrepreneurship and responsible business; Sustainability literacy and education; Sustainable investment and financing; Challenges due to the impact of climate change; Climate risk management; Laws and regulations related to sustainability; Arts and sustainability; AI and analytics for sustainability</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Developments in Sustainable Finance: A New Era of Financial Innovation</t>
+          <t>2nd Modern Finance Conference (MFC 2025)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025-11-02</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>American University of Sharjah, Sharjah, United Arab Emirates</t>
+          <t>Warsaw, Poland</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Early bird registration by 2025-09-30: £300 (standard); £100 (PhD students). Standard registration fee: £400 (standard); £200 (PhD students).</t>
+          <t>0 EUR</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Sustainable finance, environmental, social, and governance (ESG) criteria, green and sustainability-linked bonds, ESG-focused investment portfolios, European Union's Sustainable Finance Disclosure Regulation (SFDR), climate risk assessments, optimizing energy consumption, developing sustainable infrastructure, artificial intelligence (AI) and sustainability.</t>
+          <t>Asset pricing and valuation; Banking and financial services; Behavioral finance and decision making; Capital structure; Corporate finance; Corporate governance; Cryptocurrencies; Derivatives; Economic development; Exchange rates and currency markets; Finance and accounting standards; Financial econometrics and quantitative methods; Financial markets and instruments; Financial, management, and tax accounting; Financial regulation and supervisions; Financial stability; Fintech and financial innovation; Green finance; Investment and portfolio management; Insurance; Market microstructure; Mergers and acquisitions; Microfinance; Monetary policy and central banking; Risk management; Sustainable finance and responsible investment</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>24th INTERNATIONAL CONFERENCE C.r.e.d.i.t. 2025 Emerging Global Financial Systems</t>
+          <t>Sustainable Finance Research Forum Paris 2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Venice, Italy</t>
+          <t>Paris, France</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3500,34 +3500,34 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Macroeconomic Polarization and Financial Fragmentation, Geopolitical Risks and Global Financial Stability, Technological Innovation in Finance and Insurance, Risk Management and Resilience, Climate Change as a Systemic Risk, Addressing Socioeconomic Disparities, Innovating Governance for Future Risks.</t>
+          <t>Impact banking and financial products; Impact finance; Corporate responsibility; Climate finance; Corporate governance; Greenwashing; Corporate culture and values; Ratings; Social matters and education in firms; Responsible investments; Green banking; Long term performance and risks; Green and Social Bonds; Financial education and literacy</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025 FMA Annual Meeting - Doctoral Student Consortium, Emerging Scholars Initiative and Innovation in Teaching Award</t>
+          <t>2025 Colorado Finance Summit</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Vancouver, BC, Canada</t>
+          <t>Vail, Colorado</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3537,172 +3537,172 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Advances in research, career advice, job market papers or dissertation proposals, research ideas, education in finance</t>
+          <t>All areas of finance</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025 Global AI Finance Research Conference</t>
+          <t>UTD 2025 Annual Finance Conference</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2025-08-31</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>University of Texas at Dallas, Dallas, TX</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>USD 75</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI), Big data and Machine Learning, Blockchain and Cryptocurrencies, Initial Coin Offerings (ICOs) and Security Token Offerings (STOs), Decentralized Finance (DeFi), Peer-to-peer lending, FinTech regulation, High-frequency trading and market liquidity, Green FinTech</t>
+          <t>All areas of finance</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Finance Research Letters Paper Development Workshop “Artificial Intelligence in Corporate Finance” and PhD / Postdoc Workshop</t>
+          <t>STARTUP CITIES: STRATEGIES, STAKEHOLDERS AND IMPACT</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Dresden, Germany</t>
+          <t>Milan, Italy</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Early-bird registration fee until August 5, 2025: EUR 290 + VAT. For registrations between August 6, 2025, and September 25, 2025: EUR 340 + VAT.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>AI and machine learning in firm valuation, AI and machine learning in mergers and acquisitions (M&amp;A), AI and machine learning in capital structure, AI and dividend policy, AI and agency theory, AI and ESG, AI and corporate governance and risk management, AI fraud detection, Natural language processing and corporate finance, AI applications and regulation.</t>
+          <t>Micro-geography of entrepreneurship; Relationship between urban contexts and entrepreneurship; Entrepreneurial finance and local impacts; Social inequality and entrepreneurship; Local public policies and entrepreneurship; Sustainability of startup ecosystems</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Federal Reserve Day-Ahead Conference on Financial Markets and Institutions</t>
+          <t>2025 FMA Conference on Derivatives &amp; Volatility</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Federal Reserve Bank of Philadelphia, Philadelphia, PA 10 N Independence Mall W, Philadelphia, PA 19106</t>
+          <t>CBOE Global Markets, 433 W. Van Buren Street, Chicago, IL 60607, USA</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>50 USD for members; 60 USD for non-members</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Monetary policy implementation, money markets and central bank balance sheets, Financial stability and the conduct of monetary policy, Maturity transformation, liquidity risk, and runs on financial institutions, Nonbank financial intermediation, Financial markets and the macroeconomy, Real estate and mortgage markets, Household finance and the transmission of monetary policy, Financial innovation and artificial intelligence, Effects of inflation on financial markets and institutions, Interconnectedness of global financial markets, Cryptocurrencies and stablecoins, Emerging risks to financial stability</t>
+          <t>Derivatives and volatility; product innovations and industry trends</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>First Annual Corporate Governance Academic Forum</t>
+          <t>China Accounting and Finance Review (CAFR) Special Issue Conference 2025</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Toronto, Ontario, Canada</t>
+          <t>Yunnan University of Finance and Economics, Kunming, China</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>CAN$100</t>
+          <t>0 USD</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Corporate governance, Boards of directors, Executive compensation and incentives, Mergers, Ownership structure, Shareholder activism, ESG and sustainability governance, Governance of new technologies, Political influences on governance.</t>
+          <t>Environmental, Social, and Governance (ESG) topics; Climate finance and biodiversity finance; Artificial Intelligence (AI) and Machine Learning (ML); Big and unstructured data (e.g., voice and facial recognition) in accounting and finance; FinTech (Blockchain and Bitcoin); Other contemporary accounting and finance issues</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025 Derivative Markets Conference</t>
+          <t>The 2025 Sydney Banking and Financial Stability Conference</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3712,44 +3712,44 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Queenstown, New Zealand</t>
+          <t>Belinda Hutchinson Building H70, The University of Sydney Business School, Sydney, Australia</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No submission fee (0 USD)</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Derivative markets and products</t>
+          <t>Financial Intermediation; Financial Institutions and Markets; Fintech; Cryptocurrency and Central Bank Digital Currency; Financial system stability; Corporate Finance; Asset Pricing; Investment and Funds Management; Macro Finance</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025 New Zealand Finance Meeting</t>
+          <t>AI Empowering Business, Economics, Finance &amp; Healthcare 2024-2025 Academic Summit of the Digital Economy Open Research Platform</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Queenstown, New Zealand</t>
+          <t>Shenzhen, China</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3759,261 +3759,261 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>All topics related to the field of finance</t>
+          <t>Ethics, governance, and regulation in AI applications; AI applications in financial markets; AI applications in management decisions; AI and sustainability; AI, emerging technologies, and digital economy; AI and healthcare; Cyber security and operational risks as sources of systemic risk; Economic policies in AI era</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CEPR European Conference on Household Finance 2025</t>
+          <t>The 2025 Massey Sustainable Finance Conference at Nanjing, China</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Stockholm, Sweden</t>
+          <t>Nanjing, China</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>50 Euro</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Asset allocation and debt behaviour over the life cycle, Financing retirement and the demographic transition, Consumer indebtedness, financial distress, and default decisions, Behavioural approaches to household finance, Financial literacy and financial education programs, Trust, subjective expectations, pessimism, and financial decisions, International comparisons of household finances using micro-data, Financial advice and legal protection of investors and borrowers, Financial innovation and household finances, Households liquidity and risk management, Climate change, sustainability, and household finances.</t>
+          <t>Artificial intelligence and machine learning applications in Sustainable Finance; Alternative data on firms' digital transformation; Behavioral Finance/Economics and its implications to climate transition; Blue economy; Carbon market and carbon credit; Carbon price forecasting techniques; Circular economy; Corporate Social Responsibility; Climate Finance; Climate risks: assessment and management; Climate transition and portfolio management; Cryptocurrency and digital finance interactions with Sustainable Finance; Diversity, equity and inclusion in Finance; Digital finance, Fintech, and sustainability; Environmental, Social and Governance; Financial markets and climate transition; Green Finance; Green Finance and energy security; (Renewable) Energy Finance; Renewable Energy and Sustainability; Sustainable Finance and Accounting</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>12th Annual Conference on Financial Market Regulation (CFMR 2025)</t>
+          <t>4th Contemporary Issues in Financial Markets and Banking Online Conference</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SEC Headquarters, Washington, DC</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>USD 175</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Financial Market Regulation</t>
+          <t>Corporate finance, corporate governance, international financial management, and investment; Financial resilience; liquidity management; crisis investment and crisis portfolio management; banking and financial sector stability and regulation; financial (dis)integration and Brexit; Green and sustainable finance; sustainable energy financing; alternative investments; financial inclusion; Islamic banking; Crowdfunding; decentralised finance; disruptive financial technologies; metaverse and blockchain technologies in finance; artificial intelligence; machine and deep learning applications in finance; Theoretical asset pricing; empirical asset pricing; risk management; behavioural finance; financial applications of game theory and decision theory; computational financial economics (including multi-agent models and econophysics); experimental economics with implications for financial theory and practice; Market microstructure; household finance; real estate and property markets.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Haskell &amp; White Corporate Reporting and Governance Conference</t>
+          <t>MIT GCFP 12th Annual Conference</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Fullerton, CA</t>
+          <t>Cambridge, MA, US</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>No registration fee</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>All areas of accounting and finance, including research that overlaps these disciplines, research exploring the applications of machine learning, artificial intelligence, and big data in financial and accounting contexts.</t>
+          <t>Evaluations of contingent financial, environmental and other liabilities; sovereign wealth funds; state-owned enterprises; public sector pension systems; mark-to-market and fair value accounting applications to government assets and liabilities; valuation and fiscal implications of opaque public assets (e.g., biodiversity and other environmental resources, research and other infrastructure); fiscal effects of monetary policy; government accounting and budgetary rule reform; the economics of privatization; international applications and comparisons; plus the conference tracks: Evaluation and Management of Government Financial Institutions; Regulation of Financial Markets and Institutions; Risk Measurement and Management in the Public Sector.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025 Federal Reserve Stress Testing Research Conference</t>
+          <t>2025 UNSW Asset Pricing Workshop</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Boston, Massachusetts</t>
+          <t>Coogee Beach, Sydney, Australia (Coogee Surf Life Saving Club)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0 AUD</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>The economic and macroprudential effects of stress tests and bank regulation, Balancing the costs and benefits of bank regulation, The roles and risks of nonbank financial intermediaries and their interplay with the banking system, Financial instruments for risk transfer and their implications, Modeling bank revenues, credit, and counterparty risks, Interest-rate, liquidity, and inflation risk in the banking system, Design of macroeconomic and financial market scenarios, Regulatory and supervisory approaches to non-financial risks, such as cybersecurity and operational risk, and emerging technologies, such as AI</t>
+          <t>all areas of Finance with special focus on Asset Pricing; theoretical and empirical papers</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Finance and Real Estate Conference 2025</t>
+          <t>SFS Cavalcade Asia-Pacific 2025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Oxford, Oh</t>
+          <t>Tsinghua PBC School of Finance, Beijing, China</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>No submission fee</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Asset pricing and valuation, Corporate finance, Real estate markets and investment, Risk management and financial regulation, Urban economics and housing policy, Sustainable and green finance, Behavioral finance in real estate</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Melbourne Asset Pricing Meeting</t>
+          <t>AI in Real Estate | Day 3 of the 2nd AI in Finance Conference</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Melbourne, Australia</t>
+          <t>Montréal, Canada</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>No submission fee.</t>
+          <t>CAD 400</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Theoretical and empirical models of asset prices and returns, return predictability, empirical methodology, macro-finance, the study of financial institutions as related to asset prices, information and liquidity in asset markets, behavioural investment studies, asset market structure and microstructure, risk analysis, hedge funds, mutual funds, pension funds, ESG, the impact of COVID19, and alternative investments.</t>
+          <t>AI-driven property valuation and appraisal models; Machine learning for real estate market forecasting and trend analysis; AI applications in real estate development and land use planning; AI in real estate investment and portfolio management; AI for sustainable real estate and climate risk assessment; Urban analytics and smart-city applications in real estate; Natural language processing and large language models for real estate market analysis; Computer vision and geospatial analysis for property and neighborhood insights; AI-driven demand for real estate: Data centers and infrastructure; Ethics, fairness, and regulatory challenges in AI-driven real estate</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EUROFIDAI-ESSEC Paris December Finance Meeting</t>
+          <t>UTD 2025 Annual Finance Conference</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Pullman Paris Montparnasse Hotel, Paris, France</t>
+          <t>University of Texas at Dallas, Dallas, TX</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>50€</t>
+          <t>75 USD per paper</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4025,64 +4025,64 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2nd Knut Wicksell Conference on Crypto and Fintech</t>
+          <t>Academy of Behavioral Finance &amp; Economics Annual Conference (ABF&amp;E Annual Meeting)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Lund, Sweden</t>
+          <t>Santa Clara, CA, USA</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$99.00 USD</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Crypto and blockchain technology (asset pricing, systemic risk, market microstructure), Crypto markets, households, and the real economy, Environmental and social impact of crypto markets, Central Bank Digital Currencies (CBDCs), Financial technology (Fintech), Payment systems (payment firms, consumer experiences, bank competition), Interaction between traditional finance and decentralized finance</t>
+          <t>Behavioral/Cognitive Finance &amp; Economics; Neuroscience/Neuromorphic Computing; Quantum Entanglement Political Economy; Biological Anthropology; Brain-Computer Interfaces; development of new financial and economic models and theories for decision making and risk taking in AI; decision making under risk and uncertainty; venture startups and exits; trust in financial markets and capital markets; investment in and functioning of financial markets; financial management of public and private companies; entrepreneurship, innovation, and economic development; sustainable finance; role of behavioral finance in personal finance, retirement saving and planning; teaching, learning, and training with AI/AGI; empirical/AI-generated data applications; behavioral/cognitive value investing; nudging clients and markets; trading/neuromorphic strategies.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025 Vietnam Symposium in Banking and Finance (VSBF-2025)</t>
+          <t>Inaugural RAPS/RCFS Europe Conference</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Banking Academy : 12 Chua Boc Street, Dong Da District, Hanoi, Vietnam</t>
+          <t>Cambridge University, England</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4092,108 +4092,108 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Asset pricing and allocation, Banking regulation and financial services, Behavioral finance, Capital market integration, Corporate finance, IPOs, SEOs, M&amp;A Corporate governance, Digital finance, Dynamics of international capital markets, Emerging markets finance, Entrepreneurial finance, Finance and sustainability, Financial crises and contagion, Financial econometrics, Financial engineering and derivatives, Financial markets, institutions, and money, Financial modeling, Financial policy and regulation, Investment funds, Macro-financial linkages, Market behavior and efficiency, Market linkages, financial crises, and contagion, Market microstructure, Monetary and financial macroeconomics, Portfolio management and optimization, Risk management, AI in banking and finance.</t>
+          <t>Asset Pricing; Corporate Finance</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>The Second PHBS-IER Conference on "Demographic Change and Migration: Facts, Models and Policy Implications"</t>
+          <t>2025 FMA Asia/Pacific Conference</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Peking University HSBC Business School, Shenzhen, China</t>
+          <t>National Taiwan University, Taipei, Taiwan</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>USD 50 (members); USD 60 (non-members)</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Driving factors of demographic change: empirics and modeling of fertility and mortality, Internal and international migration flows induced by demographic change, The impact of population aging on public finances and the future of social insurance systems (social security, health care, long-term care etc.), Demographic change, migration flows and national and local labor markets, Migration and the spatial distribution of economic activity, The interaction between demographic change, technological progress, and economic growth, The impact of demographic change on housing and financial asset prices and returns.</t>
+          <t>Papers in all areas of finance; financial decision-making; financial management; related topics</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Frontiers in Quantitative Finance Conference</t>
+          <t>2025 Vietnam Symposium in Climate Transition (VSCT-2025)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>New York Marriott Marquis</t>
+          <t>The University of Danang - University of Economics, 71 Ngu Hanh Son street, Ngu Hanh Son district, Danang, Vietnam</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Free (no submission fee)</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Quantitative methods and asset pricing, work related to the research of Professor Sanford “Sandy” J. Grossman</t>
+          <t>Behavioral finance/economics and its implications to climate transition; Blue economy; Carbon market; Circular economy; Climate change: mitigation and adaptation; Climate change: policy and regulations; Climate finance; Climate risks: assessment and management; Climate transition and COVID-19 recovery; Climate transition and portfolio management; Corporate Social Responsibility (CSR); Energy and environmental issues; Energy markets and energy transition; Environmental, Social and Governance (ESG); Financial markets and climate transition; Geopolitical risk and climate change mitigation; Just climate transition; Low carbon technologies and innovation; Management of extractive industries; Responsible behaviors and sustainability in family business; Responsible business conduct and SDG goals; Role of management, business strategies, and SDG goals; Sustainable business model innovation; Sustainable entrepreneurship; Sustainable infrastructure investment; Sustainable production and consumption; Sustainable key performance indicators</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>NTU AI &amp; Business Forum: NTU Summer School &amp; Conference on AI for Finance</t>
+          <t>2025 FMA Annual Meeting - Innovation in Teaching Award</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Nanyang Business School, Nanyang Technological University (Singapore)</t>
+          <t>Vancouver, BC, Canada</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4203,34 +4203,34 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Financial implications and applications of artificial intelligence, adoption of AI in finance, asset pricing, portfolio management, corporate finance, financial accounting, machine learning, financial forecasting, deep learning for asset pricing, reinforcement learning for trading and portfolio management, computational linguistics and natural language processing (NLP) in finance, algorithmic and high-frequency trading strategies, AI in Risk management and credit scoring, AI-based Portfolio optimization, Robo-advisory services and fraud detection, financial forecasting and market sentiment analysis using AI/ML, reinforcement learning for dynamic trading, AI regulations and ethical decision-making in Financial AI.</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>International Society for the Advancement of Financial Economics 2025 Conference (ISAFE – China)</t>
+          <t>2025 Inaugural China Future Scholars in Finance Forum</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Beijing - China</t>
+          <t>Beijing, China</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4240,108 +4240,108 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>AI and finance, Asset allocation and valuation, Central banking and monetary policy, Corporate finance and governance, Country funds and hedge funds, Emerging markets finance, Empirical assets pricing, Financial accounting, law, and regulation, Financial crises and contagion, Financial econometrics, Financial engineering and derivatives, Financial intermediation, institutions &amp; services, Financial markets and market microstructure, FinTech: Revealing Potential and Challenges, Foreign currency issues, International finance and capital markets, IPOs, SEOs, M&amp;As &amp; Divestitures, Market behavior efficiency, Multinational financial management, Personal finance and household finance, Portfolio management and optimization, Quantitative finance and financial econometrics, Real estate finance, Risk management, Small business and entrepreneurial finance, Sustainable finance, ethics, and CSR.</t>
+          <t>All areas of finance; preference for research related to China</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Dauphine Finance PhD Workshop</t>
+          <t>Sustainability at Crossroads: The Edinburgh and International Review of Finance Conference</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>University of Edinburgh, Edinburgh, Scotland, UK</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Free (no submission fee)</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Papers in all areas of Finance and Financial Economics</t>
+          <t>The evolving regulatory landscape of ESG; Climate risk assessment and measurement; ESG integration in investment decision-making; The role of technology and AI in ESG analysis; Greenwashing and transparency challenges; ESG and corporate financial performance; The impact of ESG on emerging markets; Sustainable finance innovations and best practices</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>The 19th NYCU International Finance Conference</t>
+          <t>17th Annual Private Equity Research Consortium (PERC) Symposium</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>National Yang Ming Chiao Tung University, Hsinchu, Taiwan</t>
+          <t>Chapel Hill, North Carolina, USA</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>US$250</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Private equity, including buyouts, distressed securities, mezzanine financing, special situations, private credit, venture capital, real estate, and real assets</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Symposium on Financial Markets in the Era of Climate Change</t>
+          <t>IMRC 2025</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Madrid, Spain</t>
+          <t>Indian Institute of Management Ahmedabad</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4351,108 +4351,108 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Climate risks, Green financial products, Sustainable investing, Corporate green strategy, Environmental externalities, Climate-related regulation</t>
+          <t>Track 03: The Gold and Precious Metals: Business and Economic Policies — topics include sourcing of precious metals, mining, export–import trading, sales and market, exchanges, recycling, hallmarking, ethics and responsible business, logistics and supply chain, labor practices, formal/informal business models, investment products (gold, precious metals, gems), central banks, bullion banking, malpractices, regulations, governing policies, sustainability and green methods, and applications of technology such as blockchain and AI/ML in the gold supply chain; comparative global policy studies, heritage and cultural dimensions; empirical and modeling research on real-world sector challenges. Track 04/05: The Finance, Accounting, and Economics (FAE) Track — topics include asset pricing (theoretical and empirical), IFRS/financial reporting quality, market microstructure and algorithmic trading, insurance/reinsurance/pension funds, business cycles, corporate finance and capital structure, dividend policy, financial policy and regulation, liquidity in commodity derivatives markets, public economics, asset allocation and investment management, computational finance and econometrics, monetary policy and banking, financial risk analytics and management, financial analytics, FDI and portfolio capital flows, household finance, international trade and exchange rates, financial crises and systemic risk, and global value chains and firm performance.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>The 38th Australasian Finance and Banking Conference</t>
+          <t>2nd AI in Finance Conference | FRL Special Issue Workshop on “AI in Corporate Finance”</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2025-12-13</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sydney, Australia</t>
+          <t>Montréal, Canada</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>CAD 750 (50% discount for PhD students and online presenters)</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Opportunities and Risks of AI Technology in Finance, CBDCs, Fintech, Digital Finance, Sustainable Investment</t>
+          <t>AI and machine learning in corporate finance; AI and machine learning in entrepreneurial innovation; AI and machine learning in entrepreneurial fundraising; AI and sustainability; AI applications in financial markets; AI, emerging technologies, and digital finance; Natural language processing, robo-advisory, fraud detection; Ethics, governance, and regulation in AI applications</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025 GSU-MS AI and FinTech Conference</t>
+          <t>PhD and Postdoc Workshop on Empirical AI in Finance at the 2nd AI in Finance Conference</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Buckhead Center of Georgia State University, Atlanta, GA</t>
+          <t>Montréal, Canada</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>$100</t>
+          <t>0 USD</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>AI Methods and Applications in Finance and Economics, Impact of AI and New Technologies, Risk and Regulation of AI and FinTech, Other AI and FinTech topics (Big Data, Digital Economy, DeFi, Cryptoeconomics and other relevant topics)</t>
+          <t>Empirical finance; machine learning / AI in finance; data-driven research; Matlab programming; WRDS data (CRSP, Compustat, IBES); replication of top-tier finance papers using ML; forecasting stock returns with ML; empirical asset pricing; replication of foundational asset pricing tests</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2nd Financial Fraud, Misconduct and Market Manipulation Conference</t>
+          <t>2025 Wharton Conference on Liquidity and Financial Fragility</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Lancaster University, England</t>
+          <t>Philadelphia, PA</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4462,34 +4462,34 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Theoretical and empirical analysis of financial fraud, case studies of recent instances of market misconduct, insider trading, implication of financial fraud/market manipulation for market efficiency, stability, and asset pricing, market manipulation at a high-frequency (intraday) level, fraudulent activities and crypto currency markets, social networks, fake news, and their effect on financial markets, money laundering and banking, conflicts of interests and their implications for various stake holders and financial markets, hedge funds/mutual funds and their involvement in market misconduct, statistical/ machine learning methods for fraud detection, cyber security and cyber risk management, regulatory response to financial misconduct, unintended consequences of politics and regulations.</t>
+          <t>Coordination failures, self-fulfilling beliefs, and runs; Fragility in banks and non-bank institutions; Liquidity and frictions in financial markets and macroeconomy; Systemic risk and financial regulation; Monetary policy and financial stability; Dysfunctions, frictions, and fragility in U.S. Treasury markets; Currency dominance, sovereign debt crises, and their link to the financial sector; Geopolitical tensions, trade conflicts, and financial fragility; Inflation, interest rate risks, and implications on financial fragility; The real impact of crises and fragility on firms’ financing and investment policies; FinTech, artificial intelligence (AI), and their implications for financial stability; New payment technologies, digital currencies, and their implications for the monetary system</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Future Finance Fest (3f)</t>
+          <t>The 2nd Global Conference on Sustainability in Economics, Business and Law</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Vilnius, Lithuania</t>
+          <t>Ho Chi Minh City, Vietnam</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4499,71 +4499,71 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Finance academics, fintech, finance innovation, future of finance.</t>
+          <t>sustainability in economics, business and law; twin transition (green transition and digital transformation); economic models, business strategies, and legal frameworks; theoretical, conceptual, empirical research in economics, business, management and law</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Johns Hopkins Carey Finance Conference</t>
+          <t>Warwick Business School Gillmore Centre Conference on DeFi &amp; Digital Currencies 2025</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Johns Hopkins Carey Campus, 100 International Drive, Baltimore, MD</t>
+          <t>Warwick Business School, The Shard, London, UK</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>£45 (GBP)</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>All areas of finance, particularly early-stage papers that would benefit from feedback and discussion</t>
+          <t>DeFi protocol design/governance/market efficiency; Economics of the blockchain (mechanism design, security, welfare); Financial stability, macroeconomic, and political economy implications of stablecoins and CBDC designs;; All areas of DeFi and Digital Currencies</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>TSE Industrial Organisation &amp; Finance Conference</t>
+          <t>Developments in Sustainable Finance: A New Era of Financial Innovation</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-11-02</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Toulouse School of Economics</t>
+          <t>American University of Sharjah, Sharjah, United Arab Emirates</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4573,71 +4573,67 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Competition between financial service providers, Entry of new players in the financial intermediation chain (Fintechs, NBFIs), Integration between different financial services (e.g., payment and credit) or between financial services and other activities (e.g., social networks and payment), The role of data in the provision of financial services, Open Banking, The use of structural estimation techniques to analyze the demand for financial products and/or strategic interactions between financial firms, The impact of the organization of financial firms for product market competition.</t>
+          <t>sustainable finance developments; ESG integration; green and sustainability-linked bonds; ESG-focused investment portfolios; climate risk assessment; AI and emerging technologies in sustainable finance; regulatory frameworks (e.g., SFDR); policy and geopolitical influences on sustainability finance; innovative financial instruments for sustainability</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2nd Exeter Sustainable Finance Conference</t>
+          <t>C.r.e.d.i.t. 2025 (24th International Conference)</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>tical Risks and Global Financial Stability: Implications of geopolitical tensions on global financial markets; Risk management strategies for financial institutions navigating geopolitical uncertainty; The role of national and international economic policies shaping a new geopolitical and economic order</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Global Challenges: Macroeconomic Polarization and Financial Fragmentation; Economic bifurcation between advanced and emerging markets; Trade conflicts and their financial spillovers; Policy responses to maintain global economic stability</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>No submission fee.</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Sustainable and responsible finance, interdisciplinary research that draws together approaches and perspectives from different disciplines.</t>
-        </is>
-      </c>
+          <t>Innovation in Finance and Insurance: Digital transformation in the insurance sector; Financing Deep Tech; Regulating innovation to balance opportunity and risk</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Hybrid Conference on Islamic Law and Finance</t>
+          <t>2025 FMA Annual Meeting - Doctoral Student Consortium, Emerging Scholars Initiative and Innovation in Teaching Award</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Durham University Business School (Waterside Building Campus), UK</t>
+          <t>Vancouver, BC, Canada</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4647,108 +4643,108 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Financial Innovation (including FinTech); Shaping Monetary Policy from a Maqasid perspective; Designing Fiscal Policy from a Maqasid perspective; Artificial Intelligence (AI) in Islamic Finance; Legal and Regulatory Frameworks; Access to Finance and Social Welfare; Corporate Governance and Shari’ah Compliance; Purpose-Based vs. Problem-Based Approaches; Cultural Dimensions in Islamic Finance; Islamic Finance for Global Challenges; Governance Mechanisms and Stakeholder Accountability.</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>21st Annual Conference of the Asia-Pacific Association of Derivatives (APAD)</t>
+          <t>2025 Global AI Finance Research Conference</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Busan, Korea</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>US$ 200, which is waived for presenters of accepted papers.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Derivatives, Volatility, Risk Management, Asset Pricing, Investments, Corporate Finance, Corporate Governance, Market Microstructure, Banking, Personal and Household Finance, ESG and Climate Finance, AI and Big Data, Blockchain and Crypto Assets, Fintech, Regulation, Behavioral Finance</t>
+          <t>Artificial Intelligence (AI), Big data and Machine Learning; Blockchain and Cryptocurrencies; Initial Coin Offerings (ICOs) and Security Token Offerings (STOs); Decentralized Finance (DeFi); Peer-to-peer lending; FinTech regulation; High-frequency trading and market liquidity; Green FinTech</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>EBA's 14th Policy Research Workshop: Bridging capital and growth - the role of financial structures and intermediaries</t>
+          <t>Finance Research Letters Paper Development Workshop “Artificial Intelligence in Corporate Finance” and PhD / Postdoc Workshop</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>EBA premises (Paris, France) and remotely</t>
+          <t>Dresden, Germany</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Early-bird EUR 290 + VAT; Regular EUR 340 + VAT; 50% discount for scholars from low-income countries and PhD students presenting their single-author paper</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>The impact of global capital flows on market efficiency and the role of financial intermediation, Access to finance by entrepreneurs ensuring that capital is used in the most productive ways, Provision of mechanisms for managing risk and contribution from regulatory frameworks on the functioning and stability of financial intermediaries, Incorporation of environmental, social, and governance (ESG) supporting sustainable development and growth, Advances in digital finance initiatives and better alignment with regulation and policies.</t>
+          <t>AI and machine learning in firm valuation; AI and machine learning in mergers and acquisitions (M&amp;A); AI and machine learning in capital structure; AI and dividend policy; AI and agency theory; AI and ESG; AI and corporate governance and risk management; AI fraud detection; Natural language processing and corporate finance; AI applications and regulation</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>5th CEPR-Stigler Center Conference on Political Economy of Finance: Governance in a Polarized World</t>
+          <t>Federal Reserve Day-Ahead Conference on Financial Markets and Institutions</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Federal Reserve Bank of Philadelphia, Philadelphia, PA 10 N Independence Mall W, Philadelphia, PA 19106</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4758,71 +4754,71 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Corporate governance in a more conflictual world, a divided society and politicized corporations' response to major societal challenges such as climate change or economic decline, the role of inequality and politicization in shaping governance choices, the trade-offs faced by voters, businesses and governments, strategies for fostering trust and cohesion in an era of polarization.</t>
+          <t>Monetary policy implementation, money markets and central bank balance sheets; Financial stability and the conduct of monetary policy; Maturity transformation, liquidity risk, and runs on financial institutions; Nonbank financial intermediation; Financial markets and the macroeconomy; Real estate and mortgage markets; Household finance and the transmission of monetary policy; Financial innovation and artificial intelligence; Effects of inflation on financial markets and institutions; Interconnectedness of global financial markets; Cryptocurrencies and stablecoins; Emerging risks to financial stability</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Inaugural Finance Conference Vitznau 2025</t>
+          <t>First Annual Corporate Governance Academic Forum</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Vitznau, Switzerland</t>
+          <t>Toronto, Ontario, Canada</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>CAN$100 per paper</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Asset pricing, Machine learning for the cross-section of returns, Big data analysis, Large language models and unstructured data, Non-standard datasets for return predictions, Systematic expectations mistakes, and predictable returns, Feasible and implementable portfolios, Predictable turning points</t>
+          <t>Boards of directors; executive compensation and incentives; mergers; ownership structure; shareholder activism; ESG and sustainability governance; governance of new technologies; political influences on governance</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025 Canadian Derivatives Institute (CDI) Conference</t>
+          <t>2025 Derivative Markets Conference</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>HEC Montréal’s Downtown Campus (Hélène-Desmarais Building), Montréal (Qc), Canada</t>
+          <t>Queenstown, New Zealand</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4832,34 +4828,34 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Derivatives</t>
+          <t>derivative markets and products</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>The Institute for Quantitative Investment Research, Residential Seminar</t>
+          <t>2025 New Zealand Finance Meeting</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Eastwell Manor, Kent, United Kingdom</t>
+          <t>Queenstown, New Zealand</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4869,71 +4865,71 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Factors and Macro Risks in a Changing World, Diversification in an inflationary environment, AI applications in investment management, Quantitative investing in private assets, Causality and models of expected returns</t>
+          <t>All topics related to finance</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>8th CEIBS Finance/Accounting Symposium</t>
+          <t>CEPR European Conference on Household Finance 2025</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Shanghai, China</t>
+          <t>Stockholm, Sweden</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>50 Euro (waived if all authors are PhD students)</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Corporate Finance and Governance, Private Equity and Venture Capital, Fintech, and Political Economy of Finance. Papers in related subfields of finance, accounting, and economics</t>
+          <t>Asset allocation and debt behaviour over the life cycle; Financing retirement and the demographic transition; Consumer indebtedness, financial distress, and default decisions; Behavioral approaches to household finance; Financial literacy and financial education programs; Trust, subjective expectations, pessimism, and financial decisions; International comparisons of household finances using micro-data; Financial advice and legal protection of investors and borrowers; Financial innovation and household finances; Households liquidity and risk management; Climate change, sustainability, and household finances</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>12th Asset Pricing Workshop</t>
+          <t>12th Annual Conference on Financial Market Regulation (CFMR 2025)</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>2025-05-16</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Theodor W. Adorno Platz 3, House of Finance, 60323 Frankfurt</t>
+          <t>SEC Headquarters, Washington, DC</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4943,34 +4939,34 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>All areas of asset pricing (theoretical, empirical, intermediary, macrofinance etc.).</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>9th SAFE Market Microstructure Conference</t>
+          <t>Haskell &amp; White Corporate Reporting and Governance Conference</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Theodor W. Adorno Platz 3, House of Finance, 60323 Frankfurt</t>
+          <t>Fullerton, CA</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4980,14 +4976,14 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Current developments in the field of market microstructure</t>
+          <t>All areas of accounting and finance, including research that overlaps these disciplines; applications of machine learning, artificial intelligence, and big data in financial and accounting contexts</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>14th Fixed Income and Financial Institutions (FIFI) Conference</t>
+          <t>2025 Federal Reserve Stress Testing Research Conference: Call for Papers</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4997,239 +4993,235 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>University of South Carolina in Columbia, SC</t>
+          <t>Boston, Massachusetts</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Fixed income, commercial and investment banks, asset management and mutual fund companies, short sellers, hedge funds, broker-dealers, insurance companies, PE &amp; VCs, FinTech companies, and more.</t>
+          <t>The economic and macroprudential effects of stress tests and bank regulation; Balancing the costs and benefits of bank regulation; The roles and risks of nonbank financial intermediaries and their interplay with the banking system; Financial instruments for risk transfer and their implications; Modeling bank revenues, credit, and counterparty risks; Interest-rate, liquidity, and inflation risk in the banking system; Design of macroeconomic and financial market scenarios; Regulatory and supervisory approaches to non-financial risks, such as cybersecurity and operational risk, and emerging technologies, such as AI</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>The 8th Cryptocurrency Research Conference</t>
+          <t>Finance and Real Estate Conference 2025</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>National and Kapodistrian University of Athens, Athens, Greece</t>
+          <t>Oxford, Ohio</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>£400</t>
+          <t>No submission fee</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>AI and Machine Learning in Crypto and Blockchain, Big Data in Fintech, Blockchain in Global Finance, Crypto Asset Efficiency and Market Behaviour, Central Bank Digital Currencies (CBDCs), Crowdfunding and P2P Lending, Cybercrime and Cybersecurity in Fintech, Digital Banking and the Digital Economy, Decentralized Autonomous Organizations (DAOs), Decentralized Finance (DeFi), DEXs vs. CEXs: Market Dynamics, Environmental Sustainability of Cryptocurrency, Fintech Regulation and Compliance, Cryptocurrency and Financial Stability, Media and Investor Attention on Fintech and DeFi, Non-Fungible Tokens (NFTs) and Digital Assets, Natural Language Processing (NLP) in Fintech, Blockchain Opportunities for Entrepreneurs, Russian Sanctions and the Fintech Industry, Stablecoins: Design and Risks, AI-Driven Innovation in Crypto Markets, Preparing for post-Quantum Blockchain and other relevant topics.</t>
+          <t>Asset pricing and valuation; Corporate finance; Real estate markets and investment; Risk management and financial regulation; Urban economics and housing policy; Sustainable and green finance; Behavioral finance in real estate</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>6th CEAR-RSI Household Finance Workshop</t>
+          <t>Melbourne Asset Pricing Meeting</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2025-11-15</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Montréal (Québec), Canada</t>
+          <t>Melbourne, Australia</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No submission fee</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Household financial decision-making, consumption-saving decisions and investment choices, financial literacy and education, pensions and retirement, financial planning and advice, financial delinquency and bankruptcy, household insurance and risk management.</t>
+          <t>Theoretical and empirical models of asset prices and returns; return predictability; empirical methodology; macro-finance; the study of financial institutions as related to asset prices; information and liquidity in asset markets; behavioural investment studies; asset market structure and microstructure; risk analysis; hedge funds; mutual funds; pension funds; ESG; the impact of COVID-19; and alternative investments</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Compensation of Top Executives: Determinants and Consequences</t>
+          <t>EUROFIDAI-ESSEC Paris December Finance Meeting</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Cambridge, MA</t>
+          <t>Pullman Paris Montparnasse Hotel (France)</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>50€ (EUR)</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>The effects of CEO pay on firm performance and behavior, The relationship between CEO pay and the market for executive talent, The role of institutional investors and other shareholders in setting CEO pay, Drivers of variation in CEO pay across time, firms, and countries, The optimal design of CEO pay contracts, The effects of regulation on CEO pay</t>
+          <t>All areas of finance</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Research Symposium on Finance and Economics (RSFE) 2025</t>
+          <t>2nd Knut Wicksell Conference on Crypto and Fintech</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>IFMR GSB, Krea University, Andhra Pradesh, India (Virtual)</t>
+          <t>Lund, Sweden</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>No paper submission fee.</t>
+          <t>No participation fee</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Corporate Finance, Capital Structure and Dividend Policy, Emerging trends in Corporate Finance and Corporate Governance, Mergers and Acquisitions, Financial Reporting and Regulations, Behavioural Finance, Computational Finance and Financial Econometrics, Asset Pricing, Financial Markets, Derivatives Trading and Pricing, Market Microstructure and Algorithmic Trading, Banking and Risk Management, Digital Finance, Financial Tech, AI, and Machine Learning, Microeconomics, Applied Microeconomics, Macroeconomics, International Economics, International Trade, Development Economics, Energy Economics, Econometrics, Applied Econometrics, Public Finance, Political Economy, Game Theory, Economic Growth, Environmental Economics, Labour Economics</t>
+          <t>Crypto and blockchain technology (asset pricing, systemic risk, market microstructure); Crypto markets, households, and the real economy; Environmental and social impact of crypto markets; Central Bank Digital Currencies (CBDCs); Financial technology (Fintech); Payment systems (payment firms, consumer experiences, bank competition); Interaction between traditional finance and decentralized finance</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Behavioral/Cognitive Finance, Decision/Risk Sciences in the Age of Artificial Intelligence; Entrepreneurship &amp; Economics-2025</t>
+          <t>2025 Vietnam Symposium in Banking and Finance (VSBF-2025)</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>regulation and financial services</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Silicon Valley/Santa Clara, CA, USA</t>
+          <t>ricing and allocation</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>$99.00</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Behavioral/Cognitive Finance &amp; Economics, Neuroscience/Neuromorphic Computing, Quantum Entanglement Political Economy, Biological Anthropology, Brain-Computer Interfaces, Quantum Entanglement, Decision Making Under Conditions of Risk and Uncertainty, Venture Startups and Exits, Trust, Financial and Capital Markets, Social Capital, Moral Sentiments and Working of the Markets Economy, Capitalism, Investment in and Working of Financial Markets, Financial Management of Companies, Entrepreneurship, Innovation, Economic Development, Sustainable Finance, Role of Behavioral Finance &amp; Economics in Personal Finance, Retirement Saving &amp; Planning, Teaching, Learning, Training, Applications- Behavioral Finance in Practice.</t>
-        </is>
-      </c>
+          <t>nance</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>The 16th Annual Financial Markets and Liquidity (AFML) Conference</t>
+          <t>The Second PHBS-IER Conference on "Demographic Change and Migration: Facts, Models and Policy Implications"</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Peking University HSBC Business School, Shenzhen, China</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5239,256 +5231,256 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Corporate finance; Investments; Banking; Asset Pricing; Mathematical Finance; Systemic Risk; Regulations; ESG Investments and Sustainability; Climate Finance; Household Finance; AI and Machine Learning; Game Theoretic Aspects of Financial Markets; Market and Funding Liquidity; Global Liquidity (both Public and Private); Leverage and Macroeconomic Determinants; Market Microstructure; Illiquid Alternative Investments; and Asset Innovations.</t>
+          <t>Driving factors of demographic change: empirics and modeling of fertility and mortality; Internal and international migration flows induced by demographic change; The impact of population aging on public finances and the future of social insurance systems (social security, health care, long-term care etc.); Demographic change, migration flows and national and local labor markets; Migration and the spatial distribution of economic activity; The interaction between demographic change, technological progress, and economic growth; The impact of demographic change on housing and financial asset prices and returns; Focus on Asian economies is encouraged</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025 Conference on Accounting and Finance Research and Education in the Era of Rapid Technological Advances</t>
+          <t>Frontiers in Quantitative Finance Conference 2025</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Suzhou, China</t>
+          <t>New York Marriott Marquis</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Onsite participants - RMB ¥2,000 or USD $280; Online participants - RMB ¥1,200 or USD $180.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Artificial intelligence (AI), big data, and machine learning, Blockchain, cryptocurrencies, and digital finance, Fintech and financial inclusion, Cybersecurity in financial data management, Accounting for technology and innovation, Business ethics and corporate governance, Corporate social responsibility (CSR), Environmental, Social and Governance (ESG), Entrepreneurship, innovation and sustainability, Regulation and the roles of government, Risk management in the digital age, Green finance, green innovation and technology, Green supply chain analysis and social responsibility in global supply chains, Curriculum design and educational research, Pedagogy and case studies</t>
+          <t>Quantitative methods; asset pricing (including topics related to the work of Sanford J. Grossman)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>4th Holden Conference in Finance and Real Estate</t>
+          <t>NTU AI &amp; Business Forum: NTU Summer School &amp; Conference on AI for Finance</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Bloomington, Indiana</t>
+          <t>Nanyang Business School, Nanyang Technological University (Singapore)</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>$95</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Empirical and theoretical papers in all finance and real estate areas</t>
+          <t>Algorithmic and high-frequency trading strategies; AI in Risk management and credit scoring; AI-based Portfolio optimization; Natural language processing in financial applications; Robo-advisory services and fraud detection; Financial forecasting and market sentiment analysis using AI/ML; Reinforcement learning for dynamic trading; AI regulations and ethical decision-making in Financial AI; Other AI-related research in finance</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>The 2025 5th Global PhD Student Colloquium</t>
+          <t>International Society for the Advancement of Financial Economics 2025 Conference (ISAFE – China)</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>University of Sydney Business School, Australia</t>
+          <t>Beijing, China</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0 USD</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Research papers from all business disciplines, especially Finance and Accounting</t>
+          <t>AI and finance; Asset allocation and valuation; Central banking and monetary policy; Corporate finance and governance; Country funds and hedge funds; Emerging markets finance; Empirical assets pricing; Financial accounting, law, and regulation; Financial crises and contagion; Financial econometrics; Financial engineering and derivatives; Financial intermediation, institutions &amp; services; Financial markets and market microstructure; FinTech: Revealing Potential and Challenges; Foreign currency issues; International finance and capital markets; IPOs, SEOs, M&amp;As &amp; Divestitures; Market behavior efficiency; Multinational financial management; Personal finance and household finance; Portfolio management and optimization; Quantitative finance and financial econometrics; Real estate finance; Risk management; Small business and entrepreneurial finance; Sustainable finance, ethics, and CSR</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025 UGA Fall Finance Conference</t>
+          <t>8th Dauphine Finance PhD Workshop</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Athens, GA</t>
+          <t>Paris, France</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>$65</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Papers in all areas of finance</t>
+          <t>Papers in all areas of Finance and Financial Economics are welcome</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025 FMA Annual Meeting</t>
+          <t>The 19th NYCU International Finance Conference</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Vancouver, BC, Canada</t>
+          <t>National Yang Ming Chiao Tung University, Hsinchu, Taiwan</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>$75 (current FMA members); $85 (non-members)</t>
+          <t>US$250</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Financial decision-making, financial management and related topics.</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>The Fifth Israel Behavioral Finance Conference</t>
+          <t>Symposium on Financial Markets in the Era of Climate Change, Madrid</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Academic College of Tel Aviv Yaffo- Israel</t>
+          <t>Madrid, Spain</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>No submission fee.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>All areas of behavioral finance, including its applications to the theory of the firm, individual and professional investors, experimental finance, financial markets, international finance, and ESG investing.</t>
+          <t>Climate risks; Green financial products; Sustainable investing; Corporate green strategy; Environmental externalities; Climate-related regulation</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>NTU Summer School &amp; Conference on AI for Finance</t>
+          <t>The 38th Australasian Finance and Banking Conference</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-12-13</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Nanyang Business School, Nanyang Technological University, Singapore.</t>
+          <t>Sydney, Australia</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5498,71 +5490,71 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>The financial implications and applications of artificial intelligence, AI research in asset pricing, portfolio management, corporate finance, financial accounting, algorithmic and high-frequency trading strategies, AI in Risk management and credit scoring, AI-based Portfolio optimization, natural language processing in financial applications, Robo-advisory services and fraud detection, financial forecasting and market sentiment analysis using AI/ML, reinforcement learning for dynamic trading, AI regulations and ethical decision-making in Financial AI, other AI-related research in finance.</t>
+          <t>Opportunities and Risks of AI Technology in Finance; CBDCs, Fintech, and Digital Finance; Sustainable Investment</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>The 32nd Annual Global Finance Conference</t>
+          <t>2025 GSU-MS AI and FinTech Conference</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Boston, MA</t>
+          <t>Buckhead Center of Georgia State University, Atlanta, GA</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$100 USD</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Accounting, Auditing, and Taxation, Banking, Financial Services, and Investment Banking, Behavioral and Experimental Finance/Economics, Big Data, AI, Machine Learning, and Fintech in Global Finance &amp; Banking, Emerging Markets, Corporate Finance, Investments &amp; Global Perspectives, Corporate Governance and Executive Compensation, Green Finance &amp; ESG Investments, Climate Risks and Financial Stability, Global Health Issues and Pandemic Impacts, Derivatives, Financial Engineering, and Real Options, Entrepreneurship and Venture Capital, Financial Market Integration, Linkages &amp; Segmentation, Foreign Exchange &amp; Monetary Economics, Global Energy and Environmental Finance, Financial Crises, Global Inequality &amp; Economic Imbalances, Household &amp; Micro Finance, IPOs, SEOs, Stock Buybacks &amp; Privatization, Mergers &amp; Acquisitions, Corporate &amp; State Sovereign Wealth Funds, Blockchain, Cryptocurrencies, and Digital Finance, Portfolio Management, Asset Allocation &amp; Foreign Direct Investments, Real Estate Finance, REITs, and Crowdfunding, Risk Management, Debt, Insurance &amp; Reinsurance, Sovereign Wealth Funds, Hedge Funds, ETFs &amp; Mutual Funds, Sustainability, Corporate Social Responsibility &amp; Ethics.</t>
+          <t>AI Methods and Applications in Finance and Economics; Impact of AI and New Technologies; Risk and Regulation of AI and FinTech; Other AI and FinTech topics (Big Data, Digital Economy, DeFi, Cryptoeconomics, and additional relevant topics)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025 International Symposium on Climate, Finance, and Sustainability (ISCFS-2025)</t>
+          <t>2nd Financial Fraud, Misconduct and Market Manipulation Conference</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>House of Management Science, Paris Pantheon-Assas University</t>
+          <t>Lancaster University, England</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5572,14 +5564,14 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Carbon Finance and Taxes, Climate Finance, Climate Negotiations and Scenarios, Climate Risk and Disclosures, Climate-resilient Economies, Energy Derivatives: Pricing and Hedging, Energy Markets: Modeling, and Forecasting, Energy, Environment, and Climate Models, Financial and Economic Analysis of Energy Markets, Financial Regulation of Energy and Environmental Markets, Green Finance and Sustainable Investment, Just Energy Transition, Macroeconomic Implications of Net-Zero Carbon Emissions, Natural Resources, Risk, Welfare and Social Preferences, Renewable Energy, Regulation and Energy Governance, Role of Financial Institutions in Sustainability.</t>
+          <t>Theoretical and empirical analysis of financial fraud; Case studies of recent instances of market misconduct; Insider trading; Implication of financial fraud/market manipulation for market efficiency, stability, and asset pricing; Market manipulation at a high-frequency (intraday) level; Fraudulent activities and crypto currency markets; Social networks, fake news, and their effect on financial markets; Money laundering and banking; Conflicts of interests and their implications for various stake holders and financial markets; Hedge funds/Mutual funds and their involvement in market misconduct; Statistical/ Machine Learning methods for fraud detection; Cyber security and cyber risk management; Regulatory response to financial misconduct; Unintended consequences of politics and regulations</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Conference on Sustainable Financial Intermediation</t>
+          <t>Future Finance Fest (3f)</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5589,54 +5581,54 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Novotel Reims Tinqueux, France</t>
+          <t>Vilnius, Lithuania (Old Town Vilnius)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No submission fee</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Financial intermediation, household finance, corporate finance, financing of “green” assets</t>
+          <t>Any work with practical implications for the future of finance.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>9th Shanghai-Edinburgh-London Conference Sustainable Finance in the Digital Era</t>
+          <t>Johns Hopkins Carey Finance Conference</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Shanghai and Online</t>
+          <t>Johns Hopkins Carey Campus (100 International Drive, Baltimore, MD)</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5646,182 +5638,182 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Use of AI and machine learning in ESG investment strategies, sustainability disclosures, and climate risk modelling; Blockchain applications in carbon markets, green bonds and regulatory compliance; Corporate governance challenges, greenwashing detection and market responses to ESG commitments; Role of digital finance, decentralised finance (DeFi) and emerging technologies in supporting a low-carbon transition; Policy frameworks and regulatory challenges shaping the adoption of sustainable finance in developed and emerging markets.</t>
+          <t>All areas of finance; emphasis on early-stage papers</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025 Vietnam Symposium in Entrepreneurship, Finance, and Innovation</t>
+          <t>TSE Industrial Organisation &amp; Finance Conference</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Hanoi, Vietnam</t>
+          <t>Toulouse School of Economics</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>No submission fee is required.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>AI, Big Data, and Machine Learning Applications in Finance, Asset Pricing, Bankruptcy and Liquidation, Biodiversity Finance, Climate Finance, Corporate Finance and Governance, Corporate Responsibility and Sustainability, Crypto Assets and Decentralized Finance, Digital Finance, ESG and Sustainable Finance, Financial Markets, Green Cryptocurrencies, Household Finance, Information Disclosure, Market Efficiency, and Transparency, Portfolio and Investment Decisions, Business Model Innovation, Corporate Digital Transformation, Crowdfunding and P2P Lending, Entrepreneurship, Intrapreneurship, and Innovation, Entrepreneurship in Emerging and Transition Markets, Family-Owned Businesses and Governance, Governance and Financing of High-Tech Firms, New Venture Creation and Performance, Social and Sustainable Entrepreneurship, Startups, SMEs, and Resource Allocation, Venture Financing and Entrepreneurial Growth, Digital Human Resources, Digital Innovation, Knowledge Management, and Entrepreneurship, Electronic Markets and Trading Platforms, FinTech and Alternative Finance, Innovation Management and Growth Strategies, Sustainability in the Digital Economy</t>
+          <t>Competition between financial service providers; Entry of new players in the financial intermediation chain (Fintechs, NBFIs); Integration between different financial services (e.g., payment and credit) or between financial services and other activities (e.g., social networks and payment); The role of data in the provision of financial services, Open Banking; The use of structural estimation techniques to analyze the demand for financial products and/or strategic interactions between financial firms; The impact of the organization of financial firms for product market competition</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20th Central Bank Conference on the Microstructure of Financial Markets</t>
+          <t>2nd Exeter Sustainable Finance Conference</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Exeter, United Kingdom</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>AI-driven trading algorithms and market quality, AI predictive analytics and their impact on market efficiency, Applications of AI in market making and liquidity provision, Implications of AI for market microstructure design, The role of technology and financial innovation in shaping settlement cycles in security markets, Alternative settlement cycles and financial stability, The Impact of alternative settlement cycles on market liquidity, volatility, price efficiency and informativeness, Asset tokenisation: Liquidity and price discovery implications, Impact of market fragmentation on price discovery and information asymmetry in digital-asset markets, Decentralised finance: market making, trading mechanisms, market efficiency, and related regulatory developments, Price dynamics and liquidity in stablecoin markets, Stablecoin design and peg stability</t>
+          <t>Unpublished research papers on sustainable and responsible finance; interdisciplinary research that draws together approaches from different disciplines.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Financial Regulation and RegTech Forum</t>
+          <t>Hybrid Conference on Islamic Law and Finance</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Beijing, China</t>
+          <t>Durham University Business School, Waterside Building Campus, UK</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>RMB 2000 for non-students and RMB 1000 for students.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Methods and technologies for intelligent monitoring and discovery of abnormal trading behaviors in the securities market, Financial fraud detection methods, Methods for identifying and monitoring illicit financial activities and regulatory technologies, New approaches to financial risk assessment such as the application of big data and AI methods in risk management, New measurement methods and early warning techniques for financial systemic risk, New methods and technologies for credit risk assessment and credit scoring, Liquidity risk measurement methodology, Supply chain finance in the era of big data, The development of fintech and its impact, Fintech product and institutional risk monitoring, Application and innovation of large language models and generative AI in the financial sector, Interpretable AI, Model risk and model risk assessment methodology, AI approaches in the financial sector and their impact on financial stability, Blockchain technology and its application in financial regulation, Risk identification and monitoring methods for virtual currencies, Key technical facilities in the banking industry, Finance of science and technology, Digital finance</t>
+          <t>Financial Innovation (including FinTech); Shaping Monetary Policy from a Maqasid perspective; Designing Fiscal Policy from a Maqasid perspective; Artificial Intelligence (AI) in Islamic Finance; Legal and Regulatory Frameworks; Access to Finance and Social Welfare; Corporate Governance and Shari’ah Compliance; Purpose-Based vs. Problem-Based Approaches; Cultural Dimensions in Islamic Finance; Islamic Finance for Global Challenges; Governance Mechanisms and Stakeholder Accountability</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Northern Finance Association 2025 Annual Meeting</t>
+          <t>21st Annual Conference of the Asia-Pacific Association of Derivatives (APAD)</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Hyatt Regency, Calgary, Alberta</t>
+          <t>Busan, Korea (Online and In-Person)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Canadian $50 per paper</t>
+          <t>US$200 (waived for presenters of accepted papers)</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Any topic related to finance</t>
+          <t>Derivatives; Volatility; Risk Management; Asset Pricing; Investments; Corporate Finance; Corporate Governance; Market Microstructure; Banking; Personal and Household Finance; ESG and Climate Finance; AI and Big Data; Blockchain and Crypto Assets; Fintech; Regulation; Behavioral Finance; among others</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Fourth Oxford Sustainable Private Markets Conference</t>
+          <t>EBA's 14th Policy Research Workshop: Bridging capital and growth - the role of financial structures and intermediaries</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Saïd Business School, University of Oxford</t>
+          <t>EBA premises (Paris, France) and remotely</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5831,71 +5823,71 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Environmental, social and governance (ESG) in private markets (private equity, private debt, real assets).</t>
+          <t>The impact of global capital flows on market efficiency and the role of financial intermediation; Access to finance by entrepreneurs ensuring that capital is used in the most productive ways; Provision of mechanisms for managing risk and contribution from regulatory frameworks on the functioning and stability of financial intermediaries; Incorporation of environmental, social, and governance (ESG) supporting sustainable development and growth; Advances in digital finance initiatives and better alignment with regulation and policies</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>New Perspectives on Consumer Behavior in Credit and Payments Markets Conference</t>
+          <t>5th CEPR-Stigler Center Conference on Political Economy of Finance: Governance in a Polarized World</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Federal Reserve Bank of Philadelphia</t>
+          <t>London, United Kingdom (Imperial College London)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0 USD</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Household debt and default, fintech, financial literacy, regulation, linkages between consumer credit and the real economy, innovations in household payments.</t>
+          <t>Political economy of finance in a polarized world; governance changes in private and public sectors; corporate governance under polarization; inequality and politicization; climate change and economic decline; trust and social cohesion; governance trade-offs faced by voters, businesses, and governments</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>6th LTI@UniTO/Bank of Italy Workshop on Long-term investors’ trends: theory and practice</t>
+          <t>Inaugural Finance Conference Vitznau 2025</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Collegio Carlo Alberto, Turin, Italy</t>
+          <t>Vitznau, Switzerland</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5905,71 +5897,71 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Long-term investors’ strategies and behavior in times of geopolitical fragmentation, rising protectionism and technological breakthroughs. Shifting equilibria in government bond markets driven by quantitative tightening, rising indebtedness and macroeconomic uncertainty. The evolution of sustainable investment strategies and greenlash risks. Challenges for long-term investors stemming from increasing equity market concentration. The rising importance of non-bank investors in credit intermediation and its consequences for the transmission of monetary policy. The rise of cryptocurrencies, emerging financial technologies (fintech) and their impact on investment strategies. Emerging trends in asset allocation and risk management for long-term investors, including insurance companies, pension funds, and mutual funds. Shock transmission mechanisms from the real economy to financial institutions and the amplification of shocks through credit chains, fire sales, and other procyclical processes. The use of big data and artificial intelligence to assess and manage exposure to risk factors. Innovations in financial markets and opportunities for financial institutions. The effects of the demographic transitions on financial markets and the role of long-term investors in tackling them.</t>
+          <t>Machine learning for the cross-section of returns; Big data analysis; Large language models and unstructured data; Non-standard datasets for return predictions; Systematic expectations mistakes, and predictable returns; Feasible and implementable portfolios; Predictable turning points</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Politics in Finance 2025 Conference</t>
+          <t>2025 Canadian Derivatives Institute (CDI) Conference</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Georgetown University, Washington DC</t>
+          <t>Montréal, Canada</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>The role of political connections and political ideologies in shaping capital market forces, How political ideologies affect the decision making by firms and workers, Political connections and corruption in developing economies, The political economy of financial development, The interaction between government and financial institutions, Implications of political uncertainty and political connections for asset prices and corporate policies, Political economy of financial regulation and financial crises</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>10th RiskLab Finland, Bank of Finland and European Systemic Risk Board Joint Conference on AI and Systemic Risk Analytics</t>
+          <t>The Institute for Quantitative Investment Research, Residential Seminar, Autumn 2025</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Bank of Finland, Helsinki</t>
+          <t>Eastwell Manor, Kent, United Kingdom</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5979,42 +5971,1152 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Use of Large Language Models (LLM) and trustworthy AI, AI and changing interdependencies in the financial markets, Cyber security and operational risks as sources of systemic risk, AI and Quantum Computing as potential source of new systemic risks, etc.</t>
+          <t>Factors and Macro Risks in a Changing World; Diversification in an inflationary environment; AI applications in investment management; Quantitative investing in private assets; Causality and models of expected returns</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
+          <t>8th CEIBS Finance/Accounting Symposium</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2025-06-28</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Shanghai, China</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Corporate Finance and Governance; Private Equity and Venture Capital; Fintech; Political Economy of Finance; related subfields of finance, accounting, and economics</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>12th SAFE Asset Pricing Workshop</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Theodor W. Adorno Platz 3, House of Finance, 60323 Frankfurt, Germany</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>All areas of asset pricing (theoretical, empirical, intermediary, macrofinance etc.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>9th SAFE Market Microstructure Conference</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Theodor W. Adorno Platz 3, House of Finance, 60323 Frankfurt, Germany</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>All areas of market microstructure</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>14th Fixed Income and Financial Institutions (FIFI) Conference</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Columbia, South Carolina, USA</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>USD 75</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Fixed income; commercial and investment banks; asset management and mutual funds; short sellers; hedge funds; broker-dealers; insurance companies; private equity and venture capital; FinTech; and related topics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>The 8th Cryptocurrency Research Conference (CRC2025)</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>National and Kapodistrian University of Athens, Athens, Greece</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>£400</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>AI and Machine Learning in Crypto and Blockchain; Big Data in Fintech; Blockchain in Global Finance; Crypto Asset Efficiency and Market Behaviour; Central Bank Digital Currencies (CBDCs); Crowdfunding and P2P Lending; Cybercrime and Cybersecurity in Fintech; Digital Banking and the Digital Economy; Decentralized Autonomous Organizations (DAOs); Decentralized Finance (DeFi); DEXs vs. CEXs: Market Dynamics; Environmental Sustainability of Cryptocurrency; Fintech Regulation and Compliance; Cryptocurrency and Financial Stability; Media and Investor Attention on Fintech and DeFi; Non-Fungible Tokens (NFTs) and Digital Assets; Natural Language Processing (NLP) in Fintech; Blockchain Opportunities for Entrepreneurs; Russian Sanctions and the Fintech Industry; Stablecoins: Design and Risks; AI-Driven Innovation in Crypto Markets; Preparing for post-Quantum Blockchain; Other relevant topics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>6th CEAR-RSI Household Finance Workshop</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Montréal, Québec, Canada (HEC Montréal, 501, rue De La Gauchetière Ouest, Montréal, QC H2Z 1Z5, Canada)</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Consumption-saving decisions and investment choices; Financial literacy and education; Pensions and retirement; Financial planning and advice; Financial delinquency and bankruptcy; Household insurance and risk management</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Compensation of Top Executives: Determinants and Consequences</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Cambridge, MA</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>The effects of CEO pay on firm performance and behavior; The relationship between CEO pay and the market for executive talent; The role of institutional investors and other shareholders in setting CEO pay; Drivers of variation in CEO pay across time, firms, and countries; The optimal design of CEO pay contracts; The effects of regulation on CEO pay</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Research Symposium on Finance and Economics (RSFE) 2025 (Virtual)</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>IFMR GSB, Krea University, Andhra Pradesh, India (Virtual)</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0 USD (no submission fee)</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Finance: Corporate Finance, Capital Structure and Dividend Policy, Emerging trends in Corporate Finance and Corporate Governance, Mergers and Acquisitions, Financial Reporting and Regulations, Behavioural Finance, Computational Finance and Financial Econometrics, Asset Pricing, Financial Markets, Derivatives Trading and Pricing, Market Microstructure and Algorithmic Trading, Banking and Risk Management, Digital Finance, Financial Tech, AI, and Machine Learning. Economics: Microeconomics, Applied Microeconomics, Macroeconomics, International Economics, International Trade, Development Economics, Energy Economics, Econometrics, Applied Econometrics, Public Finance, Political Economy, Game Theory, Economic Growth, Environmental Economics, and Labour Economics. The list of topics mentioned above is indicative and research papers on other topics of Finance and Economics are also welcome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ABF&amp;E Annual Meeting (Academy of Behavioral Finance &amp; Economics)</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Silicon Valley/Santa Clara, CA, USA</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>USD 99.00</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Behavioral/Cognitive Finance &amp; Economics; Neuroscience/Neuromorphic Computing; Quantum Entanglement Political Economy; Biological Anthropology; Brain-Computer Interfaces; Development of new financial &amp; economic models for decision making and risk taking; Decision making under risk and uncertainty (including AI-based models); Venture startups and exits; Trust in financial markets; Investment in and functioning of financial markets; Financial management of companies; Entrepreneurship, Innovation, and Economic Development; Sustainable Finance; Role of Behavioral Finance &amp; Economics in Personal Finance and Retirement Planning; Teaching, Learning, and Training using AI/AGI; Applications of behavioral finance in practice (empirical/impactful works); Nudging clients and markets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>The 16th Annual Financial Markets and Liquidity (AFML) Conference</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Budapest, Hungary</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>General finance topics (Corporate finance; Investments; Banking; Asset Pricing; Mathematical Finance; Systemic Risk; Regulations; ESG Investments and Sustainability; Climate Finance; Household Finance; AI and Machine Learning; Game Theoretic Aspects of Financial Markets); Liquidity-focused topics (Market and Funding Liquidity; Global Liquidity; Leverage and Macroeconomic Determinants; Market Microstructure; Illiquid Alternative Investments; Asset Innovations)</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025 Conference on Accounting and Finance Research and Education in the Era of Rapid Technological Advances</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Suzhou, China (Xi’an Jiaotong-Liverpool University, Suzhou; online attendance available)</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Artificial intelligence (AI), big data, and machine learning; Blockchain, cryptocurrencies, and digital finance; Fintech and financial inclusion; Cybersecurity in financial data management; Accounting for technology and innovation; Business ethics and corporate governance; Corporate social responsibility (CSR); Environmental, Social and Governance (ESG); Entrepreneurship, innovation and sustainability; Regulation and the roles of government; Risk management in the digital age; Green finance, green innovation and technology; Green supply chain analysis and social responsibility in global supply chains; Curriculum design and educational research; Pedagogy and case studies; Proposals for Panels, Workshops, and Tutorials</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>4th Holden Conference in Finance and Real Estate</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Bloomington, Indiana</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>USD 95</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>All finance and real estate topics; empirical and theoretical papers</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>The 2025 5th Global PhD Student Colloquium</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2025-07-26</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>University of Sydney Business School, Australia</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>All business disciplines; especially Finance and Accounting</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025 UGA Fall Finance Conference</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Athens, GA</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>$65 USD</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Papers in all areas of finance are welcome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025 FMA Annual Meeting</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Vancouver, BC, Canada</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>75 USD (current FMA members); 85 USD (non-members)</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>All areas of finance; financial decision-making; financial management and related topics</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>The Fifth Israel Conference in Behavioral Finance</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Academic College of Tel Aviv-Yaffo, Israel</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0 USD</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>All areas of behavioral finance, including applications to the theory of the firm, individual and professional investors, experimental finance, financial markets, international finance, and ESG investing; special emphasis on the intersection of behavioral finance and women, including how nudges via social networks or AI products may support women's involvement and improve their financial decisions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>NTU Summer School &amp; Conference on AI for Finance</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Nanyang Business School, Nanyang Technological University, Singapore</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Overview of how ML/AI are transforming finance and accounting research; Financial forecasting; Advances in deep learning for asset pricing; Reinforcement learning for trading and portfolio management; ML tools for dynamic structural models; NLP in finance; AI in asset pricing, portfolio management, corporate finance, and financial accounting; Algorithmic and high-frequency trading; AI in risk management and credit scoring; AI-based portfolio optimization; Robo-advisory services and fraud detection; Market sentiment analysis using AI/ML; AI regulations and ethical decision-making in Financial AI</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>The 32nd Annual Global Finance Conference</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Boston, MA</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Accounting, Auditing, and Taxation; Banking, Financial Services, and Investment Banking; Behavioral and Experimental Finance/Economics; Big Data, AI, Machine Learning, and Fintech in Global Finance &amp; Banking; Emerging Markets (BRICS, MIST, MINT, Next 11, PIIGS, SANE); Corporate Finance, Investments &amp; Global Perspectives; Corporate Governance and Executive Compensation; Green Finance &amp; ESG Investments; Climate Risks and Financial Stability; Global Health Issues and Pandemic Impacts; Derivatives, Financial Engineering, and Real Options; Entrepreneurship and Venture Capital; Financial Market Integration, Linkages &amp; Segmentation; Foreign Exchange &amp; Monetary Economics; Global Energy and Environmental Finance; Financial Crises, Global Inequality &amp; Economic Imbalances; Household &amp; Micro Finance; IPOs, SEOs, Stock Buybacks &amp; Privatization; Mergers &amp; Acquisitions, Corporate &amp; State Sovereign Wealth Funds; Blockchain, Cryptocurrencies, and Digital Finance; Portfolio Management, Asset Allocation &amp; Foreign Direct Investments; Real Estate Finance, REITs, and Crowdfunding; Risk Management, Debt, Insurance &amp; Reinsurance; Sovereign Wealth Funds, Hedge Funds, ETFs &amp; Mutual Funds; Sustainability, Corporate Social Responsibility &amp; Ethics</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025 International Symposium on Climate, Finance, and Sustainability (ISCFS-2025)</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>House of Management Science, Paris Pantheon-Assas University, Paris, France</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>All aspects of energy transition, environmental sustainability, banking, climate finance, financial markets, and the macroeconomy; includes Carbon Finance and Taxes; Climate Finance; Climate Negotiations and Scenarios; Climate Risk and Disclosures; Climate-resilient Economies; Energy Derivatives: Pricing and Hedging; Energy Markets: Modeling, and Forecasting; Energy, Environment, and Climate Models; Financial and Economic Analysis of Energy Markets; Financial Regulation of Energy and Environmental Markets; Green Finance and Sustainable Investment; Just Energy Transition; Macroeconomic Implications of Net-Zero Carbon Emissions; Natural Resources, Risk, Welfare and Social Preferences; Renewable Energy Regulation and Energy Governance; Role of Financial Institutions in Sustainability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ESSEC-Luxembourg-CEPR Conference on Sustainable Financial Intermediation</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Novotel Reims Tinqueux, Tinqueux, France (Route de Soissons, 51430 Tinqueux)</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>financial intermediation; household finance; corporate finance; green finance/assets financing; sustainability; housing markets</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>9th Shanghai-Edinburgh-London Conference Sustainable Finance in the Digital Era; and Special Issues of the British Accounting Review</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Shanghai and Online</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>The use of AI and machine learning in ESG investment strategies, sustainability disclosures, and climate risk modelling; Blockchain applications in carbon markets, green bonds and regulatory compliance; Corporate governance challenges, greenwashing detection and market responses to ESG commitments; The role of digital finance, decentralised finance (DeFi) and emerging technologies in supporting a low-carbon transition; Policy frameworks and regulatory challenges shaping the adoption of sustainable finance in developed and emerging markets</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025 Vietnam Symposium in Entrepreneurship, Finance, and Innovation (VSEFI2025)</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Hanoi, Vietnam (Mövenpick Living West)</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0 USD (no submission fee)</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>AI, Big Data, and Machine Learning Applications in Finance; Asset Pricing; Bankruptcy and Liquidation; Biodiversity Finance; Climate Finance; Corporate Finance and Governance; Corporate Responsibility and Sustainability; Crypto Assets and Decentralized Finance; Digital Finance; ESG and Sustainable Finance; Financial Markets; Green Cryptocurrencies; Household Finance; Information Disclosure, Market Efficiency, and Transparency; Portfolio and Investment Decisions; Business Model Innovation; Corporate Digital Transformation; Crowdfunding and P2P Lending; Entrepreneurship, Intrapreneurship, and Innovation; Entrepreneurship in Emerging and Transition Markets; Family-Owned Businesses and Governance; Governance and Financing of High-Tech Firms; New Venture Creation and Performance; Social and Sustainable Entrepreneurship; Startups, SMEs, and Resource Allocation; Venture Financing and Entrepreneurial Growth; Digital Human Resources; Digital Innovation, Knowledge Management, and Entrepreneurship; Electronic Markets and Trading Platforms; FinTech and Alternative Finance; Innovation Management and Growth Strategies; Sustainability in the Digital Economy</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>20th Central Bank Conference on the Microstructure of Financial Markets</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>AI and market microstructure (AI-driven trading algorithms and market quality; AI predictive analytics and their impact on market efficiency; Applications of AI in market making and liquidity provision; Implications of AI for market microstructure design); Financial Innovation and Settlement Cycles (technology and financial innovation shaping settlement cycles; alternative settlement cycles and financial stability; impact of alternative settlement cycles on liquidity, volatility, price efficiency and informativeness); Decentralised Finance and the Digital Asset Ecosystem (asset tokenisation and liquidity/price discovery implications; market fragmentation and information asymmetry in digital-asset markets; decentralised finance: market making, trading mechanisms, market efficiency, regulatory developments; price dynamics and liquidity in stablecoin markets; stablecoin design and peg stability)</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Financial Regulation and RegTech Forum</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Beihang University (Xueyuan Road Campus), Beijing, China</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>RMB 2000 for non-students; RMB 1000 for students</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Methods and technologies for intelligent monitoring and discovery of abnormal trading behaviors in the securities market; Financial fraud detection methods; Methods for identifying and monitoring illicit financial activities and regulatory technologies; New approaches to financial risk assessment, such as the application of big data and AI methods in risk management; New measurement methods and early warning techniques for financial systemic risk; New methods and technologies for credit risk assessment and credit scoring; Liquidity risk measurement methodology; Supply chain finance in the era of big data; The development of fintech and its impact; Fintech product and institutional risk monitoring; Application and innovation of large language models and generative AI in the financial sector; Interpretable AI; Model risk and model risk assessment methodology; AI approaches in the financial sector and their impact on financial stability; Blockchain technology and its application in financial regulation; Risk identification and monitoring methods for virtual currencies; Key technical facilities in the banking industry; Finance of science and technology; Digital finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Northern Finance Association 2025 Annual Meeting</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Calgary, Alberta, Canada</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>CAD 50 per paper (waived for papers authored exclusively by PhD students)</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Any topic related to finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Fourth Oxford Sustainable Private Markets Conference</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Saïd Business School, University of Oxford, Park End Street, Oxford, OX1 1HP, UK</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0 USD (no submission fee)</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>ESG in private markets (private equity, private debt, real assets)</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>New Perspectives on Consumer Behavior in Credit and Payments Markets Conference</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Federal Reserve Bank of Philadelphia</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>household debt and default; fintech; financial literacy; regulation; linkages between consumer credit and the real economy; innovations in household payments</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>6th LTI@UniTO/Bank of Italy Workshop on Long-term investors’ trends: theory and practice</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Collegio Carlo Alberto, Turin, Italy</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Long-term investors’ strategies and behavior in times of geopolitical fragmentation, rising protectionism and technological breakthroughs; Shifting equilibria in government bond markets driven by quantitative tightening, rising indebtedness and macroeconomic uncertainty; The evolution of sustainable investment strategies and greenlash risks; Challenges for long-term investors stemming from increasing equity market concentration; The rising importance of non-bank investors in credit intermediation and its consequences for the transmission of monetary policy; The rise of cryptocurrencies, emerging financial technologies (fintech) and their impact on investment strategies; Emerging trends in asset allocation and risk management for long-term investors, including insurance companies, pension funds, and mutual funds; Shock transmission mechanisms from the real economy to financial institutions and the amplification of shocks through credit chains, fire sales, and other procyclical processes; The use of big data and artificial intelligence to assess and manage exposure to risk factors; Innovations in financial markets and opportunities for financial institutions; The effects of the demographic transitions on financial markets and the role of long-term investors in tackling them</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Politics in Finance 2025 Conference</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Georgetown University campus, Washington DC</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>$75 USD</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>The role of political connections and political ideologies in shaping capital market forces; How political ideologies affect the decision making by firms and workers; Political connections and corruption in developing economies; The political economy of financial development; The interaction between government and financial institutions; Implications of political uncertainty and political connections for asset prices and corporate policies; Political economy of financial regulation and financial crises</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>10th RiskLab Finland, Bank of Finland and European Systemic Risk Board Joint Conference on AI and Systemic Risk Analytics</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2025-06-28</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Bank of Finland, Helsinki</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Free of charge</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Use of Large Language Models (LLM) and trustworthy AI; AI and changing interdependencies in the financial markets; Cyber security and operational risks as sources of systemic risk; AI and Quantum Computing as potential source of new systemic risks; Use of AI with big data for systemic risk analytics; Risks and opportunities stemming from disruptive innovations in FinTech; Using systemic risk analytics to support macro-prudential policy and regulation; Analysing emerging risks from interconnectedness of the financial system; Identifying risks from market-based finance; Evidence of macroprudential policy measures; Economic policies in the turbulent and uncertain times</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
           <t>2025 USTC Alumni Finance Conference</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>2025-03-31</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>2025-07-03</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="D181" t="inlineStr">
         <is>
           <t>2025-07-04</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>Hefei, China</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>No submission fee</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>Finance related topics</t>
         </is>
